--- a/Docs/Mag_compability.xlsx
+++ b/Docs/Mag_compability.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="356">
   <si>
     <t>ID</t>
   </si>
@@ -980,9 +980,6 @@
     <t>Is Possible choose something?</t>
   </si>
   <si>
-    <t>Quite different</t>
-  </si>
-  <si>
     <t>comment</t>
   </si>
   <si>
@@ -990,6 +987,111 @@
   </si>
   <si>
     <t>Link to example</t>
+  </si>
+  <si>
+    <t>Quite different?</t>
+  </si>
+  <si>
+    <t>Create destination - HTTP method - POST</t>
+  </si>
+  <si>
+    <t>Get single destination - HTTP method - GET</t>
+  </si>
+  <si>
+    <t>Find recipient - HTTP method - GET</t>
+  </si>
+  <si>
+    <t>Update recipient</t>
+  </si>
+  <si>
+    <t>Retrieve your own organization's details.</t>
+  </si>
+  <si>
+    <t>Retrieve the details of an organization with which you are connected.</t>
+  </si>
+  <si>
+    <t>Creates a new administrator in your organization HTTP method - POST</t>
+  </si>
+  <si>
+    <t>List administrators - HTTP method - GET</t>
+  </si>
+  <si>
+    <t>Update administrator - HTTP method - PUT</t>
+  </si>
+  <si>
+    <t>Delete administrator - HTTP method - DELETE</t>
+  </si>
+  <si>
+    <t>Create worker - HTTP method - POST</t>
+  </si>
+  <si>
+    <t>List workers - HTTP method - GET</t>
+  </si>
+  <si>
+    <t>Get single worker - HTTP method - GET</t>
+  </si>
+  <si>
+    <t>Update worker - HTTP method - PUT</t>
+  </si>
+  <si>
+    <t>Delete worker - HTTP method - DELETE</t>
+  </si>
+  <si>
+    <t>List hubs - HTTP method - GET</t>
+  </si>
+  <si>
+    <t>Create team - HTTP method - GET</t>
+  </si>
+  <si>
+    <t>Update team - HTTP method - PUT</t>
+  </si>
+  <si>
+    <t>List teams - HTTP method - GET</t>
+  </si>
+  <si>
+    <t>Get single team - HTTP method - GET</t>
+  </si>
+  <si>
+    <t>Delete team - HTTP method - DELETE</t>
+  </si>
+  <si>
+    <t>Create task - HTTP method - POST</t>
+  </si>
+  <si>
+    <t>List tasks - HTTP method - GET</t>
+  </si>
+  <si>
+    <t>Get single task - HTTP method - GET</t>
+  </si>
+  <si>
+    <t>Get single task by shortId - HTTP method - GET</t>
+  </si>
+  <si>
+    <t>Update task - HTTP method - PUT</t>
+  </si>
+  <si>
+    <t>Complete task - HTTP method - POST</t>
+  </si>
+  <si>
+    <t>Delete task - HTTP method - DELETE</t>
+  </si>
+  <si>
+    <t>Insert tasks at index (or append) - HTTP method - PUT</t>
+  </si>
+  <si>
+    <t>Update tasks - HTTP method - PUT</t>
+  </si>
+  <si>
+    <t>Create webhook - HTTP method - POST</t>
+  </si>
+  <si>
+    <t>List webhooks - HTTP method - GET</t>
+  </si>
+  <si>
+    <t>Delete webhook - HTTP method - DELETE</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
@@ -1177,7 +1279,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1194,18 +1296,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1218,19 +1308,68 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1511,7 +1650,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1527,32 +1666,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="13" t="s">
-        <v>320</v>
-      </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="15"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1567,23 +1706,23 @@
       <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="I3" s="12" t="s">
+      <c r="J3" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1602,6 +1741,11 @@
       <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="F4" s="16"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
@@ -1619,6 +1763,11 @@
       <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
@@ -1636,6 +1785,11 @@
       <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="F6" s="16"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
@@ -1653,6 +1807,11 @@
       <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
@@ -1670,6 +1829,11 @@
       <c r="E8" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
     </row>
     <row r="9" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
@@ -1687,6 +1851,11 @@
       <c r="E9" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
     </row>
     <row r="10" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
@@ -1704,6 +1873,11 @@
       <c r="E10" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="18"/>
     </row>
     <row r="11" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
@@ -1721,6 +1895,11 @@
       <c r="E11" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
@@ -1738,6 +1917,11 @@
       <c r="E12" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="18"/>
     </row>
     <row r="13" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
@@ -1755,6 +1939,11 @@
       <c r="E13" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="F13" s="16"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="18"/>
     </row>
     <row r="14" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -1772,6 +1961,11 @@
       <c r="E14" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="18"/>
     </row>
     <row r="15" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
@@ -1789,6 +1983,11 @@
       <c r="E15" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
@@ -1806,8 +2005,13 @@
       <c r="E16" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" s="16"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>210</v>
       </c>
@@ -1823,8 +2027,13 @@
       <c r="E17" s="3" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F17" s="16"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>226</v>
       </c>
@@ -1838,8 +2047,13 @@
         <v>49</v>
       </c>
       <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F18" s="16"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="18"/>
+    </row>
+    <row r="19" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>242</v>
       </c>
@@ -1855,8 +2069,13 @@
       <c r="E19" s="3" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F19" s="16"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="18"/>
+    </row>
+    <row r="20" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>258</v>
       </c>
@@ -1872,8 +2091,13 @@
       <c r="E20" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="16"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="18"/>
+    </row>
+    <row r="21" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>274</v>
       </c>
@@ -1889,8 +2113,13 @@
       <c r="E21" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="16"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="18"/>
+    </row>
+    <row r="22" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>290</v>
       </c>
@@ -1906,8 +2135,13 @@
       <c r="E22" s="3" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="16"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="18"/>
+    </row>
+    <row r="23" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>306</v>
       </c>
@@ -1923,8 +2157,13 @@
       <c r="E23" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F23" s="16"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="18"/>
+    </row>
+    <row r="24" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>322</v>
       </c>
@@ -1938,8 +2177,13 @@
         <v>65</v>
       </c>
       <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F24" s="16"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="18"/>
+    </row>
+    <row r="25" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>338</v>
       </c>
@@ -1955,8 +2199,13 @@
       <c r="E25" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F25" s="16"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="18"/>
+    </row>
+    <row r="26" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>354</v>
       </c>
@@ -1972,8 +2221,13 @@
       <c r="E26" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F26" s="16"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>370</v>
       </c>
@@ -1989,8 +2243,13 @@
       <c r="E27" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F27" s="16"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="18"/>
+    </row>
+    <row r="28" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>386</v>
       </c>
@@ -2006,8 +2265,13 @@
       <c r="E28" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F28" s="16"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="18"/>
+    </row>
+    <row r="29" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>402</v>
       </c>
@@ -2023,8 +2287,13 @@
       <c r="E29" s="3" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F29" s="16"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="18"/>
+    </row>
+    <row r="30" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>418</v>
       </c>
@@ -2040,8 +2309,13 @@
       <c r="E30" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="16"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="18"/>
+    </row>
+    <row r="31" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>434</v>
       </c>
@@ -2057,8 +2331,13 @@
       <c r="E31" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F31" s="16"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="18"/>
+    </row>
+    <row r="32" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>450</v>
       </c>
@@ -2074,8 +2353,13 @@
       <c r="E32" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F32" s="16"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="18"/>
+    </row>
+    <row r="33" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>466</v>
       </c>
@@ -2091,8 +2375,13 @@
       <c r="E33" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F33" s="16"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="18"/>
+    </row>
+    <row r="34" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>482</v>
       </c>
@@ -2108,8 +2397,13 @@
       <c r="E34" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F34" s="16"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="18"/>
+    </row>
+    <row r="35" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>498</v>
       </c>
@@ -2125,8 +2419,13 @@
       <c r="E35" s="3" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F35" s="16"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="18"/>
+    </row>
+    <row r="36" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>514</v>
       </c>
@@ -2142,8 +2441,13 @@
       <c r="E36" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F36" s="16"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="18"/>
+    </row>
+    <row r="37" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>530</v>
       </c>
@@ -2159,8 +2463,13 @@
       <c r="E37" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F37" s="16"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="18"/>
+    </row>
+    <row r="38" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>546</v>
       </c>
@@ -2176,8 +2485,13 @@
       <c r="E38" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F38" s="16"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="18"/>
+    </row>
+    <row r="39" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>562</v>
       </c>
@@ -2193,8 +2507,13 @@
       <c r="E39" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F39" s="16"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="18"/>
+    </row>
+    <row r="40" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>578</v>
       </c>
@@ -2210,8 +2529,13 @@
       <c r="E40" s="3" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F40" s="16"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="18"/>
+    </row>
+    <row r="41" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>594</v>
       </c>
@@ -2227,8 +2551,13 @@
       <c r="E41" s="3" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F41" s="16"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="18"/>
+    </row>
+    <row r="42" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>610</v>
       </c>
@@ -2244,8 +2573,13 @@
       <c r="E42" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F42" s="16"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="18"/>
+    </row>
+    <row r="43" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>626</v>
       </c>
@@ -2261,8 +2595,13 @@
       <c r="E43" s="3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F43" s="16"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="18"/>
+    </row>
+    <row r="44" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>658</v>
       </c>
@@ -2278,8 +2617,13 @@
       <c r="E44" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="16"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="18"/>
+    </row>
+    <row r="45" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>674</v>
       </c>
@@ -2291,8 +2635,13 @@
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
-    </row>
-    <row r="46" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F45" s="16"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="18"/>
+    </row>
+    <row r="46" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>690</v>
       </c>
@@ -2308,8 +2657,13 @@
       <c r="E46" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F46" s="16"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="18"/>
+    </row>
+    <row r="47" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>706</v>
       </c>
@@ -2325,8 +2679,13 @@
       <c r="E47" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F47" s="16"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="18"/>
+    </row>
+    <row r="48" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>722</v>
       </c>
@@ -2342,8 +2701,13 @@
       <c r="E48" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F48" s="16"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="18"/>
+    </row>
+    <row r="49" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>738</v>
       </c>
@@ -2357,8 +2721,13 @@
         <v>134</v>
       </c>
       <c r="E49" s="5"/>
-    </row>
-    <row r="50" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F49" s="16"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="18"/>
+    </row>
+    <row r="50" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>754</v>
       </c>
@@ -2374,8 +2743,13 @@
       <c r="E50" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F50" s="16"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="18"/>
+    </row>
+    <row r="51" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>770</v>
       </c>
@@ -2391,8 +2765,13 @@
       <c r="E51" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F51" s="16"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="18"/>
+    </row>
+    <row r="52" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>786</v>
       </c>
@@ -2408,8 +2787,13 @@
       <c r="E52" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F52" s="16"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="18"/>
+    </row>
+    <row r="53" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>802</v>
       </c>
@@ -2425,8 +2809,13 @@
       <c r="E53" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F53" s="16"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="18"/>
+    </row>
+    <row r="54" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>818</v>
       </c>
@@ -2442,8 +2831,13 @@
       <c r="E54" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F54" s="16"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="18"/>
+    </row>
+    <row r="55" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>834</v>
       </c>
@@ -2459,8 +2853,13 @@
       <c r="E55" s="3" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F55" s="16"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="18"/>
+    </row>
+    <row r="56" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>850</v>
       </c>
@@ -2476,8 +2875,13 @@
       <c r="E56" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F56" s="16"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="18"/>
+    </row>
+    <row r="57" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>866</v>
       </c>
@@ -2489,8 +2893,13 @@
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
-    </row>
-    <row r="58" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F57" s="16"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="17"/>
+      <c r="J57" s="18"/>
+    </row>
+    <row r="58" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>882</v>
       </c>
@@ -2502,8 +2911,13 @@
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
-    </row>
-    <row r="59" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F58" s="16"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="18"/>
+    </row>
+    <row r="59" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>898</v>
       </c>
@@ -2519,8 +2933,13 @@
       <c r="E59" s="3" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F59" s="16"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="18"/>
+    </row>
+    <row r="60" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>914</v>
       </c>
@@ -2536,8 +2955,13 @@
       <c r="E60" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F60" s="16"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="18"/>
+    </row>
+    <row r="61" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>930</v>
       </c>
@@ -2553,8 +2977,13 @@
       <c r="E61" s="3" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F61" s="16"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="17"/>
+      <c r="J61" s="18"/>
+    </row>
+    <row r="62" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>946</v>
       </c>
@@ -2570,8 +2999,13 @@
       <c r="E62" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F62" s="16"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="17"/>
+      <c r="J62" s="18"/>
+    </row>
+    <row r="63" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>962</v>
       </c>
@@ -2583,8 +3017,13 @@
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
-    </row>
-    <row r="64" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F63" s="16"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="17"/>
+      <c r="J63" s="18"/>
+    </row>
+    <row r="64" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>978</v>
       </c>
@@ -2600,8 +3039,13 @@
       <c r="E64" s="3" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F64" s="16"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="17"/>
+      <c r="J64" s="18"/>
+    </row>
+    <row r="65" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>994</v>
       </c>
@@ -2613,8 +3057,13 @@
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
-    </row>
-    <row r="66" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F65" s="16"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="17"/>
+      <c r="J65" s="18"/>
+    </row>
+    <row r="66" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>1010</v>
       </c>
@@ -2630,8 +3079,13 @@
       <c r="E66" s="3" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F66" s="16"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="18"/>
+    </row>
+    <row r="67" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>1026</v>
       </c>
@@ -2643,8 +3097,13 @@
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
-    </row>
-    <row r="68" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F67" s="16"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="18"/>
+    </row>
+    <row r="68" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>1042</v>
       </c>
@@ -2660,8 +3119,13 @@
       <c r="E68" s="3" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F68" s="16"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="18"/>
+    </row>
+    <row r="69" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>1058</v>
       </c>
@@ -2673,8 +3137,13 @@
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
-    </row>
-    <row r="70" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F69" s="16"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="18"/>
+    </row>
+    <row r="70" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>1074</v>
       </c>
@@ -2686,8 +3155,13 @@
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
-    </row>
-    <row r="71" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F70" s="16"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="18"/>
+    </row>
+    <row r="71" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>1090</v>
       </c>
@@ -2703,8 +3177,13 @@
       <c r="E71" s="3" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F71" s="16"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="18"/>
+    </row>
+    <row r="72" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>1106</v>
       </c>
@@ -2720,8 +3199,13 @@
       <c r="E72" s="3" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F72" s="16"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="18"/>
+    </row>
+    <row r="73" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>1122</v>
       </c>
@@ -2737,8 +3221,13 @@
       <c r="E73" s="3" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F73" s="16"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="18"/>
+    </row>
+    <row r="74" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>1138</v>
       </c>
@@ -2754,8 +3243,13 @@
       <c r="E74" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F74" s="16"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="18"/>
+    </row>
+    <row r="75" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>1154</v>
       </c>
@@ -2771,8 +3265,13 @@
       <c r="E75" s="3" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F75" s="16"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="18"/>
+    </row>
+    <row r="76" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>1170</v>
       </c>
@@ -2788,8 +3287,13 @@
       <c r="E76" s="3" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F76" s="16"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="18"/>
+    </row>
+    <row r="77" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>1186</v>
       </c>
@@ -2805,8 +3309,13 @@
       <c r="E77" s="3" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F77" s="16"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="18"/>
+    </row>
+    <row r="78" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>1202</v>
       </c>
@@ -2822,8 +3331,13 @@
       <c r="E78" s="3" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F78" s="16"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="18"/>
+    </row>
+    <row r="79" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>1218</v>
       </c>
@@ -2839,8 +3353,13 @@
       <c r="E79" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F79" s="16"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="18"/>
+    </row>
+    <row r="80" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>1234</v>
       </c>
@@ -2856,8 +3375,13 @@
       <c r="E80" s="3" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F80" s="16"/>
+      <c r="G80" s="17"/>
+      <c r="H80" s="17"/>
+      <c r="I80" s="17"/>
+      <c r="J80" s="18"/>
+    </row>
+    <row r="81" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>1250</v>
       </c>
@@ -2873,8 +3397,13 @@
       <c r="E81" s="3" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F81" s="16"/>
+      <c r="G81" s="17"/>
+      <c r="H81" s="17"/>
+      <c r="I81" s="17"/>
+      <c r="J81" s="18"/>
+    </row>
+    <row r="82" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>1266</v>
       </c>
@@ -2890,8 +3419,13 @@
       <c r="E82" s="3" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F82" s="16"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+      <c r="J82" s="18"/>
+    </row>
+    <row r="83" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>1282</v>
       </c>
@@ -2907,8 +3441,13 @@
       <c r="E83" s="3" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F83" s="16"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="18"/>
+    </row>
+    <row r="84" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>1298</v>
       </c>
@@ -2924,8 +3463,13 @@
       <c r="E84" s="3" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F84" s="16"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="18"/>
+    </row>
+    <row r="85" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>1314</v>
       </c>
@@ -2941,8 +3485,13 @@
       <c r="E85" s="3" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F85" s="16"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="17"/>
+      <c r="J85" s="18"/>
+    </row>
+    <row r="86" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>1330</v>
       </c>
@@ -2958,8 +3507,13 @@
       <c r="E86" s="3" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F86" s="16"/>
+      <c r="G86" s="17"/>
+      <c r="H86" s="17"/>
+      <c r="I86" s="17"/>
+      <c r="J86" s="18"/>
+    </row>
+    <row r="87" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>1346</v>
       </c>
@@ -2975,8 +3529,13 @@
       <c r="E87" s="3" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F87" s="16"/>
+      <c r="G87" s="17"/>
+      <c r="H87" s="17"/>
+      <c r="I87" s="17"/>
+      <c r="J87" s="18"/>
+    </row>
+    <row r="88" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>1362</v>
       </c>
@@ -2992,8 +3551,13 @@
       <c r="E88" s="3" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F88" s="16"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="18"/>
+    </row>
+    <row r="89" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>1378</v>
       </c>
@@ -3009,8 +3573,13 @@
       <c r="E89" s="3" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F89" s="16"/>
+      <c r="G89" s="17"/>
+      <c r="H89" s="17"/>
+      <c r="I89" s="17"/>
+      <c r="J89" s="18"/>
+    </row>
+    <row r="90" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>1394</v>
       </c>
@@ -3026,8 +3595,13 @@
       <c r="E90" s="3" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F90" s="16"/>
+      <c r="G90" s="17"/>
+      <c r="H90" s="17"/>
+      <c r="I90" s="17"/>
+      <c r="J90" s="18"/>
+    </row>
+    <row r="91" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>1410</v>
       </c>
@@ -3043,8 +3617,13 @@
       <c r="E91" s="3" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F91" s="16"/>
+      <c r="G91" s="17"/>
+      <c r="H91" s="17"/>
+      <c r="I91" s="17"/>
+      <c r="J91" s="18"/>
+    </row>
+    <row r="92" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>1426</v>
       </c>
@@ -3060,8 +3639,13 @@
       <c r="E92" s="3" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F92" s="16"/>
+      <c r="G92" s="17"/>
+      <c r="H92" s="17"/>
+      <c r="I92" s="17"/>
+      <c r="J92" s="18"/>
+    </row>
+    <row r="93" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>1442</v>
       </c>
@@ -3077,8 +3661,13 @@
       <c r="E93" s="3" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F93" s="16"/>
+      <c r="G93" s="17"/>
+      <c r="H93" s="17"/>
+      <c r="I93" s="17"/>
+      <c r="J93" s="18"/>
+    </row>
+    <row r="94" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>1458</v>
       </c>
@@ -3094,8 +3683,13 @@
       <c r="E94" s="3" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F94" s="16"/>
+      <c r="G94" s="17"/>
+      <c r="H94" s="17"/>
+      <c r="I94" s="17"/>
+      <c r="J94" s="18"/>
+    </row>
+    <row r="95" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>1474</v>
       </c>
@@ -3111,8 +3705,13 @@
       <c r="E95" s="3" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F95" s="16"/>
+      <c r="G95" s="17"/>
+      <c r="H95" s="17"/>
+      <c r="I95" s="17"/>
+      <c r="J95" s="18"/>
+    </row>
+    <row r="96" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>1490</v>
       </c>
@@ -3128,8 +3727,17 @@
       <c r="E96" s="3" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F96" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="G96" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="H96" s="17"/>
+      <c r="I96" s="17"/>
+      <c r="J96" s="18"/>
+    </row>
+    <row r="97" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>1506</v>
       </c>
@@ -3145,8 +3753,13 @@
       <c r="E97" s="3" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F97" s="16"/>
+      <c r="G97" s="17"/>
+      <c r="H97" s="17"/>
+      <c r="I97" s="17"/>
+      <c r="J97" s="18"/>
+    </row>
+    <row r="98" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>1522</v>
       </c>
@@ -3162,8 +3775,15 @@
       <c r="E98" s="3" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F98" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="G98" s="17"/>
+      <c r="H98" s="17"/>
+      <c r="I98" s="17"/>
+      <c r="J98" s="18"/>
+    </row>
+    <row r="99" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>1538</v>
       </c>
@@ -3179,8 +3799,13 @@
       <c r="E99" s="3" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F99" s="16"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="17"/>
+      <c r="J99" s="18"/>
+    </row>
+    <row r="100" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>1554</v>
       </c>
@@ -3196,8 +3821,15 @@
       <c r="E100" s="3" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F100" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="18"/>
+    </row>
+    <row r="101" spans="1:10" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>1570</v>
       </c>
@@ -3213,8 +3845,13 @@
       <c r="E101" s="3" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F101" s="16"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="17"/>
+      <c r="I101" s="17"/>
+      <c r="J101" s="18"/>
+    </row>
+    <row r="102" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>1586</v>
       </c>
@@ -3230,8 +3867,13 @@
       <c r="E102" s="3" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F102" s="16"/>
+      <c r="G102" s="17"/>
+      <c r="H102" s="17"/>
+      <c r="I102" s="17"/>
+      <c r="J102" s="18"/>
+    </row>
+    <row r="103" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>1602</v>
       </c>
@@ -3247,8 +3889,15 @@
       <c r="E103" s="3" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F103" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="G103" s="17"/>
+      <c r="H103" s="17"/>
+      <c r="I103" s="17"/>
+      <c r="J103" s="18"/>
+    </row>
+    <row r="104" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>1618</v>
       </c>
@@ -3264,8 +3913,13 @@
       <c r="E104" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F104" s="16"/>
+      <c r="G104" s="17"/>
+      <c r="H104" s="17"/>
+      <c r="I104" s="17"/>
+      <c r="J104" s="18"/>
+    </row>
+    <row r="105" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>1634</v>
       </c>
@@ -3281,8 +3935,13 @@
       <c r="E105" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F105" s="16"/>
+      <c r="G105" s="17"/>
+      <c r="H105" s="17"/>
+      <c r="I105" s="17"/>
+      <c r="J105" s="18"/>
+    </row>
+    <row r="106" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>1650</v>
       </c>
@@ -3298,8 +3957,13 @@
       <c r="E106" s="3" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F106" s="16"/>
+      <c r="G106" s="17"/>
+      <c r="H106" s="17"/>
+      <c r="I106" s="17"/>
+      <c r="J106" s="18"/>
+    </row>
+    <row r="107" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>1666</v>
       </c>
@@ -3315,8 +3979,13 @@
       <c r="E107" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F107" s="16"/>
+      <c r="G107" s="17"/>
+      <c r="H107" s="17"/>
+      <c r="I107" s="17"/>
+      <c r="J107" s="18"/>
+    </row>
+    <row r="108" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>1682</v>
       </c>
@@ -3332,8 +4001,13 @@
       <c r="E108" s="3" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F108" s="16"/>
+      <c r="G108" s="17"/>
+      <c r="H108" s="17"/>
+      <c r="I108" s="17"/>
+      <c r="J108" s="18"/>
+    </row>
+    <row r="109" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>1698</v>
       </c>
@@ -3349,8 +4023,13 @@
       <c r="E109" s="3" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F109" s="16"/>
+      <c r="G109" s="17"/>
+      <c r="H109" s="17"/>
+      <c r="I109" s="17"/>
+      <c r="J109" s="18"/>
+    </row>
+    <row r="110" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>1714</v>
       </c>
@@ -3366,8 +4045,13 @@
       <c r="E110" s="3" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F110" s="16"/>
+      <c r="G110" s="17"/>
+      <c r="H110" s="17"/>
+      <c r="I110" s="17"/>
+      <c r="J110" s="18"/>
+    </row>
+    <row r="111" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>1730</v>
       </c>
@@ -3383,8 +4067,13 @@
       <c r="E111" s="3" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F111" s="16"/>
+      <c r="G111" s="17"/>
+      <c r="H111" s="17"/>
+      <c r="I111" s="17"/>
+      <c r="J111" s="18"/>
+    </row>
+    <row r="112" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>1746</v>
       </c>
@@ -3400,8 +4089,13 @@
       <c r="E112" s="3" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" ht="48" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F112" s="16"/>
+      <c r="G112" s="17"/>
+      <c r="H112" s="17"/>
+      <c r="I112" s="17"/>
+      <c r="J112" s="18"/>
+    </row>
+    <row r="113" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>1762</v>
       </c>
@@ -3417,8 +4111,13 @@
       <c r="E113" s="3" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F113" s="16"/>
+      <c r="G113" s="17"/>
+      <c r="H113" s="17"/>
+      <c r="I113" s="17"/>
+      <c r="J113" s="18"/>
+    </row>
+    <row r="114" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>1778</v>
       </c>
@@ -3434,8 +4133,13 @@
       <c r="E114" s="3" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F114" s="16"/>
+      <c r="G114" s="17"/>
+      <c r="H114" s="17"/>
+      <c r="I114" s="17"/>
+      <c r="J114" s="18"/>
+    </row>
+    <row r="115" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>1794</v>
       </c>
@@ -3451,8 +4155,13 @@
       <c r="E115" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F115" s="16"/>
+      <c r="G115" s="17"/>
+      <c r="H115" s="17"/>
+      <c r="I115" s="17"/>
+      <c r="J115" s="18"/>
+    </row>
+    <row r="116" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>1810</v>
       </c>
@@ -3468,8 +4177,13 @@
       <c r="E116" s="3" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F116" s="16"/>
+      <c r="G116" s="17"/>
+      <c r="H116" s="17"/>
+      <c r="I116" s="17"/>
+      <c r="J116" s="18"/>
+    </row>
+    <row r="117" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>1826</v>
       </c>
@@ -3485,8 +4199,13 @@
       <c r="E117" s="3" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F117" s="16"/>
+      <c r="G117" s="17"/>
+      <c r="H117" s="17"/>
+      <c r="I117" s="17"/>
+      <c r="J117" s="18"/>
+    </row>
+    <row r="118" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>1842</v>
       </c>
@@ -3498,8 +4217,13 @@
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
-    </row>
-    <row r="119" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F118" s="16"/>
+      <c r="G118" s="17"/>
+      <c r="H118" s="17"/>
+      <c r="I118" s="17"/>
+      <c r="J118" s="18"/>
+    </row>
+    <row r="119" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>1858</v>
       </c>
@@ -3511,8 +4235,13 @@
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
-    </row>
-    <row r="120" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F119" s="16"/>
+      <c r="G119" s="17"/>
+      <c r="H119" s="17"/>
+      <c r="I119" s="17"/>
+      <c r="J119" s="18"/>
+    </row>
+    <row r="120" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>1874</v>
       </c>
@@ -3524,8 +4253,13 @@
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
-    </row>
-    <row r="121" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F120" s="16"/>
+      <c r="G120" s="17"/>
+      <c r="H120" s="17"/>
+      <c r="I120" s="17"/>
+      <c r="J120" s="18"/>
+    </row>
+    <row r="121" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>1890</v>
       </c>
@@ -3537,8 +4271,13 @@
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
-    </row>
-    <row r="122" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F121" s="16"/>
+      <c r="G121" s="17"/>
+      <c r="H121" s="17"/>
+      <c r="I121" s="17"/>
+      <c r="J121" s="18"/>
+    </row>
+    <row r="122" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>1906</v>
       </c>
@@ -3554,8 +4293,13 @@
       <c r="E122" s="3" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F122" s="16"/>
+      <c r="G122" s="17"/>
+      <c r="H122" s="17"/>
+      <c r="I122" s="17"/>
+      <c r="J122" s="18"/>
+    </row>
+    <row r="123" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>1922</v>
       </c>
@@ -3571,2276 +4315,3630 @@
       <c r="E123" s="3" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F123" s="16"/>
+      <c r="G123" s="17"/>
+      <c r="H123" s="17"/>
+      <c r="I123" s="17"/>
+      <c r="J123" s="18"/>
+    </row>
+    <row r="124" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="5"/>
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
-    </row>
-    <row r="125" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F124" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="G124" s="17"/>
+      <c r="H124" s="17"/>
+      <c r="I124" s="17"/>
+      <c r="J124" s="18"/>
+    </row>
+    <row r="125" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
-    </row>
-    <row r="126" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F125" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="G125" s="17"/>
+      <c r="H125" s="17"/>
+      <c r="I125" s="17"/>
+      <c r="J125" s="18"/>
+    </row>
+    <row r="126" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
-    </row>
-    <row r="127" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F126" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="G126" s="17"/>
+      <c r="H126" s="17"/>
+      <c r="I126" s="17"/>
+      <c r="J126" s="18"/>
+    </row>
+    <row r="127" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5"/>
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
-    </row>
-    <row r="128" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F127" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="G127" s="17"/>
+      <c r="H127" s="17"/>
+      <c r="I127" s="17"/>
+      <c r="J127" s="18"/>
+    </row>
+    <row r="128" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="5"/>
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
-    </row>
-    <row r="129" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F128" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="G128" s="17"/>
+      <c r="H128" s="17"/>
+      <c r="I128" s="17"/>
+      <c r="J128" s="18"/>
+    </row>
+    <row r="129" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
-    </row>
-    <row r="130" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F129" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="G129" s="17"/>
+      <c r="H129" s="17"/>
+      <c r="I129" s="17"/>
+      <c r="J129" s="18"/>
+    </row>
+    <row r="130" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5"/>
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
-    </row>
-    <row r="131" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F130" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="G130" s="17"/>
+      <c r="H130" s="17"/>
+      <c r="I130" s="17"/>
+      <c r="J130" s="18"/>
+    </row>
+    <row r="131" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
-    </row>
-    <row r="132" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F131" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="G131" s="17"/>
+      <c r="H131" s="17"/>
+      <c r="I131" s="17"/>
+      <c r="J131" s="18"/>
+    </row>
+    <row r="132" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="5"/>
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
-    </row>
-    <row r="133" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F132" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="G132" s="17"/>
+      <c r="H132" s="17"/>
+      <c r="I132" s="17"/>
+      <c r="J132" s="18"/>
+    </row>
+    <row r="133" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="5"/>
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
-    </row>
-    <row r="134" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F133" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="G133" s="17"/>
+      <c r="H133" s="17"/>
+      <c r="I133" s="17"/>
+      <c r="J133" s="18"/>
+    </row>
+    <row r="134" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="5"/>
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
-    </row>
-    <row r="135" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F134" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="G134" s="17"/>
+      <c r="H134" s="17"/>
+      <c r="I134" s="17"/>
+      <c r="J134" s="18"/>
+    </row>
+    <row r="135" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
-    </row>
-    <row r="136" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F135" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="G135" s="17"/>
+      <c r="H135" s="17"/>
+      <c r="I135" s="17"/>
+      <c r="J135" s="18"/>
+    </row>
+    <row r="136" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
-    </row>
-    <row r="137" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F136" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="G136" s="17"/>
+      <c r="H136" s="17"/>
+      <c r="I136" s="17"/>
+      <c r="J136" s="18"/>
+    </row>
+    <row r="137" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
-    </row>
-    <row r="138" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F137" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="G137" s="17"/>
+      <c r="H137" s="17"/>
+      <c r="I137" s="17"/>
+      <c r="J137" s="18"/>
+    </row>
+    <row r="138" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
-    </row>
-    <row r="139" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F138" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="G138" s="17"/>
+      <c r="H138" s="17"/>
+      <c r="I138" s="17"/>
+      <c r="J138" s="18"/>
+    </row>
+    <row r="139" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="5"/>
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
-    </row>
-    <row r="140" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F139" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="G139" s="17"/>
+      <c r="H139" s="17"/>
+      <c r="I139" s="17"/>
+      <c r="J139" s="18"/>
+    </row>
+    <row r="140" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="5"/>
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
-    </row>
-    <row r="141" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F140" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="G140" s="17"/>
+      <c r="H140" s="17"/>
+      <c r="I140" s="17"/>
+      <c r="J140" s="18"/>
+    </row>
+    <row r="141" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
-    </row>
-    <row r="142" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F141" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="G141" s="17"/>
+      <c r="H141" s="17"/>
+      <c r="I141" s="17"/>
+      <c r="J141" s="18"/>
+    </row>
+    <row r="142" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
-    </row>
-    <row r="143" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F142" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="G142" s="17"/>
+      <c r="H142" s="17"/>
+      <c r="I142" s="17"/>
+      <c r="J142" s="18"/>
+    </row>
+    <row r="143" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
-    </row>
-    <row r="144" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F143" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="G143" s="17"/>
+      <c r="H143" s="17"/>
+      <c r="I143" s="17"/>
+      <c r="J143" s="18"/>
+    </row>
+    <row r="144" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="5"/>
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
-    </row>
-    <row r="145" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F144" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="G144" s="17"/>
+      <c r="H144" s="17"/>
+      <c r="I144" s="17"/>
+      <c r="J144" s="18"/>
+    </row>
+    <row r="145" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
-    </row>
-    <row r="146" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F145" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="G145" s="17"/>
+      <c r="H145" s="17"/>
+      <c r="I145" s="17"/>
+      <c r="J145" s="18"/>
+    </row>
+    <row r="146" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="5"/>
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
-    </row>
-    <row r="147" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F146" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="G146" s="17"/>
+      <c r="H146" s="17"/>
+      <c r="I146" s="17"/>
+      <c r="J146" s="18"/>
+    </row>
+    <row r="147" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="5"/>
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
-    </row>
-    <row r="148" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F147" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="G147" s="17"/>
+      <c r="H147" s="17"/>
+      <c r="I147" s="17"/>
+      <c r="J147" s="18"/>
+    </row>
+    <row r="148" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
-    </row>
-    <row r="149" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F148" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="G148" s="17"/>
+      <c r="H148" s="17"/>
+      <c r="I148" s="17"/>
+      <c r="J148" s="18"/>
+    </row>
+    <row r="149" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
-    </row>
-    <row r="150" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F149" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="G149" s="17"/>
+      <c r="H149" s="17"/>
+      <c r="I149" s="17"/>
+      <c r="J149" s="18"/>
+    </row>
+    <row r="150" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="5"/>
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
-    </row>
-    <row r="151" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F150" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="G150" s="17"/>
+      <c r="H150" s="17"/>
+      <c r="I150" s="17"/>
+      <c r="J150" s="18"/>
+    </row>
+    <row r="151" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="5"/>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
-    </row>
-    <row r="152" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F151" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="G151" s="17"/>
+      <c r="H151" s="17"/>
+      <c r="I151" s="17"/>
+      <c r="J151" s="18"/>
+    </row>
+    <row r="152" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="5"/>
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
-    </row>
-    <row r="153" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F152" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="G152" s="17"/>
+      <c r="H152" s="17"/>
+      <c r="I152" s="17"/>
+      <c r="J152" s="18"/>
+    </row>
+    <row r="153" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="5"/>
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
-    </row>
-    <row r="154" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F153" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="G153" s="17"/>
+      <c r="H153" s="17"/>
+      <c r="I153" s="17"/>
+      <c r="J153" s="18"/>
+    </row>
+    <row r="154" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="5"/>
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
-    </row>
-    <row r="155" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F154" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="G154" s="17"/>
+      <c r="H154" s="17"/>
+      <c r="I154" s="17"/>
+      <c r="J154" s="18"/>
+    </row>
+    <row r="155" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="5"/>
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
-    </row>
-    <row r="156" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F155" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="G155" s="17"/>
+      <c r="H155" s="17"/>
+      <c r="I155" s="17"/>
+      <c r="J155" s="18"/>
+    </row>
+    <row r="156" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="5"/>
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
-    </row>
-    <row r="157" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F156" s="16"/>
+      <c r="G156" s="17"/>
+      <c r="H156" s="17"/>
+      <c r="I156" s="17"/>
+      <c r="J156" s="18"/>
+    </row>
+    <row r="157" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="5"/>
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
-    </row>
-    <row r="158" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F157" s="16"/>
+      <c r="G157" s="17"/>
+      <c r="H157" s="17"/>
+      <c r="I157" s="17"/>
+      <c r="J157" s="18"/>
+    </row>
+    <row r="158" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="5"/>
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
-    </row>
-    <row r="159" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F158" s="16"/>
+      <c r="G158" s="17"/>
+      <c r="H158" s="17"/>
+      <c r="I158" s="17"/>
+      <c r="J158" s="18"/>
+    </row>
+    <row r="159" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="5"/>
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
-    </row>
-    <row r="160" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F159" s="16"/>
+      <c r="G159" s="17"/>
+      <c r="H159" s="17"/>
+      <c r="I159" s="17"/>
+      <c r="J159" s="18"/>
+    </row>
+    <row r="160" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="5"/>
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
-    </row>
-    <row r="161" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F160" s="16"/>
+      <c r="G160" s="17"/>
+      <c r="H160" s="17"/>
+      <c r="I160" s="17"/>
+      <c r="J160" s="18"/>
+    </row>
+    <row r="161" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="5"/>
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
-    </row>
-    <row r="162" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F161" s="16"/>
+      <c r="G161" s="17"/>
+      <c r="H161" s="17"/>
+      <c r="I161" s="17"/>
+      <c r="J161" s="18"/>
+    </row>
+    <row r="162" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="5"/>
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
-    </row>
-    <row r="163" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F162" s="16"/>
+      <c r="G162" s="17"/>
+      <c r="H162" s="17"/>
+      <c r="I162" s="17"/>
+      <c r="J162" s="18"/>
+    </row>
+    <row r="163" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="5"/>
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
-    </row>
-    <row r="164" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F163" s="16"/>
+      <c r="G163" s="17"/>
+      <c r="H163" s="17"/>
+      <c r="I163" s="17"/>
+      <c r="J163" s="18"/>
+    </row>
+    <row r="164" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="5"/>
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
-    </row>
-    <row r="165" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F164" s="16"/>
+      <c r="G164" s="17"/>
+      <c r="H164" s="17"/>
+      <c r="I164" s="17"/>
+      <c r="J164" s="18"/>
+    </row>
+    <row r="165" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="5"/>
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
-    </row>
-    <row r="166" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F165" s="16"/>
+      <c r="G165" s="17"/>
+      <c r="H165" s="17"/>
+      <c r="I165" s="17"/>
+      <c r="J165" s="18"/>
+    </row>
+    <row r="166" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="5"/>
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
-    </row>
-    <row r="167" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F166" s="16"/>
+      <c r="G166" s="17"/>
+      <c r="H166" s="17"/>
+      <c r="I166" s="17"/>
+      <c r="J166" s="18"/>
+    </row>
+    <row r="167" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="5"/>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
-    </row>
-    <row r="168" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F167" s="16"/>
+      <c r="G167" s="17"/>
+      <c r="H167" s="17"/>
+      <c r="I167" s="17"/>
+      <c r="J167" s="18"/>
+    </row>
+    <row r="168" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="5"/>
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
-    </row>
-    <row r="169" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F168" s="16"/>
+      <c r="G168" s="17"/>
+      <c r="H168" s="17"/>
+      <c r="I168" s="17"/>
+      <c r="J168" s="18"/>
+    </row>
+    <row r="169" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="5"/>
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
-    </row>
-    <row r="170" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F169" s="16"/>
+      <c r="G169" s="17"/>
+      <c r="H169" s="17"/>
+      <c r="I169" s="17"/>
+      <c r="J169" s="18"/>
+    </row>
+    <row r="170" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="5"/>
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
-    </row>
-    <row r="171" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F170" s="16"/>
+      <c r="G170" s="17"/>
+      <c r="H170" s="17"/>
+      <c r="I170" s="17"/>
+      <c r="J170" s="18"/>
+    </row>
+    <row r="171" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="5"/>
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
-    </row>
-    <row r="172" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F171" s="16"/>
+      <c r="G171" s="17"/>
+      <c r="H171" s="17"/>
+      <c r="I171" s="17"/>
+      <c r="J171" s="18"/>
+    </row>
+    <row r="172" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="5"/>
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
-    </row>
-    <row r="173" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F172" s="16"/>
+      <c r="G172" s="17"/>
+      <c r="H172" s="17"/>
+      <c r="I172" s="17"/>
+      <c r="J172" s="18"/>
+    </row>
+    <row r="173" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="5"/>
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
-    </row>
-    <row r="174" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F173" s="16"/>
+      <c r="G173" s="17"/>
+      <c r="H173" s="17"/>
+      <c r="I173" s="17"/>
+      <c r="J173" s="18"/>
+    </row>
+    <row r="174" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="5"/>
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
-    </row>
-    <row r="175" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F174" s="16"/>
+      <c r="G174" s="17"/>
+      <c r="H174" s="17"/>
+      <c r="I174" s="17"/>
+      <c r="J174" s="18"/>
+    </row>
+    <row r="175" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="5"/>
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
-    </row>
-    <row r="176" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F175" s="16"/>
+      <c r="G175" s="17"/>
+      <c r="H175" s="17"/>
+      <c r="I175" s="17"/>
+      <c r="J175" s="18"/>
+    </row>
+    <row r="176" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="5"/>
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
-    </row>
-    <row r="177" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F176" s="16"/>
+      <c r="G176" s="17"/>
+      <c r="H176" s="17"/>
+      <c r="I176" s="17"/>
+      <c r="J176" s="18"/>
+    </row>
+    <row r="177" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="5"/>
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
-    </row>
-    <row r="178" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F177" s="16"/>
+      <c r="G177" s="17"/>
+      <c r="H177" s="17"/>
+      <c r="I177" s="17"/>
+      <c r="J177" s="18"/>
+    </row>
+    <row r="178" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="5"/>
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
-    </row>
-    <row r="179" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F178" s="16"/>
+      <c r="G178" s="17"/>
+      <c r="H178" s="17"/>
+      <c r="I178" s="17"/>
+      <c r="J178" s="18"/>
+    </row>
+    <row r="179" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="5"/>
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
-    </row>
-    <row r="180" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F179" s="16"/>
+      <c r="G179" s="17"/>
+      <c r="H179" s="17"/>
+      <c r="I179" s="17"/>
+      <c r="J179" s="18"/>
+    </row>
+    <row r="180" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="5"/>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
-    </row>
-    <row r="181" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F180" s="16"/>
+      <c r="G180" s="17"/>
+      <c r="H180" s="17"/>
+      <c r="I180" s="17"/>
+      <c r="J180" s="18"/>
+    </row>
+    <row r="181" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="5"/>
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
-    </row>
-    <row r="182" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F181" s="16"/>
+      <c r="G181" s="17"/>
+      <c r="H181" s="17"/>
+      <c r="I181" s="17"/>
+      <c r="J181" s="18"/>
+    </row>
+    <row r="182" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="5"/>
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
-    </row>
-    <row r="183" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F182" s="16"/>
+      <c r="G182" s="17"/>
+      <c r="H182" s="17"/>
+      <c r="I182" s="17"/>
+      <c r="J182" s="18"/>
+    </row>
+    <row r="183" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="5"/>
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
-    </row>
-    <row r="184" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F183" s="16"/>
+      <c r="G183" s="17"/>
+      <c r="H183" s="17"/>
+      <c r="I183" s="17"/>
+      <c r="J183" s="18"/>
+    </row>
+    <row r="184" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="5"/>
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
-    </row>
-    <row r="185" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F184" s="16"/>
+      <c r="G184" s="17"/>
+      <c r="H184" s="17"/>
+      <c r="I184" s="17"/>
+      <c r="J184" s="18"/>
+    </row>
+    <row r="185" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="5"/>
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
-    </row>
-    <row r="186" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F185" s="16"/>
+      <c r="G185" s="17"/>
+      <c r="H185" s="17"/>
+      <c r="I185" s="17"/>
+      <c r="J185" s="18"/>
+    </row>
+    <row r="186" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="5"/>
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
-    </row>
-    <row r="187" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F186" s="16"/>
+      <c r="G186" s="17"/>
+      <c r="H186" s="17"/>
+      <c r="I186" s="17"/>
+      <c r="J186" s="18"/>
+    </row>
+    <row r="187" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="5"/>
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
-    </row>
-    <row r="188" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F187" s="16"/>
+      <c r="G187" s="17"/>
+      <c r="H187" s="17"/>
+      <c r="I187" s="17"/>
+      <c r="J187" s="18"/>
+    </row>
+    <row r="188" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="5"/>
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
-    </row>
-    <row r="189" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F188" s="16"/>
+      <c r="G188" s="17"/>
+      <c r="H188" s="17"/>
+      <c r="I188" s="17"/>
+      <c r="J188" s="18"/>
+    </row>
+    <row r="189" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="5"/>
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
-    </row>
-    <row r="190" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F189" s="16"/>
+      <c r="G189" s="17"/>
+      <c r="H189" s="17"/>
+      <c r="I189" s="17"/>
+      <c r="J189" s="18"/>
+    </row>
+    <row r="190" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="5"/>
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
-    </row>
-    <row r="191" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F190" s="16"/>
+      <c r="G190" s="17"/>
+      <c r="H190" s="17"/>
+      <c r="I190" s="17"/>
+      <c r="J190" s="18"/>
+    </row>
+    <row r="191" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="5"/>
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
-    </row>
-    <row r="192" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F191" s="16"/>
+      <c r="G191" s="17"/>
+      <c r="H191" s="17"/>
+      <c r="I191" s="17"/>
+      <c r="J191" s="18"/>
+    </row>
+    <row r="192" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="5"/>
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
-    </row>
-    <row r="193" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F192" s="16"/>
+      <c r="G192" s="17"/>
+      <c r="H192" s="17"/>
+      <c r="I192" s="17"/>
+      <c r="J192" s="18"/>
+    </row>
+    <row r="193" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="5"/>
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
-    </row>
-    <row r="194" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F193" s="16"/>
+      <c r="G193" s="17"/>
+      <c r="H193" s="17"/>
+      <c r="I193" s="17"/>
+      <c r="J193" s="18"/>
+    </row>
+    <row r="194" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="5"/>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
-    </row>
-    <row r="195" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F194" s="16"/>
+      <c r="G194" s="17"/>
+      <c r="H194" s="17"/>
+      <c r="I194" s="17"/>
+      <c r="J194" s="18"/>
+    </row>
+    <row r="195" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="5"/>
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
-    </row>
-    <row r="196" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F195" s="16"/>
+      <c r="G195" s="17"/>
+      <c r="H195" s="17"/>
+      <c r="I195" s="17"/>
+      <c r="J195" s="18"/>
+    </row>
+    <row r="196" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="5"/>
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
-    </row>
-    <row r="197" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F196" s="16"/>
+      <c r="G196" s="17"/>
+      <c r="H196" s="17"/>
+      <c r="I196" s="17"/>
+      <c r="J196" s="18"/>
+    </row>
+    <row r="197" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="5"/>
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
-    </row>
-    <row r="198" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F197" s="16"/>
+      <c r="G197" s="17"/>
+      <c r="H197" s="17"/>
+      <c r="I197" s="17"/>
+      <c r="J197" s="18"/>
+    </row>
+    <row r="198" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="5"/>
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
-    </row>
-    <row r="199" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F198" s="16"/>
+      <c r="G198" s="17"/>
+      <c r="H198" s="17"/>
+      <c r="I198" s="17"/>
+      <c r="J198" s="18"/>
+    </row>
+    <row r="199" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="5"/>
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
-    </row>
-    <row r="200" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F199" s="16"/>
+      <c r="G199" s="17"/>
+      <c r="H199" s="17"/>
+      <c r="I199" s="17"/>
+      <c r="J199" s="18"/>
+    </row>
+    <row r="200" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="5"/>
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
-    </row>
-    <row r="201" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F200" s="16"/>
+      <c r="G200" s="17"/>
+      <c r="H200" s="17"/>
+      <c r="I200" s="17"/>
+      <c r="J200" s="18"/>
+    </row>
+    <row r="201" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="5"/>
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
-    </row>
-    <row r="202" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F201" s="16"/>
+      <c r="G201" s="17"/>
+      <c r="H201" s="17"/>
+      <c r="I201" s="17"/>
+      <c r="J201" s="18"/>
+    </row>
+    <row r="202" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="5"/>
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
-    </row>
-    <row r="203" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F202" s="16"/>
+      <c r="G202" s="17"/>
+      <c r="H202" s="17"/>
+      <c r="I202" s="17"/>
+      <c r="J202" s="18"/>
+    </row>
+    <row r="203" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="5"/>
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
-    </row>
-    <row r="204" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F203" s="16"/>
+      <c r="G203" s="17"/>
+      <c r="H203" s="17"/>
+      <c r="I203" s="17"/>
+      <c r="J203" s="18"/>
+    </row>
+    <row r="204" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="5"/>
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
-    </row>
-    <row r="205" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F204" s="16"/>
+      <c r="G204" s="17"/>
+      <c r="H204" s="17"/>
+      <c r="I204" s="17"/>
+      <c r="J204" s="18"/>
+    </row>
+    <row r="205" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="5"/>
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
-    </row>
-    <row r="206" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F205" s="16"/>
+      <c r="G205" s="17"/>
+      <c r="H205" s="17"/>
+      <c r="I205" s="17"/>
+      <c r="J205" s="18"/>
+    </row>
+    <row r="206" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="5"/>
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
-    </row>
-    <row r="207" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F206" s="16"/>
+      <c r="G206" s="17"/>
+      <c r="H206" s="17"/>
+      <c r="I206" s="17"/>
+      <c r="J206" s="18"/>
+    </row>
+    <row r="207" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="5"/>
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
       <c r="E207" s="5"/>
-    </row>
-    <row r="208" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F207" s="16"/>
+      <c r="G207" s="17"/>
+      <c r="H207" s="17"/>
+      <c r="I207" s="17"/>
+      <c r="J207" s="18"/>
+    </row>
+    <row r="208" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="5"/>
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
-    </row>
-    <row r="209" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F208" s="16"/>
+      <c r="G208" s="17"/>
+      <c r="H208" s="17"/>
+      <c r="I208" s="17"/>
+      <c r="J208" s="18"/>
+    </row>
+    <row r="209" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="5"/>
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
-    </row>
-    <row r="210" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G209" s="17"/>
+      <c r="H209" s="17"/>
+      <c r="I209" s="17"/>
+      <c r="J209" s="18"/>
+    </row>
+    <row r="210" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="5"/>
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
-    </row>
-    <row r="211" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G210" s="17"/>
+      <c r="H210" s="17"/>
+      <c r="I210" s="17"/>
+      <c r="J210" s="18"/>
+    </row>
+    <row r="211" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="5"/>
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
-    </row>
-    <row r="212" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G211" s="17"/>
+      <c r="H211" s="17"/>
+      <c r="I211" s="17"/>
+      <c r="J211" s="18"/>
+    </row>
+    <row r="212" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="5"/>
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
       <c r="E212" s="5"/>
-    </row>
-    <row r="213" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G212" s="17"/>
+      <c r="H212" s="17"/>
+      <c r="I212" s="17"/>
+      <c r="J212" s="18"/>
+    </row>
+    <row r="213" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="5"/>
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
-    </row>
-    <row r="214" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G213" s="17"/>
+      <c r="H213" s="17"/>
+      <c r="I213" s="17"/>
+      <c r="J213" s="18"/>
+    </row>
+    <row r="214" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="5"/>
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
-    </row>
-    <row r="215" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G214" s="17"/>
+      <c r="H214" s="17"/>
+      <c r="I214" s="17"/>
+      <c r="J214" s="18"/>
+    </row>
+    <row r="215" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="5"/>
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
-    </row>
-    <row r="216" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G215" s="17"/>
+      <c r="H215" s="17"/>
+      <c r="I215" s="17"/>
+      <c r="J215" s="18"/>
+    </row>
+    <row r="216" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="5"/>
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
       <c r="E216" s="5"/>
-    </row>
-    <row r="217" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G216" s="17"/>
+      <c r="H216" s="17"/>
+      <c r="I216" s="17"/>
+      <c r="J216" s="18"/>
+    </row>
+    <row r="217" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="5"/>
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
-    </row>
-    <row r="218" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G217" s="17"/>
+      <c r="H217" s="17"/>
+      <c r="I217" s="17"/>
+      <c r="J217" s="18"/>
+    </row>
+    <row r="218" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="5"/>
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
       <c r="E218" s="5"/>
-    </row>
-    <row r="219" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G218" s="17"/>
+      <c r="H218" s="17"/>
+      <c r="I218" s="17"/>
+      <c r="J218" s="18"/>
+    </row>
+    <row r="219" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="5"/>
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
-    </row>
-    <row r="220" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G219" s="17"/>
+      <c r="H219" s="17"/>
+      <c r="I219" s="17"/>
+      <c r="J219" s="18"/>
+    </row>
+    <row r="220" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="5"/>
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
-    </row>
-    <row r="221" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G220" s="17"/>
+      <c r="H220" s="17"/>
+      <c r="I220" s="17"/>
+      <c r="J220" s="18"/>
+    </row>
+    <row r="221" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="5"/>
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
       <c r="E221" s="5"/>
-    </row>
-    <row r="222" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G221" s="17"/>
+      <c r="H221" s="17"/>
+      <c r="I221" s="17"/>
+      <c r="J221" s="18"/>
+    </row>
+    <row r="222" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="5"/>
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
-    </row>
-    <row r="223" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G222" s="17"/>
+      <c r="H222" s="17"/>
+      <c r="I222" s="17"/>
+      <c r="J222" s="18"/>
+    </row>
+    <row r="223" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="5"/>
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
-    </row>
-    <row r="224" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G223" s="17"/>
+      <c r="H223" s="17"/>
+      <c r="I223" s="17"/>
+      <c r="J223" s="18"/>
+    </row>
+    <row r="224" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="5"/>
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
-    </row>
-    <row r="225" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G224" s="17"/>
+      <c r="H224" s="17"/>
+      <c r="I224" s="17"/>
+      <c r="J224" s="18"/>
+    </row>
+    <row r="225" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="5"/>
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
       <c r="D225" s="5"/>
       <c r="E225" s="5"/>
-    </row>
-    <row r="226" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G225" s="17"/>
+      <c r="H225" s="17"/>
+      <c r="I225" s="17"/>
+      <c r="J225" s="18"/>
+    </row>
+    <row r="226" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="5"/>
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
       <c r="E226" s="5"/>
-    </row>
-    <row r="227" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G226" s="17"/>
+      <c r="H226" s="17"/>
+      <c r="I226" s="17"/>
+      <c r="J226" s="18"/>
+    </row>
+    <row r="227" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="5"/>
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
-    </row>
-    <row r="228" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G227" s="17"/>
+      <c r="H227" s="17"/>
+      <c r="I227" s="17"/>
+      <c r="J227" s="18"/>
+    </row>
+    <row r="228" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="5"/>
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
       <c r="E228" s="5"/>
-    </row>
-    <row r="229" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G228" s="17"/>
+      <c r="H228" s="17"/>
+      <c r="I228" s="17"/>
+      <c r="J228" s="18"/>
+    </row>
+    <row r="229" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="5"/>
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
       <c r="D229" s="5"/>
       <c r="E229" s="5"/>
-    </row>
-    <row r="230" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G229" s="17"/>
+      <c r="H229" s="17"/>
+      <c r="I229" s="17"/>
+      <c r="J229" s="18"/>
+    </row>
+    <row r="230" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="5"/>
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
-    </row>
-    <row r="231" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G230" s="17"/>
+      <c r="H230" s="17"/>
+      <c r="I230" s="17"/>
+      <c r="J230" s="18"/>
+    </row>
+    <row r="231" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="5"/>
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
-    </row>
-    <row r="232" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G231" s="17"/>
+      <c r="H231" s="17"/>
+      <c r="I231" s="17"/>
+      <c r="J231" s="18"/>
+    </row>
+    <row r="232" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="5"/>
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
       <c r="E232" s="5"/>
-    </row>
-    <row r="233" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G232" s="17"/>
+      <c r="H232" s="17"/>
+      <c r="I232" s="17"/>
+      <c r="J232" s="18"/>
+    </row>
+    <row r="233" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="5"/>
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
       <c r="E233" s="5"/>
-    </row>
-    <row r="234" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G233" s="17"/>
+      <c r="H233" s="17"/>
+      <c r="I233" s="17"/>
+      <c r="J233" s="18"/>
+    </row>
+    <row r="234" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="5"/>
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
       <c r="E234" s="5"/>
-    </row>
-    <row r="235" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G234" s="17"/>
+      <c r="H234" s="17"/>
+      <c r="I234" s="17"/>
+      <c r="J234" s="18"/>
+    </row>
+    <row r="235" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="5"/>
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
       <c r="E235" s="5"/>
-    </row>
-    <row r="236" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G235" s="17"/>
+      <c r="H235" s="17"/>
+      <c r="I235" s="17"/>
+      <c r="J235" s="18"/>
+    </row>
+    <row r="236" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="5"/>
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
       <c r="E236" s="5"/>
-    </row>
-    <row r="237" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G236" s="17"/>
+      <c r="H236" s="17"/>
+      <c r="I236" s="17"/>
+      <c r="J236" s="18"/>
+    </row>
+    <row r="237" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="5"/>
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
       <c r="E237" s="5"/>
-    </row>
-    <row r="238" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G237" s="17"/>
+      <c r="H237" s="17"/>
+      <c r="I237" s="17"/>
+      <c r="J237" s="18"/>
+    </row>
+    <row r="238" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="5"/>
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
       <c r="E238" s="5"/>
-    </row>
-    <row r="239" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G238" s="17"/>
+      <c r="H238" s="17"/>
+      <c r="I238" s="17"/>
+      <c r="J238" s="18"/>
+    </row>
+    <row r="239" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
-    </row>
-    <row r="240" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G239" s="17"/>
+      <c r="H239" s="17"/>
+      <c r="I239" s="17"/>
+      <c r="J239" s="18"/>
+    </row>
+    <row r="240" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="5"/>
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
       <c r="D240" s="5"/>
       <c r="E240" s="5"/>
-    </row>
-    <row r="241" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G240" s="17"/>
+      <c r="H240" s="17"/>
+      <c r="I240" s="17"/>
+      <c r="J240" s="18"/>
+    </row>
+    <row r="241" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="5"/>
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
       <c r="D241" s="5"/>
       <c r="E241" s="5"/>
-    </row>
-    <row r="242" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G241" s="17"/>
+      <c r="H241" s="17"/>
+      <c r="I241" s="17"/>
+      <c r="J241" s="18"/>
+    </row>
+    <row r="242" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="5"/>
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
       <c r="E242" s="5"/>
-    </row>
-    <row r="243" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G242" s="17"/>
+      <c r="H242" s="17"/>
+      <c r="I242" s="17"/>
+      <c r="J242" s="18"/>
+    </row>
+    <row r="243" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="5"/>
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
       <c r="D243" s="5"/>
       <c r="E243" s="5"/>
-    </row>
-    <row r="244" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G243" s="17"/>
+      <c r="H243" s="17"/>
+      <c r="I243" s="17"/>
+      <c r="J243" s="18"/>
+    </row>
+    <row r="244" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="5"/>
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
       <c r="E244" s="5"/>
-    </row>
-    <row r="245" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G244" s="17"/>
+      <c r="H244" s="17"/>
+      <c r="I244" s="17"/>
+      <c r="J244" s="18"/>
+    </row>
+    <row r="245" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="5"/>
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
       <c r="E245" s="5"/>
-    </row>
-    <row r="246" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G245" s="17"/>
+      <c r="H245" s="17"/>
+      <c r="I245" s="17"/>
+      <c r="J245" s="18"/>
+    </row>
+    <row r="246" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="5"/>
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
       <c r="E246" s="5"/>
-    </row>
-    <row r="247" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G246" s="17"/>
+      <c r="H246" s="17"/>
+      <c r="I246" s="17"/>
+      <c r="J246" s="18"/>
+    </row>
+    <row r="247" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="5"/>
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
       <c r="D247" s="5"/>
       <c r="E247" s="5"/>
-    </row>
-    <row r="248" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G247" s="17"/>
+      <c r="H247" s="17"/>
+      <c r="I247" s="17"/>
+      <c r="J247" s="18"/>
+    </row>
+    <row r="248" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="5"/>
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
       <c r="E248" s="5"/>
-    </row>
-    <row r="249" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G248" s="17"/>
+      <c r="H248" s="17"/>
+      <c r="I248" s="17"/>
+      <c r="J248" s="18"/>
+    </row>
+    <row r="249" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="5"/>
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
       <c r="E249" s="5"/>
-    </row>
-    <row r="250" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G249" s="17"/>
+      <c r="H249" s="17"/>
+      <c r="I249" s="17"/>
+      <c r="J249" s="18"/>
+    </row>
+    <row r="250" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="5"/>
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
       <c r="D250" s="5"/>
       <c r="E250" s="5"/>
-    </row>
-    <row r="251" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G250" s="17"/>
+      <c r="H250" s="17"/>
+      <c r="I250" s="17"/>
+      <c r="J250" s="18"/>
+    </row>
+    <row r="251" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="5"/>
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
       <c r="D251" s="5"/>
       <c r="E251" s="5"/>
-    </row>
-    <row r="252" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G251" s="17"/>
+      <c r="H251" s="17"/>
+      <c r="I251" s="17"/>
+      <c r="J251" s="18"/>
+    </row>
+    <row r="252" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="5"/>
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
       <c r="D252" s="5"/>
       <c r="E252" s="5"/>
-    </row>
-    <row r="253" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G252" s="17"/>
+      <c r="H252" s="17"/>
+      <c r="I252" s="17"/>
+      <c r="J252" s="18"/>
+    </row>
+    <row r="253" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="5"/>
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
       <c r="D253" s="5"/>
       <c r="E253" s="5"/>
-    </row>
-    <row r="254" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G253" s="17"/>
+      <c r="H253" s="17"/>
+      <c r="I253" s="17"/>
+      <c r="J253" s="18"/>
+    </row>
+    <row r="254" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="5"/>
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
       <c r="D254" s="5"/>
       <c r="E254" s="5"/>
-    </row>
-    <row r="255" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G254" s="17"/>
+      <c r="H254" s="17"/>
+      <c r="I254" s="17"/>
+      <c r="J254" s="18"/>
+    </row>
+    <row r="255" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="5"/>
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
       <c r="E255" s="5"/>
-    </row>
-    <row r="256" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G255" s="17"/>
+      <c r="H255" s="17"/>
+      <c r="I255" s="17"/>
+      <c r="J255" s="18"/>
+    </row>
+    <row r="256" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="5"/>
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
       <c r="D256" s="5"/>
       <c r="E256" s="5"/>
-    </row>
-    <row r="257" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G256" s="17"/>
+      <c r="H256" s="17"/>
+      <c r="I256" s="17"/>
+      <c r="J256" s="18"/>
+    </row>
+    <row r="257" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="5"/>
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
       <c r="D257" s="5"/>
       <c r="E257" s="5"/>
-    </row>
-    <row r="258" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G257" s="17"/>
+      <c r="H257" s="17"/>
+      <c r="I257" s="17"/>
+      <c r="J257" s="18"/>
+    </row>
+    <row r="258" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="5"/>
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
       <c r="D258" s="5"/>
       <c r="E258" s="5"/>
-    </row>
-    <row r="259" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G258" s="17"/>
+      <c r="H258" s="17"/>
+      <c r="I258" s="17"/>
+      <c r="J258" s="18"/>
+    </row>
+    <row r="259" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="5"/>
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
       <c r="D259" s="5"/>
       <c r="E259" s="5"/>
-    </row>
-    <row r="260" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G259" s="17"/>
+      <c r="H259" s="17"/>
+      <c r="I259" s="17"/>
+      <c r="J259" s="18"/>
+    </row>
+    <row r="260" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="5"/>
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
       <c r="D260" s="5"/>
       <c r="E260" s="5"/>
-    </row>
-    <row r="261" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G260" s="17"/>
+      <c r="H260" s="17"/>
+      <c r="I260" s="17"/>
+      <c r="J260" s="18"/>
+    </row>
+    <row r="261" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="5"/>
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
       <c r="D261" s="5"/>
       <c r="E261" s="5"/>
-    </row>
-    <row r="262" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G261" s="17"/>
+      <c r="H261" s="17"/>
+      <c r="I261" s="17"/>
+      <c r="J261" s="18"/>
+    </row>
+    <row r="262" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="5"/>
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
       <c r="D262" s="5"/>
       <c r="E262" s="5"/>
-    </row>
-    <row r="263" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G262" s="17"/>
+      <c r="H262" s="17"/>
+      <c r="I262" s="17"/>
+      <c r="J262" s="18"/>
+    </row>
+    <row r="263" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="5"/>
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
       <c r="D263" s="5"/>
       <c r="E263" s="5"/>
-    </row>
-    <row r="264" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G263" s="17"/>
+      <c r="H263" s="17"/>
+      <c r="I263" s="17"/>
+      <c r="J263" s="18"/>
+    </row>
+    <row r="264" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="5"/>
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
       <c r="D264" s="5"/>
       <c r="E264" s="5"/>
-    </row>
-    <row r="265" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G264" s="17"/>
+      <c r="H264" s="17"/>
+      <c r="I264" s="17"/>
+      <c r="J264" s="18"/>
+    </row>
+    <row r="265" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="5"/>
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
       <c r="D265" s="5"/>
       <c r="E265" s="5"/>
-    </row>
-    <row r="266" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G265" s="17"/>
+      <c r="H265" s="17"/>
+      <c r="I265" s="17"/>
+      <c r="J265" s="18"/>
+    </row>
+    <row r="266" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="5"/>
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
       <c r="D266" s="5"/>
       <c r="E266" s="5"/>
-    </row>
-    <row r="267" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G266" s="17"/>
+      <c r="H266" s="17"/>
+      <c r="I266" s="17"/>
+      <c r="J266" s="18"/>
+    </row>
+    <row r="267" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="5"/>
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
       <c r="D267" s="5"/>
       <c r="E267" s="5"/>
-    </row>
-    <row r="268" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G267" s="17"/>
+      <c r="H267" s="17"/>
+      <c r="I267" s="17"/>
+      <c r="J267" s="18"/>
+    </row>
+    <row r="268" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="5"/>
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
       <c r="D268" s="5"/>
       <c r="E268" s="5"/>
-    </row>
-    <row r="269" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G268" s="17"/>
+      <c r="H268" s="17"/>
+      <c r="I268" s="17"/>
+      <c r="J268" s="18"/>
+    </row>
+    <row r="269" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="5"/>
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
       <c r="D269" s="5"/>
       <c r="E269" s="5"/>
-    </row>
-    <row r="270" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G269" s="17"/>
+      <c r="H269" s="17"/>
+      <c r="I269" s="17"/>
+      <c r="J269" s="18"/>
+    </row>
+    <row r="270" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="5"/>
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
       <c r="D270" s="5"/>
       <c r="E270" s="5"/>
-    </row>
-    <row r="271" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G270" s="17"/>
+      <c r="H270" s="17"/>
+      <c r="I270" s="17"/>
+      <c r="J270" s="18"/>
+    </row>
+    <row r="271" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="5"/>
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
       <c r="D271" s="5"/>
       <c r="E271" s="5"/>
-    </row>
-    <row r="272" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G271" s="17"/>
+      <c r="H271" s="17"/>
+      <c r="I271" s="17"/>
+      <c r="J271" s="18"/>
+    </row>
+    <row r="272" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="5"/>
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
       <c r="D272" s="5"/>
       <c r="E272" s="5"/>
-    </row>
-    <row r="273" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G272" s="17"/>
+      <c r="H272" s="17"/>
+      <c r="I272" s="17"/>
+      <c r="J272" s="18"/>
+    </row>
+    <row r="273" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="5"/>
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
       <c r="D273" s="5"/>
       <c r="E273" s="5"/>
-    </row>
-    <row r="274" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G273" s="17"/>
+      <c r="H273" s="17"/>
+      <c r="I273" s="17"/>
+      <c r="J273" s="18"/>
+    </row>
+    <row r="274" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="5"/>
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
       <c r="D274" s="5"/>
       <c r="E274" s="5"/>
-    </row>
-    <row r="275" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G274" s="17"/>
+      <c r="H274" s="17"/>
+      <c r="I274" s="17"/>
+      <c r="J274" s="18"/>
+    </row>
+    <row r="275" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="5"/>
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
       <c r="D275" s="5"/>
       <c r="E275" s="5"/>
-    </row>
-    <row r="276" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G275" s="17"/>
+      <c r="H275" s="17"/>
+      <c r="I275" s="17"/>
+      <c r="J275" s="18"/>
+    </row>
+    <row r="276" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="5"/>
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
       <c r="D276" s="5"/>
       <c r="E276" s="5"/>
-    </row>
-    <row r="277" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G276" s="17"/>
+      <c r="H276" s="17"/>
+      <c r="I276" s="17"/>
+      <c r="J276" s="18"/>
+    </row>
+    <row r="277" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="5"/>
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
       <c r="D277" s="5"/>
       <c r="E277" s="5"/>
-    </row>
-    <row r="278" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G277" s="17"/>
+      <c r="H277" s="17"/>
+      <c r="I277" s="17"/>
+      <c r="J277" s="18"/>
+    </row>
+    <row r="278" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="5"/>
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
       <c r="D278" s="5"/>
       <c r="E278" s="5"/>
-    </row>
-    <row r="279" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G278" s="17"/>
+      <c r="H278" s="17"/>
+      <c r="I278" s="17"/>
+      <c r="J278" s="18"/>
+    </row>
+    <row r="279" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="5"/>
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
       <c r="D279" s="5"/>
       <c r="E279" s="5"/>
-    </row>
-    <row r="280" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G279" s="17"/>
+      <c r="H279" s="17"/>
+      <c r="I279" s="17"/>
+      <c r="J279" s="18"/>
+    </row>
+    <row r="280" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="5"/>
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
       <c r="D280" s="5"/>
       <c r="E280" s="5"/>
-    </row>
-    <row r="281" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G280" s="17"/>
+      <c r="H280" s="17"/>
+      <c r="I280" s="17"/>
+      <c r="J280" s="18"/>
+    </row>
+    <row r="281" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="5"/>
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
       <c r="D281" s="5"/>
       <c r="E281" s="5"/>
-    </row>
-    <row r="282" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G281" s="17"/>
+      <c r="H281" s="17"/>
+      <c r="I281" s="17"/>
+      <c r="J281" s="18"/>
+    </row>
+    <row r="282" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="5"/>
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
       <c r="D282" s="5"/>
       <c r="E282" s="5"/>
-    </row>
-    <row r="283" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G282" s="17"/>
+      <c r="H282" s="17"/>
+      <c r="I282" s="17"/>
+      <c r="J282" s="18"/>
+    </row>
+    <row r="283" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="5"/>
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
       <c r="D283" s="5"/>
       <c r="E283" s="5"/>
-    </row>
-    <row r="284" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G283" s="17"/>
+      <c r="H283" s="17"/>
+      <c r="I283" s="17"/>
+      <c r="J283" s="18"/>
+    </row>
+    <row r="284" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="5"/>
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
       <c r="D284" s="5"/>
       <c r="E284" s="5"/>
-    </row>
-    <row r="285" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G284" s="17"/>
+      <c r="H284" s="17"/>
+      <c r="I284" s="17"/>
+      <c r="J284" s="18"/>
+    </row>
+    <row r="285" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="5"/>
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
       <c r="D285" s="5"/>
       <c r="E285" s="5"/>
-    </row>
-    <row r="286" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G285" s="17"/>
+      <c r="H285" s="17"/>
+      <c r="I285" s="17"/>
+      <c r="J285" s="18"/>
+    </row>
+    <row r="286" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="5"/>
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
       <c r="D286" s="5"/>
       <c r="E286" s="5"/>
-    </row>
-    <row r="287" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G286" s="17"/>
+      <c r="H286" s="17"/>
+      <c r="I286" s="17"/>
+      <c r="J286" s="18"/>
+    </row>
+    <row r="287" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="5"/>
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
       <c r="D287" s="5"/>
       <c r="E287" s="5"/>
-    </row>
-    <row r="288" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G287" s="17"/>
+      <c r="H287" s="17"/>
+      <c r="I287" s="17"/>
+      <c r="J287" s="18"/>
+    </row>
+    <row r="288" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="5"/>
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
       <c r="D288" s="5"/>
       <c r="E288" s="5"/>
-    </row>
-    <row r="289" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G288" s="17"/>
+      <c r="H288" s="17"/>
+      <c r="I288" s="17"/>
+      <c r="J288" s="18"/>
+    </row>
+    <row r="289" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="5"/>
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
       <c r="D289" s="5"/>
       <c r="E289" s="5"/>
-    </row>
-    <row r="290" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G289" s="17"/>
+      <c r="H289" s="17"/>
+      <c r="I289" s="17"/>
+      <c r="J289" s="18"/>
+    </row>
+    <row r="290" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="5"/>
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
       <c r="D290" s="5"/>
       <c r="E290" s="5"/>
-    </row>
-    <row r="291" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G290" s="17"/>
+      <c r="H290" s="17"/>
+      <c r="I290" s="17"/>
+      <c r="J290" s="18"/>
+    </row>
+    <row r="291" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="5"/>
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
       <c r="D291" s="5"/>
       <c r="E291" s="5"/>
-    </row>
-    <row r="292" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G291" s="17"/>
+      <c r="H291" s="17"/>
+      <c r="I291" s="17"/>
+      <c r="J291" s="18"/>
+    </row>
+    <row r="292" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="5"/>
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
       <c r="D292" s="5"/>
       <c r="E292" s="5"/>
-    </row>
-    <row r="293" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G292" s="17"/>
+      <c r="H292" s="17"/>
+      <c r="I292" s="17"/>
+      <c r="J292" s="18"/>
+    </row>
+    <row r="293" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="5"/>
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
       <c r="D293" s="5"/>
       <c r="E293" s="5"/>
-    </row>
-    <row r="294" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G293" s="17"/>
+      <c r="H293" s="17"/>
+      <c r="I293" s="17"/>
+      <c r="J293" s="18"/>
+    </row>
+    <row r="294" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="5"/>
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
       <c r="D294" s="5"/>
       <c r="E294" s="5"/>
-    </row>
-    <row r="295" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G294" s="17"/>
+      <c r="H294" s="17"/>
+      <c r="I294" s="17"/>
+      <c r="J294" s="18"/>
+    </row>
+    <row r="295" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="5"/>
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
       <c r="D295" s="5"/>
       <c r="E295" s="5"/>
-    </row>
-    <row r="296" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G295" s="17"/>
+      <c r="H295" s="17"/>
+      <c r="I295" s="17"/>
+      <c r="J295" s="18"/>
+    </row>
+    <row r="296" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="5"/>
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
       <c r="D296" s="5"/>
       <c r="E296" s="5"/>
-    </row>
-    <row r="297" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G296" s="17"/>
+      <c r="H296" s="17"/>
+      <c r="I296" s="17"/>
+      <c r="J296" s="18"/>
+    </row>
+    <row r="297" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="5"/>
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
       <c r="D297" s="5"/>
       <c r="E297" s="5"/>
-    </row>
-    <row r="298" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G297" s="17"/>
+      <c r="H297" s="17"/>
+      <c r="I297" s="17"/>
+      <c r="J297" s="18"/>
+    </row>
+    <row r="298" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="5"/>
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
       <c r="D298" s="5"/>
       <c r="E298" s="5"/>
-    </row>
-    <row r="299" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G298" s="17"/>
+      <c r="H298" s="17"/>
+      <c r="I298" s="17"/>
+      <c r="J298" s="18"/>
+    </row>
+    <row r="299" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="5"/>
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
       <c r="D299" s="5"/>
       <c r="E299" s="5"/>
-    </row>
-    <row r="300" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G299" s="17"/>
+      <c r="H299" s="17"/>
+      <c r="I299" s="17"/>
+      <c r="J299" s="18"/>
+    </row>
+    <row r="300" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="5"/>
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
       <c r="D300" s="5"/>
       <c r="E300" s="5"/>
-    </row>
-    <row r="301" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G300" s="17"/>
+      <c r="H300" s="17"/>
+      <c r="I300" s="17"/>
+      <c r="J300" s="18"/>
+    </row>
+    <row r="301" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="5"/>
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
       <c r="D301" s="5"/>
       <c r="E301" s="5"/>
-    </row>
-    <row r="302" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G301" s="17"/>
+      <c r="H301" s="17"/>
+      <c r="I301" s="17"/>
+      <c r="J301" s="18"/>
+    </row>
+    <row r="302" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="5"/>
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
       <c r="D302" s="5"/>
       <c r="E302" s="5"/>
-    </row>
-    <row r="303" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G302" s="17"/>
+      <c r="H302" s="17"/>
+      <c r="I302" s="17"/>
+      <c r="J302" s="18"/>
+    </row>
+    <row r="303" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="5"/>
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
       <c r="D303" s="5"/>
       <c r="E303" s="5"/>
-    </row>
-    <row r="304" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G303" s="17"/>
+      <c r="H303" s="17"/>
+      <c r="I303" s="17"/>
+      <c r="J303" s="18"/>
+    </row>
+    <row r="304" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="5"/>
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
       <c r="D304" s="5"/>
       <c r="E304" s="5"/>
-    </row>
-    <row r="305" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G304" s="17"/>
+      <c r="H304" s="17"/>
+      <c r="I304" s="17"/>
+      <c r="J304" s="18"/>
+    </row>
+    <row r="305" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="5"/>
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
       <c r="D305" s="5"/>
       <c r="E305" s="5"/>
-    </row>
-    <row r="306" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G305" s="17"/>
+      <c r="H305" s="17"/>
+      <c r="I305" s="17"/>
+      <c r="J305" s="18"/>
+    </row>
+    <row r="306" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="5"/>
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
       <c r="D306" s="5"/>
       <c r="E306" s="5"/>
-    </row>
-    <row r="307" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G306" s="17"/>
+      <c r="H306" s="17"/>
+      <c r="I306" s="17"/>
+      <c r="J306" s="18"/>
+    </row>
+    <row r="307" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="5"/>
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
       <c r="D307" s="5"/>
       <c r="E307" s="5"/>
-    </row>
-    <row r="308" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G307" s="17"/>
+      <c r="H307" s="17"/>
+      <c r="I307" s="17"/>
+      <c r="J307" s="18"/>
+    </row>
+    <row r="308" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="5"/>
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
       <c r="D308" s="5"/>
       <c r="E308" s="5"/>
-    </row>
-    <row r="309" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G308" s="17"/>
+      <c r="H308" s="17"/>
+      <c r="I308" s="17"/>
+      <c r="J308" s="18"/>
+    </row>
+    <row r="309" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="5"/>
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
       <c r="D309" s="5"/>
       <c r="E309" s="5"/>
-    </row>
-    <row r="310" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G309" s="17"/>
+      <c r="H309" s="17"/>
+      <c r="I309" s="17"/>
+      <c r="J309" s="18"/>
+    </row>
+    <row r="310" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="5"/>
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
       <c r="D310" s="5"/>
       <c r="E310" s="5"/>
-    </row>
-    <row r="311" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G310" s="17"/>
+      <c r="H310" s="17"/>
+      <c r="I310" s="17"/>
+      <c r="J310" s="18"/>
+    </row>
+    <row r="311" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="5"/>
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
       <c r="D311" s="5"/>
       <c r="E311" s="5"/>
-    </row>
-    <row r="312" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G311" s="17"/>
+      <c r="H311" s="17"/>
+      <c r="I311" s="17"/>
+      <c r="J311" s="18"/>
+    </row>
+    <row r="312" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="5"/>
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
       <c r="D312" s="5"/>
       <c r="E312" s="5"/>
-    </row>
-    <row r="313" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G312" s="17"/>
+      <c r="H312" s="17"/>
+      <c r="I312" s="17"/>
+      <c r="J312" s="18"/>
+    </row>
+    <row r="313" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="5"/>
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
       <c r="D313" s="5"/>
       <c r="E313" s="5"/>
-    </row>
-    <row r="314" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G313" s="17"/>
+      <c r="H313" s="17"/>
+      <c r="I313" s="17"/>
+      <c r="J313" s="18"/>
+    </row>
+    <row r="314" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="5"/>
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
       <c r="D314" s="5"/>
       <c r="E314" s="5"/>
-    </row>
-    <row r="315" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G314" s="17"/>
+      <c r="H314" s="17"/>
+      <c r="I314" s="17"/>
+      <c r="J314" s="18"/>
+    </row>
+    <row r="315" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="5"/>
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
       <c r="D315" s="5"/>
       <c r="E315" s="5"/>
-    </row>
-    <row r="316" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G315" s="17"/>
+      <c r="H315" s="17"/>
+      <c r="I315" s="17"/>
+      <c r="J315" s="18"/>
+    </row>
+    <row r="316" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="5"/>
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
       <c r="D316" s="5"/>
       <c r="E316" s="5"/>
-    </row>
-    <row r="317" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G316" s="17"/>
+      <c r="H316" s="17"/>
+      <c r="I316" s="17"/>
+      <c r="J316" s="18"/>
+    </row>
+    <row r="317" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="5"/>
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
       <c r="D317" s="5"/>
       <c r="E317" s="5"/>
-    </row>
-    <row r="318" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G317" s="17"/>
+      <c r="H317" s="17"/>
+      <c r="I317" s="17"/>
+      <c r="J317" s="18"/>
+    </row>
+    <row r="318" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="5"/>
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
       <c r="D318" s="5"/>
       <c r="E318" s="5"/>
-    </row>
-    <row r="319" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G318" s="17"/>
+      <c r="H318" s="17"/>
+      <c r="I318" s="17"/>
+      <c r="J318" s="18"/>
+    </row>
+    <row r="319" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="5"/>
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
       <c r="D319" s="5"/>
       <c r="E319" s="5"/>
-    </row>
-    <row r="320" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G319" s="17"/>
+      <c r="H319" s="17"/>
+      <c r="I319" s="17"/>
+      <c r="J319" s="18"/>
+    </row>
+    <row r="320" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="5"/>
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
       <c r="D320" s="5"/>
       <c r="E320" s="5"/>
-    </row>
-    <row r="321" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G320" s="17"/>
+      <c r="H320" s="17"/>
+      <c r="I320" s="17"/>
+      <c r="J320" s="18"/>
+    </row>
+    <row r="321" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="5"/>
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
       <c r="D321" s="5"/>
       <c r="E321" s="5"/>
-    </row>
-    <row r="322" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G321" s="17"/>
+      <c r="H321" s="17"/>
+      <c r="I321" s="17"/>
+      <c r="J321" s="18"/>
+    </row>
+    <row r="322" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="5"/>
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
       <c r="D322" s="5"/>
       <c r="E322" s="5"/>
-    </row>
-    <row r="323" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G322" s="17"/>
+      <c r="H322" s="17"/>
+      <c r="I322" s="17"/>
+      <c r="J322" s="18"/>
+    </row>
+    <row r="323" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="5"/>
       <c r="B323" s="5"/>
       <c r="C323" s="5"/>
       <c r="D323" s="5"/>
       <c r="E323" s="5"/>
-    </row>
-    <row r="324" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G323" s="17"/>
+      <c r="H323" s="17"/>
+      <c r="I323" s="17"/>
+      <c r="J323" s="18"/>
+    </row>
+    <row r="324" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="5"/>
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
       <c r="D324" s="5"/>
       <c r="E324" s="5"/>
-    </row>
-    <row r="325" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G324" s="17"/>
+      <c r="H324" s="17"/>
+      <c r="I324" s="17"/>
+      <c r="J324" s="18"/>
+    </row>
+    <row r="325" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="5"/>
       <c r="B325" s="5"/>
       <c r="C325" s="5"/>
       <c r="D325" s="5"/>
       <c r="E325" s="5"/>
-    </row>
-    <row r="326" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G325" s="17"/>
+      <c r="H325" s="17"/>
+      <c r="I325" s="17"/>
+      <c r="J325" s="18"/>
+    </row>
+    <row r="326" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="5"/>
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
       <c r="D326" s="5"/>
       <c r="E326" s="5"/>
-    </row>
-    <row r="327" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G326" s="17"/>
+      <c r="H326" s="17"/>
+      <c r="I326" s="17"/>
+      <c r="J326" s="18"/>
+    </row>
+    <row r="327" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="5"/>
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
       <c r="D327" s="5"/>
       <c r="E327" s="5"/>
-    </row>
-    <row r="328" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G327" s="17"/>
+      <c r="H327" s="17"/>
+      <c r="I327" s="17"/>
+      <c r="J327" s="18"/>
+    </row>
+    <row r="328" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="5"/>
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
       <c r="D328" s="5"/>
       <c r="E328" s="5"/>
-    </row>
-    <row r="329" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G328" s="17"/>
+      <c r="H328" s="17"/>
+      <c r="I328" s="17"/>
+      <c r="J328" s="18"/>
+    </row>
+    <row r="329" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="5"/>
       <c r="B329" s="5"/>
       <c r="C329" s="5"/>
       <c r="D329" s="5"/>
       <c r="E329" s="5"/>
-    </row>
-    <row r="330" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G329" s="17"/>
+      <c r="H329" s="17"/>
+      <c r="I329" s="17"/>
+      <c r="J329" s="18"/>
+    </row>
+    <row r="330" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="5"/>
       <c r="B330" s="5"/>
       <c r="C330" s="5"/>
       <c r="D330" s="5"/>
       <c r="E330" s="5"/>
-    </row>
-    <row r="331" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G330" s="17"/>
+      <c r="H330" s="17"/>
+      <c r="I330" s="17"/>
+      <c r="J330" s="18"/>
+    </row>
+    <row r="331" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="5"/>
       <c r="B331" s="5"/>
       <c r="C331" s="5"/>
       <c r="D331" s="5"/>
       <c r="E331" s="5"/>
-    </row>
-    <row r="332" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G331" s="17"/>
+      <c r="H331" s="17"/>
+      <c r="I331" s="17"/>
+      <c r="J331" s="18"/>
+    </row>
+    <row r="332" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="5"/>
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
       <c r="D332" s="5"/>
       <c r="E332" s="5"/>
-    </row>
-    <row r="333" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G332" s="17"/>
+      <c r="H332" s="17"/>
+      <c r="I332" s="17"/>
+      <c r="J332" s="18"/>
+    </row>
+    <row r="333" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="5"/>
       <c r="B333" s="5"/>
       <c r="C333" s="5"/>
       <c r="D333" s="5"/>
       <c r="E333" s="5"/>
-    </row>
-    <row r="334" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G333" s="17"/>
+      <c r="H333" s="17"/>
+      <c r="I333" s="17"/>
+      <c r="J333" s="18"/>
+    </row>
+    <row r="334" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="5"/>
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
       <c r="D334" s="5"/>
       <c r="E334" s="5"/>
-    </row>
-    <row r="335" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G334" s="17"/>
+      <c r="H334" s="17"/>
+      <c r="I334" s="17"/>
+      <c r="J334" s="18"/>
+    </row>
+    <row r="335" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="5"/>
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
       <c r="D335" s="5"/>
       <c r="E335" s="5"/>
-    </row>
-    <row r="336" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G335" s="17"/>
+      <c r="H335" s="17"/>
+      <c r="I335" s="17"/>
+      <c r="J335" s="18"/>
+    </row>
+    <row r="336" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="5"/>
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>
       <c r="D336" s="5"/>
       <c r="E336" s="5"/>
-    </row>
-    <row r="337" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G336" s="17"/>
+      <c r="H336" s="17"/>
+      <c r="I336" s="17"/>
+      <c r="J336" s="18"/>
+    </row>
+    <row r="337" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="5"/>
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
       <c r="D337" s="5"/>
       <c r="E337" s="5"/>
-    </row>
-    <row r="338" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G337" s="17"/>
+      <c r="H337" s="17"/>
+      <c r="I337" s="17"/>
+      <c r="J337" s="18"/>
+    </row>
+    <row r="338" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="5"/>
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
       <c r="D338" s="5"/>
       <c r="E338" s="5"/>
-    </row>
-    <row r="339" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G338" s="17"/>
+      <c r="H338" s="17"/>
+      <c r="I338" s="17"/>
+      <c r="J338" s="18"/>
+    </row>
+    <row r="339" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="5"/>
       <c r="B339" s="5"/>
       <c r="C339" s="5"/>
       <c r="D339" s="5"/>
       <c r="E339" s="5"/>
-    </row>
-    <row r="340" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G339" s="17"/>
+      <c r="H339" s="17"/>
+      <c r="I339" s="17"/>
+      <c r="J339" s="18"/>
+    </row>
+    <row r="340" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="5"/>
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
       <c r="D340" s="5"/>
       <c r="E340" s="5"/>
-    </row>
-    <row r="341" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G340" s="17"/>
+      <c r="H340" s="17"/>
+      <c r="I340" s="17"/>
+      <c r="J340" s="18"/>
+    </row>
+    <row r="341" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="5"/>
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
       <c r="D341" s="5"/>
       <c r="E341" s="5"/>
-    </row>
-    <row r="342" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G341" s="17"/>
+      <c r="H341" s="17"/>
+      <c r="I341" s="17"/>
+      <c r="J341" s="18"/>
+    </row>
+    <row r="342" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="5"/>
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
       <c r="D342" s="5"/>
       <c r="E342" s="5"/>
-    </row>
-    <row r="343" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G342" s="17"/>
+      <c r="H342" s="17"/>
+      <c r="I342" s="17"/>
+      <c r="J342" s="18"/>
+    </row>
+    <row r="343" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="5"/>
       <c r="B343" s="5"/>
       <c r="C343" s="5"/>
       <c r="D343" s="5"/>
       <c r="E343" s="5"/>
-    </row>
-    <row r="344" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G343" s="17"/>
+      <c r="H343" s="17"/>
+      <c r="I343" s="17"/>
+      <c r="J343" s="18"/>
+    </row>
+    <row r="344" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="5"/>
       <c r="B344" s="5"/>
       <c r="C344" s="5"/>
       <c r="D344" s="5"/>
       <c r="E344" s="5"/>
-    </row>
-    <row r="345" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G344" s="17"/>
+      <c r="H344" s="17"/>
+      <c r="I344" s="17"/>
+      <c r="J344" s="18"/>
+    </row>
+    <row r="345" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="5"/>
       <c r="B345" s="5"/>
       <c r="C345" s="5"/>
       <c r="D345" s="5"/>
       <c r="E345" s="5"/>
-    </row>
-    <row r="346" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G345" s="17"/>
+      <c r="H345" s="17"/>
+      <c r="I345" s="17"/>
+      <c r="J345" s="18"/>
+    </row>
+    <row r="346" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="5"/>
       <c r="B346" s="5"/>
       <c r="C346" s="5"/>
       <c r="D346" s="5"/>
       <c r="E346" s="5"/>
-    </row>
-    <row r="347" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G346" s="17"/>
+      <c r="H346" s="17"/>
+      <c r="I346" s="17"/>
+      <c r="J346" s="18"/>
+    </row>
+    <row r="347" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="5"/>
       <c r="B347" s="5"/>
       <c r="C347" s="5"/>
       <c r="D347" s="5"/>
       <c r="E347" s="5"/>
-    </row>
-    <row r="348" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G347" s="17"/>
+      <c r="H347" s="17"/>
+      <c r="I347" s="17"/>
+      <c r="J347" s="18"/>
+    </row>
+    <row r="348" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="5"/>
       <c r="B348" s="5"/>
       <c r="C348" s="5"/>
       <c r="D348" s="5"/>
       <c r="E348" s="5"/>
-    </row>
-    <row r="349" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G348" s="17"/>
+      <c r="H348" s="17"/>
+      <c r="I348" s="17"/>
+      <c r="J348" s="18"/>
+    </row>
+    <row r="349" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="5"/>
       <c r="B349" s="5"/>
       <c r="C349" s="5"/>
       <c r="D349" s="5"/>
       <c r="E349" s="5"/>
-    </row>
-    <row r="350" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G349" s="17"/>
+      <c r="H349" s="17"/>
+      <c r="I349" s="17"/>
+      <c r="J349" s="18"/>
+    </row>
+    <row r="350" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="5"/>
       <c r="B350" s="5"/>
       <c r="C350" s="5"/>
       <c r="D350" s="5"/>
       <c r="E350" s="5"/>
-    </row>
-    <row r="351" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G350" s="17"/>
+      <c r="H350" s="17"/>
+      <c r="I350" s="17"/>
+      <c r="J350" s="18"/>
+    </row>
+    <row r="351" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="5"/>
       <c r="B351" s="5"/>
       <c r="C351" s="5"/>
       <c r="D351" s="5"/>
       <c r="E351" s="5"/>
-    </row>
-    <row r="352" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G351" s="17"/>
+      <c r="H351" s="17"/>
+      <c r="I351" s="17"/>
+      <c r="J351" s="18"/>
+    </row>
+    <row r="352" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="5"/>
       <c r="B352" s="5"/>
       <c r="C352" s="5"/>
       <c r="D352" s="5"/>
       <c r="E352" s="5"/>
-    </row>
-    <row r="353" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G352" s="17"/>
+      <c r="H352" s="17"/>
+      <c r="I352" s="17"/>
+      <c r="J352" s="18"/>
+    </row>
+    <row r="353" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="5"/>
       <c r="B353" s="5"/>
       <c r="C353" s="5"/>
       <c r="D353" s="5"/>
       <c r="E353" s="5"/>
-    </row>
-    <row r="354" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G353" s="17"/>
+      <c r="H353" s="17"/>
+      <c r="I353" s="17"/>
+      <c r="J353" s="18"/>
+    </row>
+    <row r="354" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="5"/>
       <c r="B354" s="5"/>
       <c r="C354" s="5"/>
       <c r="D354" s="5"/>
       <c r="E354" s="5"/>
-    </row>
-    <row r="355" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G354" s="17"/>
+      <c r="H354" s="17"/>
+      <c r="I354" s="17"/>
+      <c r="J354" s="18"/>
+    </row>
+    <row r="355" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="5"/>
       <c r="B355" s="5"/>
       <c r="C355" s="5"/>
       <c r="D355" s="5"/>
       <c r="E355" s="5"/>
-    </row>
-    <row r="356" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G355" s="17"/>
+      <c r="H355" s="17"/>
+      <c r="I355" s="17"/>
+      <c r="J355" s="18"/>
+    </row>
+    <row r="356" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="5"/>
       <c r="B356" s="5"/>
       <c r="C356" s="5"/>
       <c r="D356" s="5"/>
       <c r="E356" s="5"/>
-    </row>
-    <row r="357" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G356" s="17"/>
+      <c r="H356" s="17"/>
+      <c r="I356" s="17"/>
+      <c r="J356" s="18"/>
+    </row>
+    <row r="357" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="5"/>
       <c r="B357" s="5"/>
       <c r="C357" s="5"/>
       <c r="D357" s="5"/>
       <c r="E357" s="5"/>
-    </row>
-    <row r="358" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G357" s="17"/>
+      <c r="H357" s="17"/>
+      <c r="I357" s="17"/>
+      <c r="J357" s="18"/>
+    </row>
+    <row r="358" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="5"/>
       <c r="B358" s="5"/>
       <c r="C358" s="5"/>
       <c r="D358" s="5"/>
       <c r="E358" s="5"/>
-    </row>
-    <row r="359" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G358" s="17"/>
+      <c r="H358" s="17"/>
+      <c r="I358" s="17"/>
+      <c r="J358" s="18"/>
+    </row>
+    <row r="359" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="5"/>
       <c r="B359" s="5"/>
       <c r="C359" s="5"/>
       <c r="D359" s="5"/>
       <c r="E359" s="5"/>
-    </row>
-    <row r="360" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G359" s="17"/>
+      <c r="H359" s="17"/>
+      <c r="I359" s="17"/>
+      <c r="J359" s="18"/>
+    </row>
+    <row r="360" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="5"/>
       <c r="B360" s="5"/>
       <c r="C360" s="5"/>
       <c r="D360" s="5"/>
       <c r="E360" s="5"/>
-    </row>
-    <row r="361" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G360" s="17"/>
+      <c r="H360" s="17"/>
+      <c r="I360" s="17"/>
+      <c r="J360" s="18"/>
+    </row>
+    <row r="361" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="5"/>
       <c r="B361" s="5"/>
       <c r="C361" s="5"/>
       <c r="D361" s="5"/>
       <c r="E361" s="5"/>
-    </row>
-    <row r="362" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G361" s="17"/>
+      <c r="H361" s="17"/>
+      <c r="I361" s="17"/>
+      <c r="J361" s="18"/>
+    </row>
+    <row r="362" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="5"/>
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
       <c r="D362" s="5"/>
       <c r="E362" s="5"/>
-    </row>
-    <row r="363" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G362" s="17"/>
+      <c r="H362" s="17"/>
+      <c r="I362" s="17"/>
+      <c r="J362" s="18"/>
+    </row>
+    <row r="363" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="5"/>
       <c r="B363" s="5"/>
       <c r="C363" s="5"/>
       <c r="D363" s="5"/>
       <c r="E363" s="5"/>
-    </row>
-    <row r="364" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G363" s="17"/>
+      <c r="H363" s="17"/>
+      <c r="I363" s="17"/>
+      <c r="J363" s="18"/>
+    </row>
+    <row r="364" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="5"/>
       <c r="B364" s="5"/>
       <c r="C364" s="5"/>
       <c r="D364" s="5"/>
       <c r="E364" s="5"/>
-    </row>
-    <row r="365" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G364" s="17"/>
+      <c r="H364" s="17"/>
+      <c r="I364" s="17"/>
+      <c r="J364" s="18"/>
+    </row>
+    <row r="365" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="5"/>
       <c r="B365" s="5"/>
       <c r="C365" s="5"/>
       <c r="D365" s="5"/>
       <c r="E365" s="5"/>
-    </row>
-    <row r="366" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G365" s="17"/>
+      <c r="H365" s="17"/>
+      <c r="I365" s="17"/>
+      <c r="J365" s="18"/>
+    </row>
+    <row r="366" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="5"/>
       <c r="B366" s="5"/>
       <c r="C366" s="5"/>
       <c r="D366" s="5"/>
       <c r="E366" s="5"/>
-    </row>
-    <row r="367" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G366" s="17"/>
+      <c r="H366" s="17"/>
+      <c r="I366" s="17"/>
+      <c r="J366" s="18"/>
+    </row>
+    <row r="367" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" s="5"/>
       <c r="B367" s="5"/>
       <c r="C367" s="5"/>
       <c r="D367" s="5"/>
       <c r="E367" s="5"/>
-    </row>
-    <row r="368" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G367" s="17"/>
+      <c r="H367" s="17"/>
+      <c r="I367" s="17"/>
+      <c r="J367" s="18"/>
+    </row>
+    <row r="368" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" s="5"/>
       <c r="B368" s="5"/>
       <c r="C368" s="5"/>
       <c r="D368" s="5"/>
       <c r="E368" s="5"/>
-    </row>
-    <row r="369" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G368" s="17"/>
+      <c r="H368" s="17"/>
+      <c r="I368" s="17"/>
+      <c r="J368" s="18"/>
+    </row>
+    <row r="369" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A369" s="5"/>
       <c r="B369" s="5"/>
       <c r="C369" s="5"/>
       <c r="D369" s="5"/>
       <c r="E369" s="5"/>
-    </row>
-    <row r="370" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G369" s="17"/>
+      <c r="H369" s="17"/>
+      <c r="I369" s="17"/>
+      <c r="J369" s="18"/>
+    </row>
+    <row r="370" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A370" s="5"/>
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
       <c r="D370" s="5"/>
       <c r="E370" s="5"/>
-    </row>
-    <row r="371" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G370" s="17"/>
+      <c r="H370" s="17"/>
+      <c r="I370" s="17"/>
+      <c r="J370" s="18"/>
+    </row>
+    <row r="371" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A371" s="5"/>
       <c r="B371" s="5"/>
       <c r="C371" s="5"/>
       <c r="D371" s="5"/>
       <c r="E371" s="5"/>
-    </row>
-    <row r="372" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G371" s="17"/>
+      <c r="H371" s="17"/>
+      <c r="I371" s="17"/>
+      <c r="J371" s="18"/>
+    </row>
+    <row r="372" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A372" s="5"/>
       <c r="B372" s="5"/>
       <c r="C372" s="5"/>
       <c r="D372" s="5"/>
       <c r="E372" s="5"/>
-    </row>
-    <row r="373" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G372" s="17"/>
+      <c r="H372" s="17"/>
+      <c r="I372" s="17"/>
+      <c r="J372" s="18"/>
+    </row>
+    <row r="373" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="5"/>
       <c r="B373" s="5"/>
       <c r="C373" s="5"/>
       <c r="D373" s="5"/>
       <c r="E373" s="5"/>
-    </row>
-    <row r="374" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G373" s="17"/>
+      <c r="H373" s="17"/>
+      <c r="I373" s="17"/>
+      <c r="J373" s="18"/>
+    </row>
+    <row r="374" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A374" s="5"/>
       <c r="B374" s="5"/>
       <c r="C374" s="5"/>
       <c r="D374" s="5"/>
       <c r="E374" s="5"/>
-    </row>
-    <row r="375" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G374" s="17"/>
+      <c r="H374" s="17"/>
+      <c r="I374" s="17"/>
+      <c r="J374" s="18"/>
+    </row>
+    <row r="375" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A375" s="5"/>
       <c r="B375" s="5"/>
       <c r="C375" s="5"/>
       <c r="D375" s="5"/>
       <c r="E375" s="5"/>
-    </row>
-    <row r="376" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G375" s="17"/>
+      <c r="H375" s="17"/>
+      <c r="I375" s="17"/>
+      <c r="J375" s="18"/>
+    </row>
+    <row r="376" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A376" s="5"/>
       <c r="B376" s="5"/>
       <c r="C376" s="5"/>
       <c r="D376" s="5"/>
       <c r="E376" s="5"/>
-    </row>
-    <row r="377" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G376" s="17"/>
+      <c r="H376" s="17"/>
+      <c r="I376" s="17"/>
+      <c r="J376" s="18"/>
+    </row>
+    <row r="377" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A377" s="5"/>
       <c r="B377" s="5"/>
       <c r="C377" s="5"/>
       <c r="D377" s="5"/>
       <c r="E377" s="5"/>
-    </row>
-    <row r="378" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G377" s="17"/>
+      <c r="H377" s="17"/>
+      <c r="I377" s="17"/>
+      <c r="J377" s="18"/>
+    </row>
+    <row r="378" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" s="5"/>
       <c r="B378" s="5"/>
       <c r="C378" s="5"/>
       <c r="D378" s="5"/>
       <c r="E378" s="5"/>
-    </row>
-    <row r="379" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G378" s="17"/>
+      <c r="H378" s="17"/>
+      <c r="I378" s="17"/>
+      <c r="J378" s="18"/>
+    </row>
+    <row r="379" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A379" s="5"/>
       <c r="B379" s="5"/>
       <c r="C379" s="5"/>
       <c r="D379" s="5"/>
       <c r="E379" s="5"/>
-    </row>
-    <row r="380" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G379" s="17"/>
+      <c r="H379" s="17"/>
+      <c r="I379" s="17"/>
+      <c r="J379" s="18"/>
+    </row>
+    <row r="380" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="5"/>
       <c r="B380" s="5"/>
       <c r="C380" s="5"/>
       <c r="D380" s="5"/>
       <c r="E380" s="5"/>
-    </row>
-    <row r="381" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G380" s="17"/>
+      <c r="H380" s="17"/>
+      <c r="I380" s="17"/>
+      <c r="J380" s="18"/>
+    </row>
+    <row r="381" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="5"/>
       <c r="B381" s="5"/>
       <c r="C381" s="5"/>
       <c r="D381" s="5"/>
       <c r="E381" s="5"/>
-    </row>
-    <row r="382" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G381" s="17"/>
+      <c r="H381" s="17"/>
+      <c r="I381" s="17"/>
+      <c r="J381" s="18"/>
+    </row>
+    <row r="382" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="5"/>
       <c r="B382" s="5"/>
       <c r="C382" s="5"/>
       <c r="D382" s="5"/>
       <c r="E382" s="5"/>
-    </row>
-    <row r="383" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G382" s="17"/>
+      <c r="H382" s="17"/>
+      <c r="I382" s="17"/>
+      <c r="J382" s="18"/>
+    </row>
+    <row r="383" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" s="5"/>
       <c r="B383" s="5"/>
       <c r="C383" s="5"/>
       <c r="D383" s="5"/>
       <c r="E383" s="5"/>
-    </row>
-    <row r="384" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G383" s="17"/>
+      <c r="H383" s="17"/>
+      <c r="I383" s="17"/>
+      <c r="J383" s="18"/>
+    </row>
+    <row r="384" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="5"/>
       <c r="B384" s="5"/>
       <c r="C384" s="5"/>
       <c r="D384" s="5"/>
       <c r="E384" s="5"/>
-    </row>
-    <row r="385" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G384" s="17"/>
+      <c r="H384" s="17"/>
+      <c r="I384" s="17"/>
+      <c r="J384" s="18"/>
+    </row>
+    <row r="385" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385" s="5"/>
       <c r="B385" s="5"/>
       <c r="C385" s="5"/>
       <c r="D385" s="5"/>
       <c r="E385" s="5"/>
-    </row>
-    <row r="386" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G385" s="17"/>
+      <c r="H385" s="17"/>
+      <c r="I385" s="17"/>
+      <c r="J385" s="18"/>
+    </row>
+    <row r="386" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A386" s="5"/>
       <c r="B386" s="5"/>
       <c r="C386" s="5"/>
       <c r="D386" s="5"/>
       <c r="E386" s="5"/>
-    </row>
-    <row r="387" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G386" s="17"/>
+      <c r="H386" s="17"/>
+      <c r="I386" s="17"/>
+      <c r="J386" s="18"/>
+    </row>
+    <row r="387" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A387" s="5"/>
       <c r="B387" s="5"/>
       <c r="C387" s="5"/>
       <c r="D387" s="5"/>
       <c r="E387" s="5"/>
-    </row>
-    <row r="388" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G387" s="17"/>
+      <c r="H387" s="17"/>
+      <c r="I387" s="17"/>
+      <c r="J387" s="18"/>
+    </row>
+    <row r="388" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A388" s="5"/>
       <c r="B388" s="5"/>
       <c r="C388" s="5"/>
       <c r="D388" s="5"/>
       <c r="E388" s="5"/>
-    </row>
-    <row r="389" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G388" s="17"/>
+      <c r="H388" s="17"/>
+      <c r="I388" s="17"/>
+      <c r="J388" s="18"/>
+    </row>
+    <row r="389" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A389" s="5"/>
       <c r="B389" s="5"/>
       <c r="C389" s="5"/>
       <c r="D389" s="5"/>
       <c r="E389" s="5"/>
-    </row>
-    <row r="390" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G389" s="17"/>
+      <c r="H389" s="17"/>
+      <c r="I389" s="17"/>
+      <c r="J389" s="18"/>
+    </row>
+    <row r="390" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A390" s="5"/>
       <c r="B390" s="5"/>
       <c r="C390" s="5"/>
       <c r="D390" s="5"/>
       <c r="E390" s="5"/>
-    </row>
-    <row r="391" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G390" s="17"/>
+      <c r="H390" s="17"/>
+      <c r="I390" s="17"/>
+      <c r="J390" s="18"/>
+    </row>
+    <row r="391" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" s="5"/>
       <c r="B391" s="5"/>
       <c r="C391" s="5"/>
       <c r="D391" s="5"/>
       <c r="E391" s="5"/>
-    </row>
-    <row r="392" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G391" s="17"/>
+      <c r="H391" s="17"/>
+      <c r="I391" s="17"/>
+      <c r="J391" s="18"/>
+    </row>
+    <row r="392" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A392" s="5"/>
       <c r="B392" s="5"/>
       <c r="C392" s="5"/>
       <c r="D392" s="5"/>
       <c r="E392" s="5"/>
-    </row>
-    <row r="393" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G392" s="17"/>
+      <c r="H392" s="17"/>
+      <c r="I392" s="17"/>
+      <c r="J392" s="18"/>
+    </row>
+    <row r="393" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A393" s="5"/>
       <c r="B393" s="5"/>
       <c r="C393" s="5"/>
       <c r="D393" s="5"/>
       <c r="E393" s="5"/>
-    </row>
-    <row r="394" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G393" s="17"/>
+      <c r="H393" s="17"/>
+      <c r="I393" s="17"/>
+      <c r="J393" s="18"/>
+    </row>
+    <row r="394" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A394" s="5"/>
       <c r="B394" s="5"/>
       <c r="C394" s="5"/>
       <c r="D394" s="5"/>
       <c r="E394" s="5"/>
-    </row>
-    <row r="395" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G394" s="17"/>
+      <c r="H394" s="17"/>
+      <c r="I394" s="17"/>
+      <c r="J394" s="18"/>
+    </row>
+    <row r="395" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" s="5"/>
       <c r="B395" s="5"/>
       <c r="C395" s="5"/>
       <c r="D395" s="5"/>
       <c r="E395" s="5"/>
-    </row>
-    <row r="396" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G395" s="17"/>
+      <c r="H395" s="17"/>
+      <c r="I395" s="17"/>
+      <c r="J395" s="18"/>
+    </row>
+    <row r="396" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" s="5"/>
       <c r="B396" s="5"/>
       <c r="C396" s="5"/>
       <c r="D396" s="5"/>
       <c r="E396" s="5"/>
-    </row>
-    <row r="397" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G396" s="17"/>
+      <c r="H396" s="17"/>
+      <c r="I396" s="17"/>
+      <c r="J396" s="18"/>
+    </row>
+    <row r="397" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397" s="5"/>
       <c r="B397" s="5"/>
       <c r="C397" s="5"/>
       <c r="D397" s="5"/>
       <c r="E397" s="5"/>
-    </row>
-    <row r="398" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G397" s="17"/>
+      <c r="H397" s="17"/>
+      <c r="I397" s="17"/>
+      <c r="J397" s="18"/>
+    </row>
+    <row r="398" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A398" s="5"/>
       <c r="B398" s="5"/>
       <c r="C398" s="5"/>
       <c r="D398" s="5"/>
       <c r="E398" s="5"/>
-    </row>
-    <row r="399" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G398" s="17"/>
+      <c r="H398" s="17"/>
+      <c r="I398" s="17"/>
+      <c r="J398" s="18"/>
+    </row>
+    <row r="399" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" s="5"/>
       <c r="B399" s="5"/>
       <c r="C399" s="5"/>
       <c r="D399" s="5"/>
       <c r="E399" s="5"/>
-    </row>
-    <row r="400" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G399" s="17"/>
+      <c r="H399" s="17"/>
+      <c r="I399" s="17"/>
+      <c r="J399" s="18"/>
+    </row>
+    <row r="400" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A400" s="5"/>
       <c r="B400" s="5"/>
       <c r="C400" s="5"/>
       <c r="D400" s="5"/>
       <c r="E400" s="5"/>
-    </row>
-    <row r="401" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G400" s="17"/>
+      <c r="H400" s="17"/>
+      <c r="I400" s="17"/>
+      <c r="J400" s="18"/>
+    </row>
+    <row r="401" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A401" s="5"/>
       <c r="B401" s="5"/>
       <c r="C401" s="5"/>
       <c r="D401" s="5"/>
       <c r="E401" s="5"/>
-    </row>
-    <row r="402" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G401" s="17"/>
+      <c r="H401" s="17"/>
+      <c r="I401" s="17"/>
+      <c r="J401" s="18"/>
+    </row>
+    <row r="402" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A402" s="5"/>
       <c r="B402" s="5"/>
       <c r="C402" s="5"/>
       <c r="D402" s="5"/>
       <c r="E402" s="5"/>
-    </row>
-    <row r="403" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G402" s="17"/>
+      <c r="H402" s="17"/>
+      <c r="I402" s="17"/>
+      <c r="J402" s="18"/>
+    </row>
+    <row r="403" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A403" s="5"/>
       <c r="B403" s="5"/>
       <c r="C403" s="5"/>
       <c r="D403" s="5"/>
       <c r="E403" s="5"/>
-    </row>
-    <row r="404" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G403" s="17"/>
+      <c r="H403" s="17"/>
+      <c r="I403" s="17"/>
+      <c r="J403" s="18"/>
+    </row>
+    <row r="404" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A404" s="5"/>
       <c r="B404" s="5"/>
       <c r="C404" s="5"/>
       <c r="D404" s="5"/>
       <c r="E404" s="5"/>
-    </row>
-    <row r="405" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G404" s="17"/>
+      <c r="H404" s="17"/>
+      <c r="I404" s="17"/>
+      <c r="J404" s="18"/>
+    </row>
+    <row r="405" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A405" s="5"/>
       <c r="B405" s="5"/>
       <c r="C405" s="5"/>
       <c r="D405" s="5"/>
       <c r="E405" s="5"/>
-    </row>
-    <row r="406" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G405" s="17"/>
+      <c r="H405" s="17"/>
+      <c r="I405" s="17"/>
+      <c r="J405" s="18"/>
+    </row>
+    <row r="406" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A406" s="5"/>
       <c r="B406" s="5"/>
       <c r="C406" s="5"/>
       <c r="D406" s="5"/>
       <c r="E406" s="5"/>
-    </row>
-    <row r="407" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G406" s="17"/>
+      <c r="H406" s="17"/>
+      <c r="I406" s="17"/>
+      <c r="J406" s="18"/>
+    </row>
+    <row r="407" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A407" s="5"/>
       <c r="B407" s="5"/>
       <c r="C407" s="5"/>
       <c r="D407" s="5"/>
       <c r="E407" s="5"/>
-    </row>
-    <row r="408" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G407" s="17"/>
+      <c r="H407" s="17"/>
+      <c r="I407" s="17"/>
+      <c r="J407" s="18"/>
+    </row>
+    <row r="408" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A408" s="5"/>
       <c r="B408" s="5"/>
       <c r="C408" s="5"/>
       <c r="D408" s="5"/>
       <c r="E408" s="5"/>
-    </row>
-    <row r="409" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G408" s="17"/>
+      <c r="H408" s="17"/>
+      <c r="I408" s="17"/>
+      <c r="J408" s="18"/>
+    </row>
+    <row r="409" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A409" s="5"/>
       <c r="B409" s="5"/>
       <c r="C409" s="5"/>
       <c r="D409" s="5"/>
       <c r="E409" s="5"/>
-    </row>
-    <row r="410" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G409" s="17"/>
+      <c r="H409" s="17"/>
+      <c r="I409" s="17"/>
+      <c r="J409" s="18"/>
+    </row>
+    <row r="410" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A410" s="5"/>
       <c r="B410" s="5"/>
       <c r="C410" s="5"/>
       <c r="D410" s="5"/>
       <c r="E410" s="5"/>
-    </row>
-    <row r="411" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G410" s="17"/>
+      <c r="H410" s="17"/>
+      <c r="I410" s="17"/>
+      <c r="J410" s="18"/>
+    </row>
+    <row r="411" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A411" s="5"/>
       <c r="B411" s="5"/>
       <c r="C411" s="5"/>
       <c r="D411" s="5"/>
       <c r="E411" s="5"/>
-    </row>
-    <row r="412" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G411" s="17"/>
+      <c r="H411" s="17"/>
+      <c r="I411" s="17"/>
+      <c r="J411" s="18"/>
+    </row>
+    <row r="412" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A412" s="5"/>
       <c r="B412" s="5"/>
       <c r="C412" s="5"/>
       <c r="D412" s="5"/>
       <c r="E412" s="5"/>
-    </row>
-    <row r="413" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G412" s="17"/>
+      <c r="H412" s="17"/>
+      <c r="I412" s="17"/>
+      <c r="J412" s="18"/>
+    </row>
+    <row r="413" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A413" s="5"/>
       <c r="B413" s="5"/>
       <c r="C413" s="5"/>
       <c r="D413" s="5"/>
       <c r="E413" s="5"/>
-    </row>
-    <row r="414" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G413" s="17"/>
+      <c r="H413" s="17"/>
+      <c r="I413" s="17"/>
+      <c r="J413" s="18"/>
+    </row>
+    <row r="414" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A414" s="5"/>
       <c r="B414" s="5"/>
       <c r="C414" s="5"/>
       <c r="D414" s="5"/>
       <c r="E414" s="5"/>
-    </row>
-    <row r="415" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G414" s="17"/>
+      <c r="H414" s="17"/>
+      <c r="I414" s="17"/>
+      <c r="J414" s="18"/>
+    </row>
+    <row r="415" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A415" s="5"/>
       <c r="B415" s="5"/>
       <c r="C415" s="5"/>
       <c r="D415" s="5"/>
       <c r="E415" s="5"/>
-    </row>
-    <row r="416" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G415" s="17"/>
+      <c r="H415" s="17"/>
+      <c r="I415" s="17"/>
+      <c r="J415" s="18"/>
+    </row>
+    <row r="416" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A416" s="5"/>
       <c r="B416" s="5"/>
       <c r="C416" s="5"/>
       <c r="D416" s="5"/>
       <c r="E416" s="5"/>
-    </row>
-    <row r="417" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G416" s="17"/>
+      <c r="H416" s="17"/>
+      <c r="I416" s="17"/>
+      <c r="J416" s="18"/>
+    </row>
+    <row r="417" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A417" s="5"/>
       <c r="B417" s="5"/>
       <c r="C417" s="5"/>
       <c r="D417" s="5"/>
       <c r="E417" s="5"/>
-    </row>
-    <row r="418" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G417" s="17"/>
+      <c r="H417" s="17"/>
+      <c r="I417" s="17"/>
+      <c r="J417" s="18"/>
+    </row>
+    <row r="418" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A418" s="5"/>
       <c r="B418" s="5"/>
       <c r="C418" s="5"/>
       <c r="D418" s="5"/>
       <c r="E418" s="5"/>
-    </row>
-    <row r="419" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G418" s="17"/>
+      <c r="H418" s="17"/>
+      <c r="I418" s="17"/>
+      <c r="J418" s="18"/>
+    </row>
+    <row r="419" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A419" s="5"/>
       <c r="B419" s="5"/>
       <c r="C419" s="5"/>
       <c r="D419" s="5"/>
       <c r="E419" s="5"/>
-    </row>
-    <row r="420" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G419" s="17"/>
+      <c r="H419" s="17"/>
+      <c r="I419" s="17"/>
+      <c r="J419" s="18"/>
+    </row>
+    <row r="420" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A420" s="5"/>
       <c r="B420" s="5"/>
       <c r="C420" s="5"/>
       <c r="D420" s="5"/>
       <c r="E420" s="5"/>
-    </row>
-    <row r="421" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J420" s="18"/>
+    </row>
+    <row r="421" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A421" s="5"/>
       <c r="B421" s="5"/>
       <c r="C421" s="5"/>
       <c r="D421" s="5"/>
       <c r="E421" s="5"/>
-    </row>
-    <row r="422" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J421" s="18"/>
+    </row>
+    <row r="422" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A422" s="5"/>
       <c r="B422" s="5"/>
       <c r="C422" s="5"/>
       <c r="D422" s="5"/>
       <c r="E422" s="5"/>
-    </row>
-    <row r="423" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J422" s="18"/>
+    </row>
+    <row r="423" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A423" s="5"/>
       <c r="B423" s="5"/>
       <c r="C423" s="5"/>
       <c r="D423" s="5"/>
       <c r="E423" s="5"/>
-    </row>
-    <row r="424" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J423" s="18"/>
+    </row>
+    <row r="424" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A424" s="5"/>
       <c r="B424" s="5"/>
       <c r="C424" s="5"/>
       <c r="D424" s="5"/>
       <c r="E424" s="5"/>
-    </row>
-    <row r="425" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J424" s="18"/>
+    </row>
+    <row r="425" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A425" s="5"/>
       <c r="B425" s="5"/>
       <c r="C425" s="5"/>
       <c r="D425" s="5"/>
       <c r="E425" s="5"/>
-    </row>
-    <row r="426" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J425" s="18"/>
+    </row>
+    <row r="426" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A426" s="5"/>
       <c r="B426" s="5"/>
       <c r="C426" s="5"/>
       <c r="D426" s="5"/>
       <c r="E426" s="5"/>
-    </row>
-    <row r="427" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J426" s="18"/>
+    </row>
+    <row r="427" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A427" s="5"/>
       <c r="B427" s="5"/>
       <c r="C427" s="5"/>
       <c r="D427" s="5"/>
       <c r="E427" s="5"/>
-    </row>
-    <row r="428" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J427" s="18"/>
+    </row>
+    <row r="428" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A428" s="5"/>
       <c r="B428" s="5"/>
       <c r="C428" s="5"/>
       <c r="D428" s="5"/>
       <c r="E428" s="5"/>
-    </row>
-    <row r="429" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J428" s="18"/>
+    </row>
+    <row r="429" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A429" s="5"/>
       <c r="B429" s="5"/>
       <c r="C429" s="5"/>
       <c r="D429" s="5"/>
       <c r="E429" s="5"/>
-    </row>
-    <row r="430" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J429" s="18"/>
+    </row>
+    <row r="430" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A430" s="5"/>
       <c r="B430" s="5"/>
       <c r="C430" s="5"/>
       <c r="D430" s="5"/>
       <c r="E430" s="5"/>
-    </row>
-    <row r="431" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J430" s="18"/>
+    </row>
+    <row r="431" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A431" s="5"/>
       <c r="B431" s="5"/>
       <c r="C431" s="5"/>
       <c r="D431" s="5"/>
       <c r="E431" s="5"/>
-    </row>
-    <row r="432" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J431" s="18"/>
+    </row>
+    <row r="432" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A432" s="5"/>
       <c r="B432" s="5"/>
       <c r="C432" s="5"/>
       <c r="D432" s="5"/>
       <c r="E432" s="5"/>
-    </row>
-    <row r="433" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J432" s="18"/>
+    </row>
+    <row r="433" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A433" s="5"/>
       <c r="B433" s="5"/>
       <c r="C433" s="5"/>
       <c r="D433" s="5"/>
       <c r="E433" s="5"/>
-    </row>
-    <row r="434" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J433" s="18"/>
+    </row>
+    <row r="434" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A434" s="5"/>
       <c r="B434" s="5"/>
       <c r="C434" s="5"/>
       <c r="D434" s="5"/>
       <c r="E434" s="5"/>
-    </row>
-    <row r="435" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J434" s="18"/>
+    </row>
+    <row r="435" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A435" s="5"/>
       <c r="B435" s="5"/>
       <c r="C435" s="5"/>
       <c r="D435" s="5"/>
       <c r="E435" s="5"/>
-    </row>
-    <row r="436" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J435" s="18"/>
+    </row>
+    <row r="436" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A436" s="5"/>
       <c r="B436" s="5"/>
       <c r="C436" s="5"/>
       <c r="D436" s="5"/>
       <c r="E436" s="5"/>
     </row>
-    <row r="437" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A437" s="5"/>
       <c r="B437" s="5"/>
       <c r="C437" s="5"/>
       <c r="D437" s="5"/>
       <c r="E437" s="5"/>
     </row>
-    <row r="438" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A438" s="5"/>
       <c r="B438" s="5"/>
       <c r="C438" s="5"/>
       <c r="D438" s="5"/>
       <c r="E438" s="5"/>
     </row>
-    <row r="439" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A439" s="5"/>
       <c r="B439" s="5"/>
       <c r="C439" s="5"/>
       <c r="D439" s="5"/>
       <c r="E439" s="5"/>
     </row>
-    <row r="440" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A440" s="5"/>
       <c r="B440" s="5"/>
       <c r="C440" s="5"/>
       <c r="D440" s="5"/>
       <c r="E440" s="5"/>
     </row>
-    <row r="441" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A441" s="5"/>
       <c r="B441" s="5"/>
       <c r="C441" s="5"/>
       <c r="D441" s="5"/>
       <c r="E441" s="5"/>
     </row>
-    <row r="442" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A442" s="5"/>
       <c r="B442" s="5"/>
       <c r="C442" s="5"/>
       <c r="D442" s="5"/>
       <c r="E442" s="5"/>
     </row>
-    <row r="443" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A443" s="5"/>
       <c r="B443" s="5"/>
       <c r="C443" s="5"/>
       <c r="D443" s="5"/>
       <c r="E443" s="5"/>
     </row>
-    <row r="444" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A444" s="5"/>
       <c r="B444" s="5"/>
       <c r="C444" s="5"/>
       <c r="D444" s="5"/>
       <c r="E444" s="5"/>
     </row>
-    <row r="445" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A445" s="5"/>
       <c r="B445" s="5"/>
       <c r="C445" s="5"/>
       <c r="D445" s="5"/>
       <c r="E445" s="5"/>
     </row>
-    <row r="446" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A446" s="5"/>
       <c r="B446" s="5"/>
       <c r="C446" s="5"/>
       <c r="D446" s="5"/>
       <c r="E446" s="5"/>
     </row>
-    <row r="447" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A447" s="5"/>
       <c r="B447" s="5"/>
       <c r="C447" s="5"/>
       <c r="D447" s="5"/>
       <c r="E447" s="5"/>
     </row>
-    <row r="448" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A448" s="5"/>
       <c r="B448" s="5"/>
       <c r="C448" s="5"/>

--- a/Docs/Mag_compability.xlsx
+++ b/Docs/Mag_compability.xlsx
@@ -1305,6 +1305,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1325,15 +1334,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1647,10 +1647,10 @@
   <dimension ref="A1:J1123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" sqref="A1:E2"/>
+      <selection pane="bottomRight" activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1661,37 +1661,38 @@
     <col min="4" max="4" width="55.7109375" customWidth="1"/>
     <col min="5" max="5" width="26.140625" customWidth="1"/>
     <col min="6" max="6" width="24.85546875" customWidth="1"/>
-    <col min="7" max="8" width="10.42578125" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="10" max="10" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="9" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1741,11 +1742,11 @@
       <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
@@ -1763,11 +1764,11 @@
       <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="18"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
@@ -1785,11 +1786,11 @@
       <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="18"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
@@ -1807,11 +1808,11 @@
       <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
@@ -1829,11 +1830,11 @@
       <c r="E8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
@@ -1851,11 +1852,11 @@
       <c r="E9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
@@ -1873,11 +1874,11 @@
       <c r="E10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="18"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
@@ -1895,11 +1896,11 @@
       <c r="E11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="18"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
@@ -1917,11 +1918,11 @@
       <c r="E12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="18"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
@@ -1939,11 +1940,11 @@
       <c r="E13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="18"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -1961,11 +1962,11 @@
       <c r="E14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="18"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
@@ -1983,11 +1984,11 @@
       <c r="E15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="18"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="11"/>
     </row>
     <row r="16" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
@@ -2005,11 +2006,11 @@
       <c r="E16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="18"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
@@ -2027,11 +2028,11 @@
       <c r="E17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="16"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="18"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11"/>
     </row>
     <row r="18" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
@@ -2047,11 +2048,11 @@
         <v>49</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="18"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11"/>
     </row>
     <row r="19" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
@@ -2069,11 +2070,11 @@
       <c r="E19" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="16"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="18"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="11"/>
     </row>
     <row r="20" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
@@ -2091,11 +2092,11 @@
       <c r="E20" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="18"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
@@ -2113,11 +2114,11 @@
       <c r="E21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="18"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
@@ -2135,11 +2136,11 @@
       <c r="E22" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="18"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="11"/>
     </row>
     <row r="23" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
@@ -2157,11 +2158,11 @@
       <c r="E23" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="18"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
@@ -2177,11 +2178,11 @@
         <v>65</v>
       </c>
       <c r="E24" s="5"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="18"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
@@ -2199,11 +2200,11 @@
       <c r="E25" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F25" s="16"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="18"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
@@ -2221,11 +2222,11 @@
       <c r="E26" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F26" s="16"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="18"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="11"/>
     </row>
     <row r="27" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
@@ -2243,11 +2244,11 @@
       <c r="E27" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="18"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="11"/>
     </row>
     <row r="28" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
@@ -2265,11 +2266,11 @@
       <c r="E28" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F28" s="16"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="18"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="11"/>
     </row>
     <row r="29" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
@@ -2287,11 +2288,11 @@
       <c r="E29" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="18"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
@@ -2309,11 +2310,11 @@
       <c r="E30" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="F30" s="16"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="18"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
@@ -2331,11 +2332,11 @@
       <c r="E31" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F31" s="16"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="18"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
@@ -2353,11 +2354,11 @@
       <c r="E32" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F32" s="16"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="18"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="11"/>
     </row>
     <row r="33" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
@@ -2375,11 +2376,11 @@
       <c r="E33" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F33" s="16"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="18"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="11"/>
     </row>
     <row r="34" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
@@ -2397,11 +2398,11 @@
       <c r="E34" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="F34" s="16"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="18"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="11"/>
     </row>
     <row r="35" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
@@ -2419,11 +2420,11 @@
       <c r="E35" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F35" s="16"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="18"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="11"/>
     </row>
     <row r="36" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
@@ -2441,11 +2442,11 @@
       <c r="E36" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F36" s="16"/>
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="18"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="11"/>
     </row>
     <row r="37" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
@@ -2463,11 +2464,11 @@
       <c r="E37" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="18"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="11"/>
     </row>
     <row r="38" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
@@ -2485,11 +2486,11 @@
       <c r="E38" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F38" s="16"/>
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="18"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="11"/>
     </row>
     <row r="39" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
@@ -2507,11 +2508,11 @@
       <c r="E39" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="F39" s="16"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="18"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="11"/>
     </row>
     <row r="40" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
@@ -2529,11 +2530,11 @@
       <c r="E40" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F40" s="16"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="18"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="11"/>
     </row>
     <row r="41" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
@@ -2551,11 +2552,11 @@
       <c r="E41" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="F41" s="16"/>
-      <c r="G41" s="17"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="18"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="11"/>
     </row>
     <row r="42" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
@@ -2573,11 +2574,11 @@
       <c r="E42" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F42" s="16"/>
-      <c r="G42" s="17"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="18"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="11"/>
     </row>
     <row r="43" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
@@ -2595,11 +2596,11 @@
       <c r="E43" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="F43" s="16"/>
-      <c r="G43" s="17"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="18"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="11"/>
     </row>
     <row r="44" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
@@ -2617,11 +2618,11 @@
       <c r="E44" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F44" s="16"/>
-      <c r="G44" s="17"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="18"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="11"/>
     </row>
     <row r="45" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
@@ -2635,11 +2636,11 @@
       </c>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="17"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="18"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="11"/>
     </row>
     <row r="46" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
@@ -2657,11 +2658,11 @@
       <c r="E46" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="F46" s="16"/>
-      <c r="G46" s="17"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="18"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="11"/>
     </row>
     <row r="47" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
@@ -2679,11 +2680,11 @@
       <c r="E47" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F47" s="16"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="18"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="11"/>
     </row>
     <row r="48" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
@@ -2701,11 +2702,11 @@
       <c r="E48" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F48" s="16"/>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="18"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="11"/>
     </row>
     <row r="49" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
@@ -2721,11 +2722,11 @@
         <v>134</v>
       </c>
       <c r="E49" s="5"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="18"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="11"/>
     </row>
     <row r="50" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
@@ -2743,11 +2744,11 @@
       <c r="E50" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F50" s="16"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="18"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="11"/>
     </row>
     <row r="51" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
@@ -2765,11 +2766,11 @@
       <c r="E51" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F51" s="16"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="18"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="11"/>
     </row>
     <row r="52" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
@@ -2787,11 +2788,11 @@
       <c r="E52" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F52" s="16"/>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="18"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="11"/>
     </row>
     <row r="53" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
@@ -2809,11 +2810,11 @@
       <c r="E53" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="F53" s="16"/>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="18"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="11"/>
     </row>
     <row r="54" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
@@ -2831,11 +2832,11 @@
       <c r="E54" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F54" s="16"/>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="18"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="11"/>
     </row>
     <row r="55" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
@@ -2853,11 +2854,11 @@
       <c r="E55" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F55" s="16"/>
-      <c r="G55" s="17"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="18"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="11"/>
     </row>
     <row r="56" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
@@ -2875,11 +2876,11 @@
       <c r="E56" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F56" s="16"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="18"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="11"/>
     </row>
     <row r="57" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
@@ -2893,11 +2894,11 @@
       </c>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="17"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="18"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="11"/>
     </row>
     <row r="58" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
@@ -2911,11 +2912,11 @@
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="18"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="11"/>
     </row>
     <row r="59" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
@@ -2933,11 +2934,11 @@
       <c r="E59" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="F59" s="16"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="18"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="11"/>
     </row>
     <row r="60" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
@@ -2955,11 +2956,11 @@
       <c r="E60" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="F60" s="16"/>
-      <c r="G60" s="17"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="18"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="11"/>
     </row>
     <row r="61" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
@@ -2977,11 +2978,11 @@
       <c r="E61" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="F61" s="16"/>
-      <c r="G61" s="17"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="18"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="11"/>
     </row>
     <row r="62" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
@@ -2999,11 +3000,11 @@
       <c r="E62" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="F62" s="16"/>
-      <c r="G62" s="17"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="18"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="11"/>
     </row>
     <row r="63" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
@@ -3017,11 +3018,11 @@
       </c>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="17"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="18"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="11"/>
     </row>
     <row r="64" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
@@ -3039,11 +3040,11 @@
       <c r="E64" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F64" s="16"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="18"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="11"/>
     </row>
     <row r="65" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
@@ -3057,11 +3058,11 @@
       </c>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="18"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="11"/>
     </row>
     <row r="66" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
@@ -3079,11 +3080,11 @@
       <c r="E66" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F66" s="16"/>
-      <c r="G66" s="17"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="18"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="11"/>
     </row>
     <row r="67" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
@@ -3097,11 +3098,11 @@
       </c>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="17"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="18"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="11"/>
     </row>
     <row r="68" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
@@ -3119,11 +3120,11 @@
       <c r="E68" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="F68" s="16"/>
-      <c r="G68" s="17"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="18"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="11"/>
     </row>
     <row r="69" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
@@ -3137,11 +3138,11 @@
       </c>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="17"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="17"/>
-      <c r="J69" s="18"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="11"/>
     </row>
     <row r="70" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
@@ -3155,11 +3156,11 @@
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="17"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="17"/>
-      <c r="J70" s="18"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="11"/>
     </row>
     <row r="71" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
@@ -3177,11 +3178,11 @@
       <c r="E71" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F71" s="16"/>
-      <c r="G71" s="17"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
-      <c r="J71" s="18"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="11"/>
     </row>
     <row r="72" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
@@ -3199,11 +3200,11 @@
       <c r="E72" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F72" s="16"/>
-      <c r="G72" s="17"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="18"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="11"/>
     </row>
     <row r="73" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
@@ -3221,11 +3222,11 @@
       <c r="E73" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="F73" s="16"/>
-      <c r="G73" s="17"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="18"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="11"/>
     </row>
     <row r="74" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
@@ -3243,11 +3244,11 @@
       <c r="E74" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="F74" s="16"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="18"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="11"/>
     </row>
     <row r="75" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
@@ -3265,11 +3266,11 @@
       <c r="E75" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="F75" s="16"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="18"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="11"/>
     </row>
     <row r="76" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
@@ -3287,11 +3288,11 @@
       <c r="E76" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="F76" s="16"/>
-      <c r="G76" s="17"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="18"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="11"/>
     </row>
     <row r="77" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
@@ -3309,11 +3310,11 @@
       <c r="E77" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="F77" s="16"/>
-      <c r="G77" s="17"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="17"/>
-      <c r="J77" s="18"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="11"/>
     </row>
     <row r="78" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
@@ -3331,11 +3332,11 @@
       <c r="E78" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="F78" s="16"/>
-      <c r="G78" s="17"/>
-      <c r="H78" s="17"/>
-      <c r="I78" s="17"/>
-      <c r="J78" s="18"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="11"/>
     </row>
     <row r="79" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
@@ -3353,11 +3354,11 @@
       <c r="E79" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="F79" s="16"/>
-      <c r="G79" s="17"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="17"/>
-      <c r="J79" s="18"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="11"/>
     </row>
     <row r="80" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
@@ -3375,11 +3376,11 @@
       <c r="E80" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="F80" s="16"/>
-      <c r="G80" s="17"/>
-      <c r="H80" s="17"/>
-      <c r="I80" s="17"/>
-      <c r="J80" s="18"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="11"/>
     </row>
     <row r="81" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
@@ -3397,11 +3398,11 @@
       <c r="E81" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="F81" s="16"/>
-      <c r="G81" s="17"/>
-      <c r="H81" s="17"/>
-      <c r="I81" s="17"/>
-      <c r="J81" s="18"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="11"/>
     </row>
     <row r="82" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
@@ -3419,11 +3420,11 @@
       <c r="E82" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="F82" s="16"/>
-      <c r="G82" s="17"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="17"/>
-      <c r="J82" s="18"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="11"/>
     </row>
     <row r="83" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
@@ -3441,11 +3442,11 @@
       <c r="E83" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="F83" s="16"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="17"/>
-      <c r="J83" s="18"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="11"/>
     </row>
     <row r="84" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
@@ -3463,11 +3464,11 @@
       <c r="E84" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="F84" s="16"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
-      <c r="J84" s="18"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="11"/>
     </row>
     <row r="85" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
@@ -3485,11 +3486,11 @@
       <c r="E85" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="F85" s="16"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="17"/>
-      <c r="J85" s="18"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="11"/>
     </row>
     <row r="86" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
@@ -3507,11 +3508,11 @@
       <c r="E86" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="F86" s="16"/>
-      <c r="G86" s="17"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="17"/>
-      <c r="J86" s="18"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="11"/>
     </row>
     <row r="87" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
@@ -3529,11 +3530,11 @@
       <c r="E87" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F87" s="16"/>
-      <c r="G87" s="17"/>
-      <c r="H87" s="17"/>
-      <c r="I87" s="17"/>
-      <c r="J87" s="18"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="11"/>
     </row>
     <row r="88" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
@@ -3551,11 +3552,11 @@
       <c r="E88" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="F88" s="16"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="17"/>
-      <c r="J88" s="18"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="11"/>
     </row>
     <row r="89" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
@@ -3573,11 +3574,11 @@
       <c r="E89" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="F89" s="16"/>
-      <c r="G89" s="17"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="18"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="11"/>
     </row>
     <row r="90" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
@@ -3595,11 +3596,11 @@
       <c r="E90" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="F90" s="16"/>
-      <c r="G90" s="17"/>
-      <c r="H90" s="17"/>
-      <c r="I90" s="17"/>
-      <c r="J90" s="18"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="11"/>
     </row>
     <row r="91" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
@@ -3617,11 +3618,11 @@
       <c r="E91" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="F91" s="16"/>
-      <c r="G91" s="17"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="17"/>
-      <c r="J91" s="18"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="11"/>
     </row>
     <row r="92" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
@@ -3639,11 +3640,11 @@
       <c r="E92" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="F92" s="16"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="17"/>
-      <c r="J92" s="18"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="11"/>
     </row>
     <row r="93" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
@@ -3661,11 +3662,11 @@
       <c r="E93" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="F93" s="16"/>
-      <c r="G93" s="17"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
-      <c r="J93" s="18"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="11"/>
     </row>
     <row r="94" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
@@ -3683,11 +3684,11 @@
       <c r="E94" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="F94" s="16"/>
-      <c r="G94" s="17"/>
-      <c r="H94" s="17"/>
-      <c r="I94" s="17"/>
-      <c r="J94" s="18"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="11"/>
     </row>
     <row r="95" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
@@ -3705,11 +3706,11 @@
       <c r="E95" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="F95" s="16"/>
-      <c r="G95" s="17"/>
-      <c r="H95" s="17"/>
-      <c r="I95" s="17"/>
-      <c r="J95" s="18"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="11"/>
     </row>
     <row r="96" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
@@ -3727,15 +3728,15 @@
       <c r="E96" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="F96" s="16" t="s">
+      <c r="F96" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="G96" s="17" t="s">
+      <c r="G96" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="H96" s="17"/>
-      <c r="I96" s="17"/>
-      <c r="J96" s="18"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="11"/>
     </row>
     <row r="97" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
@@ -3753,11 +3754,11 @@
       <c r="E97" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="F97" s="16"/>
-      <c r="G97" s="17"/>
-      <c r="H97" s="17"/>
-      <c r="I97" s="17"/>
-      <c r="J97" s="18"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="11"/>
     </row>
     <row r="98" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
@@ -3775,13 +3776,13 @@
       <c r="E98" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="F98" s="16" t="s">
+      <c r="F98" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="G98" s="17"/>
-      <c r="H98" s="17"/>
-      <c r="I98" s="17"/>
-      <c r="J98" s="18"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="11"/>
     </row>
     <row r="99" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
@@ -3799,11 +3800,11 @@
       <c r="E99" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="F99" s="16"/>
-      <c r="G99" s="17"/>
-      <c r="H99" s="17"/>
-      <c r="I99" s="17"/>
-      <c r="J99" s="18"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="11"/>
     </row>
     <row r="100" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
@@ -3821,13 +3822,13 @@
       <c r="E100" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F100" s="16" t="s">
+      <c r="F100" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="G100" s="17"/>
-      <c r="H100" s="17"/>
-      <c r="I100" s="17"/>
-      <c r="J100" s="18"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="11"/>
     </row>
     <row r="101" spans="1:10" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
@@ -3845,11 +3846,11 @@
       <c r="E101" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="F101" s="16"/>
-      <c r="G101" s="17"/>
-      <c r="H101" s="17"/>
-      <c r="I101" s="17"/>
-      <c r="J101" s="18"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="10"/>
+      <c r="J101" s="11"/>
     </row>
     <row r="102" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
@@ -3867,11 +3868,11 @@
       <c r="E102" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="F102" s="16"/>
-      <c r="G102" s="17"/>
-      <c r="H102" s="17"/>
-      <c r="I102" s="17"/>
-      <c r="J102" s="18"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="11"/>
     </row>
     <row r="103" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
@@ -3889,13 +3890,13 @@
       <c r="E103" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="F103" s="16" t="s">
+      <c r="F103" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="G103" s="17"/>
-      <c r="H103" s="17"/>
-      <c r="I103" s="17"/>
-      <c r="J103" s="18"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="10"/>
+      <c r="J103" s="11"/>
     </row>
     <row r="104" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
@@ -3913,11 +3914,11 @@
       <c r="E104" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="F104" s="16"/>
-      <c r="G104" s="17"/>
-      <c r="H104" s="17"/>
-      <c r="I104" s="17"/>
-      <c r="J104" s="18"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="10"/>
+      <c r="I104" s="10"/>
+      <c r="J104" s="11"/>
     </row>
     <row r="105" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
@@ -3935,11 +3936,11 @@
       <c r="E105" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="F105" s="16"/>
-      <c r="G105" s="17"/>
-      <c r="H105" s="17"/>
-      <c r="I105" s="17"/>
-      <c r="J105" s="18"/>
+      <c r="F105" s="9"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10"/>
+      <c r="J105" s="11"/>
     </row>
     <row r="106" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
@@ -3957,11 +3958,11 @@
       <c r="E106" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="F106" s="16"/>
-      <c r="G106" s="17"/>
-      <c r="H106" s="17"/>
-      <c r="I106" s="17"/>
-      <c r="J106" s="18"/>
+      <c r="F106" s="9"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
+      <c r="I106" s="10"/>
+      <c r="J106" s="11"/>
     </row>
     <row r="107" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
@@ -3979,11 +3980,11 @@
       <c r="E107" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="F107" s="16"/>
-      <c r="G107" s="17"/>
-      <c r="H107" s="17"/>
-      <c r="I107" s="17"/>
-      <c r="J107" s="18"/>
+      <c r="F107" s="9"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10"/>
+      <c r="I107" s="10"/>
+      <c r="J107" s="11"/>
     </row>
     <row r="108" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
@@ -4001,11 +4002,11 @@
       <c r="E108" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="F108" s="16"/>
-      <c r="G108" s="17"/>
-      <c r="H108" s="17"/>
-      <c r="I108" s="17"/>
-      <c r="J108" s="18"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="10"/>
+      <c r="I108" s="10"/>
+      <c r="J108" s="11"/>
     </row>
     <row r="109" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
@@ -4023,11 +4024,11 @@
       <c r="E109" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="F109" s="16"/>
-      <c r="G109" s="17"/>
-      <c r="H109" s="17"/>
-      <c r="I109" s="17"/>
-      <c r="J109" s="18"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="10"/>
+      <c r="I109" s="10"/>
+      <c r="J109" s="11"/>
     </row>
     <row r="110" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
@@ -4045,11 +4046,11 @@
       <c r="E110" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="F110" s="16"/>
-      <c r="G110" s="17"/>
-      <c r="H110" s="17"/>
-      <c r="I110" s="17"/>
-      <c r="J110" s="18"/>
+      <c r="F110" s="9"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
+      <c r="I110" s="10"/>
+      <c r="J110" s="11"/>
     </row>
     <row r="111" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
@@ -4067,11 +4068,11 @@
       <c r="E111" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="F111" s="16"/>
-      <c r="G111" s="17"/>
-      <c r="H111" s="17"/>
-      <c r="I111" s="17"/>
-      <c r="J111" s="18"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="10"/>
+      <c r="I111" s="10"/>
+      <c r="J111" s="11"/>
     </row>
     <row r="112" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
@@ -4089,11 +4090,11 @@
       <c r="E112" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="F112" s="16"/>
-      <c r="G112" s="17"/>
-      <c r="H112" s="17"/>
-      <c r="I112" s="17"/>
-      <c r="J112" s="18"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="11"/>
     </row>
     <row r="113" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
@@ -4111,11 +4112,11 @@
       <c r="E113" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="F113" s="16"/>
-      <c r="G113" s="17"/>
-      <c r="H113" s="17"/>
-      <c r="I113" s="17"/>
-      <c r="J113" s="18"/>
+      <c r="F113" s="9"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
+      <c r="I113" s="10"/>
+      <c r="J113" s="11"/>
     </row>
     <row r="114" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
@@ -4133,11 +4134,11 @@
       <c r="E114" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="F114" s="16"/>
-      <c r="G114" s="17"/>
-      <c r="H114" s="17"/>
-      <c r="I114" s="17"/>
-      <c r="J114" s="18"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="10"/>
+      <c r="I114" s="10"/>
+      <c r="J114" s="11"/>
     </row>
     <row r="115" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
@@ -4155,11 +4156,11 @@
       <c r="E115" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="F115" s="16"/>
-      <c r="G115" s="17"/>
-      <c r="H115" s="17"/>
-      <c r="I115" s="17"/>
-      <c r="J115" s="18"/>
+      <c r="F115" s="9"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="10"/>
+      <c r="I115" s="10"/>
+      <c r="J115" s="11"/>
     </row>
     <row r="116" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
@@ -4177,11 +4178,11 @@
       <c r="E116" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="F116" s="16"/>
-      <c r="G116" s="17"/>
-      <c r="H116" s="17"/>
-      <c r="I116" s="17"/>
-      <c r="J116" s="18"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="10"/>
+      <c r="I116" s="10"/>
+      <c r="J116" s="11"/>
     </row>
     <row r="117" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
@@ -4199,11 +4200,11 @@
       <c r="E117" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="F117" s="16"/>
-      <c r="G117" s="17"/>
-      <c r="H117" s="17"/>
-      <c r="I117" s="17"/>
-      <c r="J117" s="18"/>
+      <c r="F117" s="9"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="10"/>
+      <c r="I117" s="10"/>
+      <c r="J117" s="11"/>
     </row>
     <row r="118" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
@@ -4217,11 +4218,11 @@
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
-      <c r="F118" s="16"/>
-      <c r="G118" s="17"/>
-      <c r="H118" s="17"/>
-      <c r="I118" s="17"/>
-      <c r="J118" s="18"/>
+      <c r="F118" s="9"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="10"/>
+      <c r="I118" s="10"/>
+      <c r="J118" s="11"/>
     </row>
     <row r="119" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
@@ -4235,11 +4236,11 @@
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
-      <c r="F119" s="16"/>
-      <c r="G119" s="17"/>
-      <c r="H119" s="17"/>
-      <c r="I119" s="17"/>
-      <c r="J119" s="18"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="10"/>
+      <c r="I119" s="10"/>
+      <c r="J119" s="11"/>
     </row>
     <row r="120" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
@@ -4253,11 +4254,11 @@
       </c>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
-      <c r="F120" s="16"/>
-      <c r="G120" s="17"/>
-      <c r="H120" s="17"/>
-      <c r="I120" s="17"/>
-      <c r="J120" s="18"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="10"/>
+      <c r="I120" s="10"/>
+      <c r="J120" s="11"/>
     </row>
     <row r="121" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
@@ -4271,11 +4272,11 @@
       </c>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
-      <c r="F121" s="16"/>
-      <c r="G121" s="17"/>
-      <c r="H121" s="17"/>
-      <c r="I121" s="17"/>
-      <c r="J121" s="18"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
+      <c r="I121" s="10"/>
+      <c r="J121" s="11"/>
     </row>
     <row r="122" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
@@ -4293,11 +4294,11 @@
       <c r="E122" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="F122" s="16"/>
-      <c r="G122" s="17"/>
-      <c r="H122" s="17"/>
-      <c r="I122" s="17"/>
-      <c r="J122" s="18"/>
+      <c r="F122" s="9"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="10"/>
+      <c r="I122" s="10"/>
+      <c r="J122" s="11"/>
     </row>
     <row r="123" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
@@ -4315,11 +4316,11 @@
       <c r="E123" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="F123" s="16"/>
-      <c r="G123" s="17"/>
-      <c r="H123" s="17"/>
-      <c r="I123" s="17"/>
-      <c r="J123" s="18"/>
+      <c r="F123" s="9"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="10"/>
+      <c r="I123" s="10"/>
+      <c r="J123" s="11"/>
     </row>
     <row r="124" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="5"/>
@@ -4327,13 +4328,13 @@
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
-      <c r="F124" s="16" t="s">
+      <c r="F124" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="G124" s="17"/>
-      <c r="H124" s="17"/>
-      <c r="I124" s="17"/>
-      <c r="J124" s="18"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="10"/>
+      <c r="I124" s="10"/>
+      <c r="J124" s="11"/>
     </row>
     <row r="125" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
@@ -4341,13 +4342,13 @@
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
-      <c r="F125" s="16" t="s">
+      <c r="F125" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="G125" s="17"/>
-      <c r="H125" s="17"/>
-      <c r="I125" s="17"/>
-      <c r="J125" s="18"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="10"/>
+      <c r="I125" s="10"/>
+      <c r="J125" s="11"/>
     </row>
     <row r="126" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="5"/>
@@ -4355,13 +4356,13 @@
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
-      <c r="F126" s="16" t="s">
+      <c r="F126" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="G126" s="17"/>
-      <c r="H126" s="17"/>
-      <c r="I126" s="17"/>
-      <c r="J126" s="18"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="10"/>
+      <c r="I126" s="10"/>
+      <c r="J126" s="11"/>
     </row>
     <row r="127" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5"/>
@@ -4369,13 +4370,13 @@
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
-      <c r="F127" s="16" t="s">
+      <c r="F127" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="G127" s="17"/>
-      <c r="H127" s="17"/>
-      <c r="I127" s="17"/>
-      <c r="J127" s="18"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="10"/>
+      <c r="I127" s="10"/>
+      <c r="J127" s="11"/>
     </row>
     <row r="128" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="5"/>
@@ -4383,13 +4384,13 @@
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
-      <c r="F128" s="16" t="s">
+      <c r="F128" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="G128" s="17"/>
-      <c r="H128" s="17"/>
-      <c r="I128" s="17"/>
-      <c r="J128" s="18"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="10"/>
+      <c r="I128" s="10"/>
+      <c r="J128" s="11"/>
     </row>
     <row r="129" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
@@ -4397,13 +4398,13 @@
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
-      <c r="F129" s="16" t="s">
+      <c r="F129" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="G129" s="17"/>
-      <c r="H129" s="17"/>
-      <c r="I129" s="17"/>
-      <c r="J129" s="18"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="10"/>
+      <c r="I129" s="10"/>
+      <c r="J129" s="11"/>
     </row>
     <row r="130" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5"/>
@@ -4411,13 +4412,13 @@
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
-      <c r="F130" s="16" t="s">
+      <c r="F130" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="G130" s="17"/>
-      <c r="H130" s="17"/>
-      <c r="I130" s="17"/>
-      <c r="J130" s="18"/>
+      <c r="G130" s="10"/>
+      <c r="H130" s="10"/>
+      <c r="I130" s="10"/>
+      <c r="J130" s="11"/>
     </row>
     <row r="131" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="5"/>
@@ -4425,13 +4426,13 @@
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
-      <c r="F131" s="16" t="s">
+      <c r="F131" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="G131" s="17"/>
-      <c r="H131" s="17"/>
-      <c r="I131" s="17"/>
-      <c r="J131" s="18"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="10"/>
+      <c r="I131" s="10"/>
+      <c r="J131" s="11"/>
     </row>
     <row r="132" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="5"/>
@@ -4439,13 +4440,13 @@
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
-      <c r="F132" s="16" t="s">
+      <c r="F132" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="G132" s="17"/>
-      <c r="H132" s="17"/>
-      <c r="I132" s="17"/>
-      <c r="J132" s="18"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="10"/>
+      <c r="I132" s="10"/>
+      <c r="J132" s="11"/>
     </row>
     <row r="133" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="5"/>
@@ -4453,13 +4454,13 @@
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
-      <c r="F133" s="16" t="s">
+      <c r="F133" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="G133" s="17"/>
-      <c r="H133" s="17"/>
-      <c r="I133" s="17"/>
-      <c r="J133" s="18"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="10"/>
+      <c r="I133" s="10"/>
+      <c r="J133" s="11"/>
     </row>
     <row r="134" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="5"/>
@@ -4467,13 +4468,13 @@
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
-      <c r="F134" s="16" t="s">
+      <c r="F134" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="G134" s="17"/>
-      <c r="H134" s="17"/>
-      <c r="I134" s="17"/>
-      <c r="J134" s="18"/>
+      <c r="G134" s="10"/>
+      <c r="H134" s="10"/>
+      <c r="I134" s="10"/>
+      <c r="J134" s="11"/>
     </row>
     <row r="135" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
@@ -4481,13 +4482,13 @@
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
-      <c r="F135" s="16" t="s">
+      <c r="F135" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="G135" s="17"/>
-      <c r="H135" s="17"/>
-      <c r="I135" s="17"/>
-      <c r="J135" s="18"/>
+      <c r="G135" s="10"/>
+      <c r="H135" s="10"/>
+      <c r="I135" s="10"/>
+      <c r="J135" s="11"/>
     </row>
     <row r="136" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="5"/>
@@ -4495,13 +4496,13 @@
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
-      <c r="F136" s="16" t="s">
+      <c r="F136" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="G136" s="17"/>
-      <c r="H136" s="17"/>
-      <c r="I136" s="17"/>
-      <c r="J136" s="18"/>
+      <c r="G136" s="10"/>
+      <c r="H136" s="10"/>
+      <c r="I136" s="10"/>
+      <c r="J136" s="11"/>
     </row>
     <row r="137" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="5"/>
@@ -4509,13 +4510,13 @@
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
-      <c r="F137" s="16" t="s">
+      <c r="F137" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="G137" s="17"/>
-      <c r="H137" s="17"/>
-      <c r="I137" s="17"/>
-      <c r="J137" s="18"/>
+      <c r="G137" s="10"/>
+      <c r="H137" s="10"/>
+      <c r="I137" s="10"/>
+      <c r="J137" s="11"/>
     </row>
     <row r="138" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="5"/>
@@ -4523,13 +4524,13 @@
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
-      <c r="F138" s="16" t="s">
+      <c r="F138" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="G138" s="17"/>
-      <c r="H138" s="17"/>
-      <c r="I138" s="17"/>
-      <c r="J138" s="18"/>
+      <c r="G138" s="10"/>
+      <c r="H138" s="10"/>
+      <c r="I138" s="10"/>
+      <c r="J138" s="11"/>
     </row>
     <row r="139" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="5"/>
@@ -4537,13 +4538,13 @@
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
-      <c r="F139" s="16" t="s">
+      <c r="F139" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="G139" s="17"/>
-      <c r="H139" s="17"/>
-      <c r="I139" s="17"/>
-      <c r="J139" s="18"/>
+      <c r="G139" s="10"/>
+      <c r="H139" s="10"/>
+      <c r="I139" s="10"/>
+      <c r="J139" s="11"/>
     </row>
     <row r="140" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="5"/>
@@ -4551,13 +4552,13 @@
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
-      <c r="F140" s="16" t="s">
+      <c r="F140" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="G140" s="17"/>
-      <c r="H140" s="17"/>
-      <c r="I140" s="17"/>
-      <c r="J140" s="18"/>
+      <c r="G140" s="10"/>
+      <c r="H140" s="10"/>
+      <c r="I140" s="10"/>
+      <c r="J140" s="11"/>
     </row>
     <row r="141" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="5"/>
@@ -4565,13 +4566,13 @@
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
-      <c r="F141" s="16" t="s">
+      <c r="F141" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="G141" s="17"/>
-      <c r="H141" s="17"/>
-      <c r="I141" s="17"/>
-      <c r="J141" s="18"/>
+      <c r="G141" s="10"/>
+      <c r="H141" s="10"/>
+      <c r="I141" s="10"/>
+      <c r="J141" s="11"/>
     </row>
     <row r="142" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>
@@ -4579,13 +4580,13 @@
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
-      <c r="F142" s="16" t="s">
+      <c r="F142" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="G142" s="17"/>
-      <c r="H142" s="17"/>
-      <c r="I142" s="17"/>
-      <c r="J142" s="18"/>
+      <c r="G142" s="10"/>
+      <c r="H142" s="10"/>
+      <c r="I142" s="10"/>
+      <c r="J142" s="11"/>
     </row>
     <row r="143" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
@@ -4593,13 +4594,13 @@
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
-      <c r="F143" s="16" t="s">
+      <c r="F143" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="G143" s="17"/>
-      <c r="H143" s="17"/>
-      <c r="I143" s="17"/>
-      <c r="J143" s="18"/>
+      <c r="G143" s="10"/>
+      <c r="H143" s="10"/>
+      <c r="I143" s="10"/>
+      <c r="J143" s="11"/>
     </row>
     <row r="144" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="5"/>
@@ -4607,13 +4608,13 @@
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
-      <c r="F144" s="16" t="s">
+      <c r="F144" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="G144" s="17"/>
-      <c r="H144" s="17"/>
-      <c r="I144" s="17"/>
-      <c r="J144" s="18"/>
+      <c r="G144" s="10"/>
+      <c r="H144" s="10"/>
+      <c r="I144" s="10"/>
+      <c r="J144" s="11"/>
     </row>
     <row r="145" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="5"/>
@@ -4621,13 +4622,13 @@
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
-      <c r="F145" s="16" t="s">
+      <c r="F145" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="G145" s="17"/>
-      <c r="H145" s="17"/>
-      <c r="I145" s="17"/>
-      <c r="J145" s="18"/>
+      <c r="G145" s="10"/>
+      <c r="H145" s="10"/>
+      <c r="I145" s="10"/>
+      <c r="J145" s="11"/>
     </row>
     <row r="146" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="5"/>
@@ -4635,13 +4636,13 @@
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
-      <c r="F146" s="16" t="s">
+      <c r="F146" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="G146" s="17"/>
-      <c r="H146" s="17"/>
-      <c r="I146" s="17"/>
-      <c r="J146" s="18"/>
+      <c r="G146" s="10"/>
+      <c r="H146" s="10"/>
+      <c r="I146" s="10"/>
+      <c r="J146" s="11"/>
     </row>
     <row r="147" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="5"/>
@@ -4649,13 +4650,13 @@
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
-      <c r="F147" s="16" t="s">
+      <c r="F147" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="G147" s="17"/>
-      <c r="H147" s="17"/>
-      <c r="I147" s="17"/>
-      <c r="J147" s="18"/>
+      <c r="G147" s="10"/>
+      <c r="H147" s="10"/>
+      <c r="I147" s="10"/>
+      <c r="J147" s="11"/>
     </row>
     <row r="148" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="5"/>
@@ -4663,13 +4664,13 @@
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
-      <c r="F148" s="16" t="s">
+      <c r="F148" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="G148" s="17"/>
-      <c r="H148" s="17"/>
-      <c r="I148" s="17"/>
-      <c r="J148" s="18"/>
+      <c r="G148" s="10"/>
+      <c r="H148" s="10"/>
+      <c r="I148" s="10"/>
+      <c r="J148" s="11"/>
     </row>
     <row r="149" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="5"/>
@@ -4677,13 +4678,13 @@
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
-      <c r="F149" s="16" t="s">
+      <c r="F149" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="G149" s="17"/>
-      <c r="H149" s="17"/>
-      <c r="I149" s="17"/>
-      <c r="J149" s="18"/>
+      <c r="G149" s="10"/>
+      <c r="H149" s="10"/>
+      <c r="I149" s="10"/>
+      <c r="J149" s="11"/>
     </row>
     <row r="150" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="5"/>
@@ -4691,13 +4692,13 @@
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
-      <c r="F150" s="16" t="s">
+      <c r="F150" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="G150" s="17"/>
-      <c r="H150" s="17"/>
-      <c r="I150" s="17"/>
-      <c r="J150" s="18"/>
+      <c r="G150" s="10"/>
+      <c r="H150" s="10"/>
+      <c r="I150" s="10"/>
+      <c r="J150" s="11"/>
     </row>
     <row r="151" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="5"/>
@@ -4705,13 +4706,13 @@
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
-      <c r="F151" s="16" t="s">
+      <c r="F151" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="G151" s="17"/>
-      <c r="H151" s="17"/>
-      <c r="I151" s="17"/>
-      <c r="J151" s="18"/>
+      <c r="G151" s="10"/>
+      <c r="H151" s="10"/>
+      <c r="I151" s="10"/>
+      <c r="J151" s="11"/>
     </row>
     <row r="152" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="5"/>
@@ -4719,13 +4720,13 @@
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
-      <c r="F152" s="16" t="s">
+      <c r="F152" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="G152" s="17"/>
-      <c r="H152" s="17"/>
-      <c r="I152" s="17"/>
-      <c r="J152" s="18"/>
+      <c r="G152" s="10"/>
+      <c r="H152" s="10"/>
+      <c r="I152" s="10"/>
+      <c r="J152" s="11"/>
     </row>
     <row r="153" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="5"/>
@@ -4733,13 +4734,13 @@
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
-      <c r="F153" s="16" t="s">
+      <c r="F153" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="G153" s="17"/>
-      <c r="H153" s="17"/>
-      <c r="I153" s="17"/>
-      <c r="J153" s="18"/>
+      <c r="G153" s="10"/>
+      <c r="H153" s="10"/>
+      <c r="I153" s="10"/>
+      <c r="J153" s="11"/>
     </row>
     <row r="154" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="5"/>
@@ -4747,13 +4748,13 @@
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
-      <c r="F154" s="16" t="s">
+      <c r="F154" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="G154" s="17"/>
-      <c r="H154" s="17"/>
-      <c r="I154" s="17"/>
-      <c r="J154" s="18"/>
+      <c r="G154" s="10"/>
+      <c r="H154" s="10"/>
+      <c r="I154" s="10"/>
+      <c r="J154" s="11"/>
     </row>
     <row r="155" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="5"/>
@@ -4761,13 +4762,13 @@
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
-      <c r="F155" s="16" t="s">
+      <c r="F155" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="G155" s="17"/>
-      <c r="H155" s="17"/>
-      <c r="I155" s="17"/>
-      <c r="J155" s="18"/>
+      <c r="G155" s="10"/>
+      <c r="H155" s="10"/>
+      <c r="I155" s="10"/>
+      <c r="J155" s="11"/>
     </row>
     <row r="156" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="5"/>
@@ -4775,11 +4776,11 @@
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
-      <c r="F156" s="16"/>
-      <c r="G156" s="17"/>
-      <c r="H156" s="17"/>
-      <c r="I156" s="17"/>
-      <c r="J156" s="18"/>
+      <c r="F156" s="9"/>
+      <c r="G156" s="10"/>
+      <c r="H156" s="10"/>
+      <c r="I156" s="10"/>
+      <c r="J156" s="11"/>
     </row>
     <row r="157" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="5"/>
@@ -4787,11 +4788,11 @@
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
-      <c r="F157" s="16"/>
-      <c r="G157" s="17"/>
-      <c r="H157" s="17"/>
-      <c r="I157" s="17"/>
-      <c r="J157" s="18"/>
+      <c r="F157" s="9"/>
+      <c r="G157" s="10"/>
+      <c r="H157" s="10"/>
+      <c r="I157" s="10"/>
+      <c r="J157" s="11"/>
     </row>
     <row r="158" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="5"/>
@@ -4799,11 +4800,11 @@
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
-      <c r="F158" s="16"/>
-      <c r="G158" s="17"/>
-      <c r="H158" s="17"/>
-      <c r="I158" s="17"/>
-      <c r="J158" s="18"/>
+      <c r="F158" s="9"/>
+      <c r="G158" s="10"/>
+      <c r="H158" s="10"/>
+      <c r="I158" s="10"/>
+      <c r="J158" s="11"/>
     </row>
     <row r="159" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="5"/>
@@ -4811,11 +4812,11 @@
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
-      <c r="F159" s="16"/>
-      <c r="G159" s="17"/>
-      <c r="H159" s="17"/>
-      <c r="I159" s="17"/>
-      <c r="J159" s="18"/>
+      <c r="F159" s="9"/>
+      <c r="G159" s="10"/>
+      <c r="H159" s="10"/>
+      <c r="I159" s="10"/>
+      <c r="J159" s="11"/>
     </row>
     <row r="160" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="5"/>
@@ -4823,11 +4824,11 @@
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
-      <c r="F160" s="16"/>
-      <c r="G160" s="17"/>
-      <c r="H160" s="17"/>
-      <c r="I160" s="17"/>
-      <c r="J160" s="18"/>
+      <c r="F160" s="9"/>
+      <c r="G160" s="10"/>
+      <c r="H160" s="10"/>
+      <c r="I160" s="10"/>
+      <c r="J160" s="11"/>
     </row>
     <row r="161" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="5"/>
@@ -4835,11 +4836,11 @@
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
-      <c r="F161" s="16"/>
-      <c r="G161" s="17"/>
-      <c r="H161" s="17"/>
-      <c r="I161" s="17"/>
-      <c r="J161" s="18"/>
+      <c r="F161" s="9"/>
+      <c r="G161" s="10"/>
+      <c r="H161" s="10"/>
+      <c r="I161" s="10"/>
+      <c r="J161" s="11"/>
     </row>
     <row r="162" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="5"/>
@@ -4847,11 +4848,11 @@
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
-      <c r="F162" s="16"/>
-      <c r="G162" s="17"/>
-      <c r="H162" s="17"/>
-      <c r="I162" s="17"/>
-      <c r="J162" s="18"/>
+      <c r="F162" s="9"/>
+      <c r="G162" s="10"/>
+      <c r="H162" s="10"/>
+      <c r="I162" s="10"/>
+      <c r="J162" s="11"/>
     </row>
     <row r="163" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="5"/>
@@ -4859,11 +4860,11 @@
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
-      <c r="F163" s="16"/>
-      <c r="G163" s="17"/>
-      <c r="H163" s="17"/>
-      <c r="I163" s="17"/>
-      <c r="J163" s="18"/>
+      <c r="F163" s="9"/>
+      <c r="G163" s="10"/>
+      <c r="H163" s="10"/>
+      <c r="I163" s="10"/>
+      <c r="J163" s="11"/>
     </row>
     <row r="164" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="5"/>
@@ -4871,11 +4872,11 @@
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
-      <c r="F164" s="16"/>
-      <c r="G164" s="17"/>
-      <c r="H164" s="17"/>
-      <c r="I164" s="17"/>
-      <c r="J164" s="18"/>
+      <c r="F164" s="9"/>
+      <c r="G164" s="10"/>
+      <c r="H164" s="10"/>
+      <c r="I164" s="10"/>
+      <c r="J164" s="11"/>
     </row>
     <row r="165" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="5"/>
@@ -4883,11 +4884,11 @@
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
-      <c r="F165" s="16"/>
-      <c r="G165" s="17"/>
-      <c r="H165" s="17"/>
-      <c r="I165" s="17"/>
-      <c r="J165" s="18"/>
+      <c r="F165" s="9"/>
+      <c r="G165" s="10"/>
+      <c r="H165" s="10"/>
+      <c r="I165" s="10"/>
+      <c r="J165" s="11"/>
     </row>
     <row r="166" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="5"/>
@@ -4895,11 +4896,11 @@
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
-      <c r="F166" s="16"/>
-      <c r="G166" s="17"/>
-      <c r="H166" s="17"/>
-      <c r="I166" s="17"/>
-      <c r="J166" s="18"/>
+      <c r="F166" s="9"/>
+      <c r="G166" s="10"/>
+      <c r="H166" s="10"/>
+      <c r="I166" s="10"/>
+      <c r="J166" s="11"/>
     </row>
     <row r="167" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="5"/>
@@ -4907,11 +4908,11 @@
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
-      <c r="F167" s="16"/>
-      <c r="G167" s="17"/>
-      <c r="H167" s="17"/>
-      <c r="I167" s="17"/>
-      <c r="J167" s="18"/>
+      <c r="F167" s="9"/>
+      <c r="G167" s="10"/>
+      <c r="H167" s="10"/>
+      <c r="I167" s="10"/>
+      <c r="J167" s="11"/>
     </row>
     <row r="168" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="5"/>
@@ -4919,11 +4920,11 @@
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
-      <c r="F168" s="16"/>
-      <c r="G168" s="17"/>
-      <c r="H168" s="17"/>
-      <c r="I168" s="17"/>
-      <c r="J168" s="18"/>
+      <c r="F168" s="9"/>
+      <c r="G168" s="10"/>
+      <c r="H168" s="10"/>
+      <c r="I168" s="10"/>
+      <c r="J168" s="11"/>
     </row>
     <row r="169" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="5"/>
@@ -4931,11 +4932,11 @@
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
-      <c r="F169" s="16"/>
-      <c r="G169" s="17"/>
-      <c r="H169" s="17"/>
-      <c r="I169" s="17"/>
-      <c r="J169" s="18"/>
+      <c r="F169" s="9"/>
+      <c r="G169" s="10"/>
+      <c r="H169" s="10"/>
+      <c r="I169" s="10"/>
+      <c r="J169" s="11"/>
     </row>
     <row r="170" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="5"/>
@@ -4943,11 +4944,11 @@
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
-      <c r="F170" s="16"/>
-      <c r="G170" s="17"/>
-      <c r="H170" s="17"/>
-      <c r="I170" s="17"/>
-      <c r="J170" s="18"/>
+      <c r="F170" s="9"/>
+      <c r="G170" s="10"/>
+      <c r="H170" s="10"/>
+      <c r="I170" s="10"/>
+      <c r="J170" s="11"/>
     </row>
     <row r="171" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="5"/>
@@ -4955,11 +4956,11 @@
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
-      <c r="F171" s="16"/>
-      <c r="G171" s="17"/>
-      <c r="H171" s="17"/>
-      <c r="I171" s="17"/>
-      <c r="J171" s="18"/>
+      <c r="F171" s="9"/>
+      <c r="G171" s="10"/>
+      <c r="H171" s="10"/>
+      <c r="I171" s="10"/>
+      <c r="J171" s="11"/>
     </row>
     <row r="172" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="5"/>
@@ -4967,11 +4968,11 @@
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
-      <c r="F172" s="16"/>
-      <c r="G172" s="17"/>
-      <c r="H172" s="17"/>
-      <c r="I172" s="17"/>
-      <c r="J172" s="18"/>
+      <c r="F172" s="9"/>
+      <c r="G172" s="10"/>
+      <c r="H172" s="10"/>
+      <c r="I172" s="10"/>
+      <c r="J172" s="11"/>
     </row>
     <row r="173" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="5"/>
@@ -4979,11 +4980,11 @@
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
-      <c r="F173" s="16"/>
-      <c r="G173" s="17"/>
-      <c r="H173" s="17"/>
-      <c r="I173" s="17"/>
-      <c r="J173" s="18"/>
+      <c r="F173" s="9"/>
+      <c r="G173" s="10"/>
+      <c r="H173" s="10"/>
+      <c r="I173" s="10"/>
+      <c r="J173" s="11"/>
     </row>
     <row r="174" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="5"/>
@@ -4991,11 +4992,11 @@
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
-      <c r="F174" s="16"/>
-      <c r="G174" s="17"/>
-      <c r="H174" s="17"/>
-      <c r="I174" s="17"/>
-      <c r="J174" s="18"/>
+      <c r="F174" s="9"/>
+      <c r="G174" s="10"/>
+      <c r="H174" s="10"/>
+      <c r="I174" s="10"/>
+      <c r="J174" s="11"/>
     </row>
     <row r="175" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="5"/>
@@ -5003,11 +5004,11 @@
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
-      <c r="F175" s="16"/>
-      <c r="G175" s="17"/>
-      <c r="H175" s="17"/>
-      <c r="I175" s="17"/>
-      <c r="J175" s="18"/>
+      <c r="F175" s="9"/>
+      <c r="G175" s="10"/>
+      <c r="H175" s="10"/>
+      <c r="I175" s="10"/>
+      <c r="J175" s="11"/>
     </row>
     <row r="176" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="5"/>
@@ -5015,11 +5016,11 @@
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
-      <c r="F176" s="16"/>
-      <c r="G176" s="17"/>
-      <c r="H176" s="17"/>
-      <c r="I176" s="17"/>
-      <c r="J176" s="18"/>
+      <c r="F176" s="9"/>
+      <c r="G176" s="10"/>
+      <c r="H176" s="10"/>
+      <c r="I176" s="10"/>
+      <c r="J176" s="11"/>
     </row>
     <row r="177" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="5"/>
@@ -5027,11 +5028,11 @@
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
-      <c r="F177" s="16"/>
-      <c r="G177" s="17"/>
-      <c r="H177" s="17"/>
-      <c r="I177" s="17"/>
-      <c r="J177" s="18"/>
+      <c r="F177" s="9"/>
+      <c r="G177" s="10"/>
+      <c r="H177" s="10"/>
+      <c r="I177" s="10"/>
+      <c r="J177" s="11"/>
     </row>
     <row r="178" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="5"/>
@@ -5039,11 +5040,11 @@
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
-      <c r="F178" s="16"/>
-      <c r="G178" s="17"/>
-      <c r="H178" s="17"/>
-      <c r="I178" s="17"/>
-      <c r="J178" s="18"/>
+      <c r="F178" s="9"/>
+      <c r="G178" s="10"/>
+      <c r="H178" s="10"/>
+      <c r="I178" s="10"/>
+      <c r="J178" s="11"/>
     </row>
     <row r="179" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="5"/>
@@ -5051,11 +5052,11 @@
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
-      <c r="F179" s="16"/>
-      <c r="G179" s="17"/>
-      <c r="H179" s="17"/>
-      <c r="I179" s="17"/>
-      <c r="J179" s="18"/>
+      <c r="F179" s="9"/>
+      <c r="G179" s="10"/>
+      <c r="H179" s="10"/>
+      <c r="I179" s="10"/>
+      <c r="J179" s="11"/>
     </row>
     <row r="180" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="5"/>
@@ -5063,11 +5064,11 @@
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
-      <c r="F180" s="16"/>
-      <c r="G180" s="17"/>
-      <c r="H180" s="17"/>
-      <c r="I180" s="17"/>
-      <c r="J180" s="18"/>
+      <c r="F180" s="9"/>
+      <c r="G180" s="10"/>
+      <c r="H180" s="10"/>
+      <c r="I180" s="10"/>
+      <c r="J180" s="11"/>
     </row>
     <row r="181" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="5"/>
@@ -5075,11 +5076,11 @@
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
-      <c r="F181" s="16"/>
-      <c r="G181" s="17"/>
-      <c r="H181" s="17"/>
-      <c r="I181" s="17"/>
-      <c r="J181" s="18"/>
+      <c r="F181" s="9"/>
+      <c r="G181" s="10"/>
+      <c r="H181" s="10"/>
+      <c r="I181" s="10"/>
+      <c r="J181" s="11"/>
     </row>
     <row r="182" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="5"/>
@@ -5087,11 +5088,11 @@
       <c r="C182" s="5"/>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
-      <c r="F182" s="16"/>
-      <c r="G182" s="17"/>
-      <c r="H182" s="17"/>
-      <c r="I182" s="17"/>
-      <c r="J182" s="18"/>
+      <c r="F182" s="9"/>
+      <c r="G182" s="10"/>
+      <c r="H182" s="10"/>
+      <c r="I182" s="10"/>
+      <c r="J182" s="11"/>
     </row>
     <row r="183" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="5"/>
@@ -5099,11 +5100,11 @@
       <c r="C183" s="5"/>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
-      <c r="F183" s="16"/>
-      <c r="G183" s="17"/>
-      <c r="H183" s="17"/>
-      <c r="I183" s="17"/>
-      <c r="J183" s="18"/>
+      <c r="F183" s="9"/>
+      <c r="G183" s="10"/>
+      <c r="H183" s="10"/>
+      <c r="I183" s="10"/>
+      <c r="J183" s="11"/>
     </row>
     <row r="184" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="5"/>
@@ -5111,11 +5112,11 @@
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
-      <c r="F184" s="16"/>
-      <c r="G184" s="17"/>
-      <c r="H184" s="17"/>
-      <c r="I184" s="17"/>
-      <c r="J184" s="18"/>
+      <c r="F184" s="9"/>
+      <c r="G184" s="10"/>
+      <c r="H184" s="10"/>
+      <c r="I184" s="10"/>
+      <c r="J184" s="11"/>
     </row>
     <row r="185" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="5"/>
@@ -5123,11 +5124,11 @@
       <c r="C185" s="5"/>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
-      <c r="F185" s="16"/>
-      <c r="G185" s="17"/>
-      <c r="H185" s="17"/>
-      <c r="I185" s="17"/>
-      <c r="J185" s="18"/>
+      <c r="F185" s="9"/>
+      <c r="G185" s="10"/>
+      <c r="H185" s="10"/>
+      <c r="I185" s="10"/>
+      <c r="J185" s="11"/>
     </row>
     <row r="186" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="5"/>
@@ -5135,11 +5136,11 @@
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
-      <c r="F186" s="16"/>
-      <c r="G186" s="17"/>
-      <c r="H186" s="17"/>
-      <c r="I186" s="17"/>
-      <c r="J186" s="18"/>
+      <c r="F186" s="9"/>
+      <c r="G186" s="10"/>
+      <c r="H186" s="10"/>
+      <c r="I186" s="10"/>
+      <c r="J186" s="11"/>
     </row>
     <row r="187" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="5"/>
@@ -5147,11 +5148,11 @@
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
-      <c r="F187" s="16"/>
-      <c r="G187" s="17"/>
-      <c r="H187" s="17"/>
-      <c r="I187" s="17"/>
-      <c r="J187" s="18"/>
+      <c r="F187" s="9"/>
+      <c r="G187" s="10"/>
+      <c r="H187" s="10"/>
+      <c r="I187" s="10"/>
+      <c r="J187" s="11"/>
     </row>
     <row r="188" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="5"/>
@@ -5159,11 +5160,11 @@
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
-      <c r="F188" s="16"/>
-      <c r="G188" s="17"/>
-      <c r="H188" s="17"/>
-      <c r="I188" s="17"/>
-      <c r="J188" s="18"/>
+      <c r="F188" s="9"/>
+      <c r="G188" s="10"/>
+      <c r="H188" s="10"/>
+      <c r="I188" s="10"/>
+      <c r="J188" s="11"/>
     </row>
     <row r="189" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="5"/>
@@ -5171,11 +5172,11 @@
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
-      <c r="F189" s="16"/>
-      <c r="G189" s="17"/>
-      <c r="H189" s="17"/>
-      <c r="I189" s="17"/>
-      <c r="J189" s="18"/>
+      <c r="F189" s="9"/>
+      <c r="G189" s="10"/>
+      <c r="H189" s="10"/>
+      <c r="I189" s="10"/>
+      <c r="J189" s="11"/>
     </row>
     <row r="190" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="5"/>
@@ -5183,11 +5184,11 @@
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
-      <c r="F190" s="16"/>
-      <c r="G190" s="17"/>
-      <c r="H190" s="17"/>
-      <c r="I190" s="17"/>
-      <c r="J190" s="18"/>
+      <c r="F190" s="9"/>
+      <c r="G190" s="10"/>
+      <c r="H190" s="10"/>
+      <c r="I190" s="10"/>
+      <c r="J190" s="11"/>
     </row>
     <row r="191" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="5"/>
@@ -5195,11 +5196,11 @@
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
-      <c r="F191" s="16"/>
-      <c r="G191" s="17"/>
-      <c r="H191" s="17"/>
-      <c r="I191" s="17"/>
-      <c r="J191" s="18"/>
+      <c r="F191" s="9"/>
+      <c r="G191" s="10"/>
+      <c r="H191" s="10"/>
+      <c r="I191" s="10"/>
+      <c r="J191" s="11"/>
     </row>
     <row r="192" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="5"/>
@@ -5207,11 +5208,11 @@
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
       <c r="E192" s="5"/>
-      <c r="F192" s="16"/>
-      <c r="G192" s="17"/>
-      <c r="H192" s="17"/>
-      <c r="I192" s="17"/>
-      <c r="J192" s="18"/>
+      <c r="F192" s="9"/>
+      <c r="G192" s="10"/>
+      <c r="H192" s="10"/>
+      <c r="I192" s="10"/>
+      <c r="J192" s="11"/>
     </row>
     <row r="193" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="5"/>
@@ -5219,11 +5220,11 @@
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
-      <c r="F193" s="16"/>
-      <c r="G193" s="17"/>
-      <c r="H193" s="17"/>
-      <c r="I193" s="17"/>
-      <c r="J193" s="18"/>
+      <c r="F193" s="9"/>
+      <c r="G193" s="10"/>
+      <c r="H193" s="10"/>
+      <c r="I193" s="10"/>
+      <c r="J193" s="11"/>
     </row>
     <row r="194" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="5"/>
@@ -5231,11 +5232,11 @@
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
       <c r="E194" s="5"/>
-      <c r="F194" s="16"/>
-      <c r="G194" s="17"/>
-      <c r="H194" s="17"/>
-      <c r="I194" s="17"/>
-      <c r="J194" s="18"/>
+      <c r="F194" s="9"/>
+      <c r="G194" s="10"/>
+      <c r="H194" s="10"/>
+      <c r="I194" s="10"/>
+      <c r="J194" s="11"/>
     </row>
     <row r="195" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="5"/>
@@ -5243,11 +5244,11 @@
       <c r="C195" s="5"/>
       <c r="D195" s="5"/>
       <c r="E195" s="5"/>
-      <c r="F195" s="16"/>
-      <c r="G195" s="17"/>
-      <c r="H195" s="17"/>
-      <c r="I195" s="17"/>
-      <c r="J195" s="18"/>
+      <c r="F195" s="9"/>
+      <c r="G195" s="10"/>
+      <c r="H195" s="10"/>
+      <c r="I195" s="10"/>
+      <c r="J195" s="11"/>
     </row>
     <row r="196" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="5"/>
@@ -5255,11 +5256,11 @@
       <c r="C196" s="5"/>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
-      <c r="F196" s="16"/>
-      <c r="G196" s="17"/>
-      <c r="H196" s="17"/>
-      <c r="I196" s="17"/>
-      <c r="J196" s="18"/>
+      <c r="F196" s="9"/>
+      <c r="G196" s="10"/>
+      <c r="H196" s="10"/>
+      <c r="I196" s="10"/>
+      <c r="J196" s="11"/>
     </row>
     <row r="197" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="5"/>
@@ -5267,11 +5268,11 @@
       <c r="C197" s="5"/>
       <c r="D197" s="5"/>
       <c r="E197" s="5"/>
-      <c r="F197" s="16"/>
-      <c r="G197" s="17"/>
-      <c r="H197" s="17"/>
-      <c r="I197" s="17"/>
-      <c r="J197" s="18"/>
+      <c r="F197" s="9"/>
+      <c r="G197" s="10"/>
+      <c r="H197" s="10"/>
+      <c r="I197" s="10"/>
+      <c r="J197" s="11"/>
     </row>
     <row r="198" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="5"/>
@@ -5279,11 +5280,11 @@
       <c r="C198" s="5"/>
       <c r="D198" s="5"/>
       <c r="E198" s="5"/>
-      <c r="F198" s="16"/>
-      <c r="G198" s="17"/>
-      <c r="H198" s="17"/>
-      <c r="I198" s="17"/>
-      <c r="J198" s="18"/>
+      <c r="F198" s="9"/>
+      <c r="G198" s="10"/>
+      <c r="H198" s="10"/>
+      <c r="I198" s="10"/>
+      <c r="J198" s="11"/>
     </row>
     <row r="199" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="5"/>
@@ -5291,11 +5292,11 @@
       <c r="C199" s="5"/>
       <c r="D199" s="5"/>
       <c r="E199" s="5"/>
-      <c r="F199" s="16"/>
-      <c r="G199" s="17"/>
-      <c r="H199" s="17"/>
-      <c r="I199" s="17"/>
-      <c r="J199" s="18"/>
+      <c r="F199" s="9"/>
+      <c r="G199" s="10"/>
+      <c r="H199" s="10"/>
+      <c r="I199" s="10"/>
+      <c r="J199" s="11"/>
     </row>
     <row r="200" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="5"/>
@@ -5303,11 +5304,11 @@
       <c r="C200" s="5"/>
       <c r="D200" s="5"/>
       <c r="E200" s="5"/>
-      <c r="F200" s="16"/>
-      <c r="G200" s="17"/>
-      <c r="H200" s="17"/>
-      <c r="I200" s="17"/>
-      <c r="J200" s="18"/>
+      <c r="F200" s="9"/>
+      <c r="G200" s="10"/>
+      <c r="H200" s="10"/>
+      <c r="I200" s="10"/>
+      <c r="J200" s="11"/>
     </row>
     <row r="201" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="5"/>
@@ -5315,11 +5316,11 @@
       <c r="C201" s="5"/>
       <c r="D201" s="5"/>
       <c r="E201" s="5"/>
-      <c r="F201" s="16"/>
-      <c r="G201" s="17"/>
-      <c r="H201" s="17"/>
-      <c r="I201" s="17"/>
-      <c r="J201" s="18"/>
+      <c r="F201" s="9"/>
+      <c r="G201" s="10"/>
+      <c r="H201" s="10"/>
+      <c r="I201" s="10"/>
+      <c r="J201" s="11"/>
     </row>
     <row r="202" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="5"/>
@@ -5327,11 +5328,11 @@
       <c r="C202" s="5"/>
       <c r="D202" s="5"/>
       <c r="E202" s="5"/>
-      <c r="F202" s="16"/>
-      <c r="G202" s="17"/>
-      <c r="H202" s="17"/>
-      <c r="I202" s="17"/>
-      <c r="J202" s="18"/>
+      <c r="F202" s="9"/>
+      <c r="G202" s="10"/>
+      <c r="H202" s="10"/>
+      <c r="I202" s="10"/>
+      <c r="J202" s="11"/>
     </row>
     <row r="203" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="5"/>
@@ -5339,11 +5340,11 @@
       <c r="C203" s="5"/>
       <c r="D203" s="5"/>
       <c r="E203" s="5"/>
-      <c r="F203" s="16"/>
-      <c r="G203" s="17"/>
-      <c r="H203" s="17"/>
-      <c r="I203" s="17"/>
-      <c r="J203" s="18"/>
+      <c r="F203" s="9"/>
+      <c r="G203" s="10"/>
+      <c r="H203" s="10"/>
+      <c r="I203" s="10"/>
+      <c r="J203" s="11"/>
     </row>
     <row r="204" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="5"/>
@@ -5351,11 +5352,11 @@
       <c r="C204" s="5"/>
       <c r="D204" s="5"/>
       <c r="E204" s="5"/>
-      <c r="F204" s="16"/>
-      <c r="G204" s="17"/>
-      <c r="H204" s="17"/>
-      <c r="I204" s="17"/>
-      <c r="J204" s="18"/>
+      <c r="F204" s="9"/>
+      <c r="G204" s="10"/>
+      <c r="H204" s="10"/>
+      <c r="I204" s="10"/>
+      <c r="J204" s="11"/>
     </row>
     <row r="205" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="5"/>
@@ -5363,11 +5364,11 @@
       <c r="C205" s="5"/>
       <c r="D205" s="5"/>
       <c r="E205" s="5"/>
-      <c r="F205" s="16"/>
-      <c r="G205" s="17"/>
-      <c r="H205" s="17"/>
-      <c r="I205" s="17"/>
-      <c r="J205" s="18"/>
+      <c r="F205" s="9"/>
+      <c r="G205" s="10"/>
+      <c r="H205" s="10"/>
+      <c r="I205" s="10"/>
+      <c r="J205" s="11"/>
     </row>
     <row r="206" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="5"/>
@@ -5375,11 +5376,11 @@
       <c r="C206" s="5"/>
       <c r="D206" s="5"/>
       <c r="E206" s="5"/>
-      <c r="F206" s="16"/>
-      <c r="G206" s="17"/>
-      <c r="H206" s="17"/>
-      <c r="I206" s="17"/>
-      <c r="J206" s="18"/>
+      <c r="F206" s="9"/>
+      <c r="G206" s="10"/>
+      <c r="H206" s="10"/>
+      <c r="I206" s="10"/>
+      <c r="J206" s="11"/>
     </row>
     <row r="207" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="5"/>
@@ -5387,11 +5388,11 @@
       <c r="C207" s="5"/>
       <c r="D207" s="5"/>
       <c r="E207" s="5"/>
-      <c r="F207" s="16"/>
-      <c r="G207" s="17"/>
-      <c r="H207" s="17"/>
-      <c r="I207" s="17"/>
-      <c r="J207" s="18"/>
+      <c r="F207" s="9"/>
+      <c r="G207" s="10"/>
+      <c r="H207" s="10"/>
+      <c r="I207" s="10"/>
+      <c r="J207" s="11"/>
     </row>
     <row r="208" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="5"/>
@@ -5399,11 +5400,11 @@
       <c r="C208" s="5"/>
       <c r="D208" s="5"/>
       <c r="E208" s="5"/>
-      <c r="F208" s="16"/>
-      <c r="G208" s="17"/>
-      <c r="H208" s="17"/>
-      <c r="I208" s="17"/>
-      <c r="J208" s="18"/>
+      <c r="F208" s="9"/>
+      <c r="G208" s="10"/>
+      <c r="H208" s="10"/>
+      <c r="I208" s="10"/>
+      <c r="J208" s="11"/>
     </row>
     <row r="209" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="5"/>
@@ -5411,10 +5412,10 @@
       <c r="C209" s="5"/>
       <c r="D209" s="5"/>
       <c r="E209" s="5"/>
-      <c r="G209" s="17"/>
-      <c r="H209" s="17"/>
-      <c r="I209" s="17"/>
-      <c r="J209" s="18"/>
+      <c r="G209" s="10"/>
+      <c r="H209" s="10"/>
+      <c r="I209" s="10"/>
+      <c r="J209" s="11"/>
     </row>
     <row r="210" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="5"/>
@@ -5422,10 +5423,10 @@
       <c r="C210" s="5"/>
       <c r="D210" s="5"/>
       <c r="E210" s="5"/>
-      <c r="G210" s="17"/>
-      <c r="H210" s="17"/>
-      <c r="I210" s="17"/>
-      <c r="J210" s="18"/>
+      <c r="G210" s="10"/>
+      <c r="H210" s="10"/>
+      <c r="I210" s="10"/>
+      <c r="J210" s="11"/>
     </row>
     <row r="211" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="5"/>
@@ -5433,10 +5434,10 @@
       <c r="C211" s="5"/>
       <c r="D211" s="5"/>
       <c r="E211" s="5"/>
-      <c r="G211" s="17"/>
-      <c r="H211" s="17"/>
-      <c r="I211" s="17"/>
-      <c r="J211" s="18"/>
+      <c r="G211" s="10"/>
+      <c r="H211" s="10"/>
+      <c r="I211" s="10"/>
+      <c r="J211" s="11"/>
     </row>
     <row r="212" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="5"/>
@@ -5444,10 +5445,10 @@
       <c r="C212" s="5"/>
       <c r="D212" s="5"/>
       <c r="E212" s="5"/>
-      <c r="G212" s="17"/>
-      <c r="H212" s="17"/>
-      <c r="I212" s="17"/>
-      <c r="J212" s="18"/>
+      <c r="G212" s="10"/>
+      <c r="H212" s="10"/>
+      <c r="I212" s="10"/>
+      <c r="J212" s="11"/>
     </row>
     <row r="213" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="5"/>
@@ -5455,10 +5456,10 @@
       <c r="C213" s="5"/>
       <c r="D213" s="5"/>
       <c r="E213" s="5"/>
-      <c r="G213" s="17"/>
-      <c r="H213" s="17"/>
-      <c r="I213" s="17"/>
-      <c r="J213" s="18"/>
+      <c r="G213" s="10"/>
+      <c r="H213" s="10"/>
+      <c r="I213" s="10"/>
+      <c r="J213" s="11"/>
     </row>
     <row r="214" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="5"/>
@@ -5466,10 +5467,10 @@
       <c r="C214" s="5"/>
       <c r="D214" s="5"/>
       <c r="E214" s="5"/>
-      <c r="G214" s="17"/>
-      <c r="H214" s="17"/>
-      <c r="I214" s="17"/>
-      <c r="J214" s="18"/>
+      <c r="G214" s="10"/>
+      <c r="H214" s="10"/>
+      <c r="I214" s="10"/>
+      <c r="J214" s="11"/>
     </row>
     <row r="215" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="5"/>
@@ -5477,10 +5478,10 @@
       <c r="C215" s="5"/>
       <c r="D215" s="5"/>
       <c r="E215" s="5"/>
-      <c r="G215" s="17"/>
-      <c r="H215" s="17"/>
-      <c r="I215" s="17"/>
-      <c r="J215" s="18"/>
+      <c r="G215" s="10"/>
+      <c r="H215" s="10"/>
+      <c r="I215" s="10"/>
+      <c r="J215" s="11"/>
     </row>
     <row r="216" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="5"/>
@@ -5488,10 +5489,10 @@
       <c r="C216" s="5"/>
       <c r="D216" s="5"/>
       <c r="E216" s="5"/>
-      <c r="G216" s="17"/>
-      <c r="H216" s="17"/>
-      <c r="I216" s="17"/>
-      <c r="J216" s="18"/>
+      <c r="G216" s="10"/>
+      <c r="H216" s="10"/>
+      <c r="I216" s="10"/>
+      <c r="J216" s="11"/>
     </row>
     <row r="217" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="5"/>
@@ -5499,10 +5500,10 @@
       <c r="C217" s="5"/>
       <c r="D217" s="5"/>
       <c r="E217" s="5"/>
-      <c r="G217" s="17"/>
-      <c r="H217" s="17"/>
-      <c r="I217" s="17"/>
-      <c r="J217" s="18"/>
+      <c r="G217" s="10"/>
+      <c r="H217" s="10"/>
+      <c r="I217" s="10"/>
+      <c r="J217" s="11"/>
     </row>
     <row r="218" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="5"/>
@@ -5510,10 +5511,10 @@
       <c r="C218" s="5"/>
       <c r="D218" s="5"/>
       <c r="E218" s="5"/>
-      <c r="G218" s="17"/>
-      <c r="H218" s="17"/>
-      <c r="I218" s="17"/>
-      <c r="J218" s="18"/>
+      <c r="G218" s="10"/>
+      <c r="H218" s="10"/>
+      <c r="I218" s="10"/>
+      <c r="J218" s="11"/>
     </row>
     <row r="219" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="5"/>
@@ -5521,10 +5522,10 @@
       <c r="C219" s="5"/>
       <c r="D219" s="5"/>
       <c r="E219" s="5"/>
-      <c r="G219" s="17"/>
-      <c r="H219" s="17"/>
-      <c r="I219" s="17"/>
-      <c r="J219" s="18"/>
+      <c r="G219" s="10"/>
+      <c r="H219" s="10"/>
+      <c r="I219" s="10"/>
+      <c r="J219" s="11"/>
     </row>
     <row r="220" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="5"/>
@@ -5532,10 +5533,10 @@
       <c r="C220" s="5"/>
       <c r="D220" s="5"/>
       <c r="E220" s="5"/>
-      <c r="G220" s="17"/>
-      <c r="H220" s="17"/>
-      <c r="I220" s="17"/>
-      <c r="J220" s="18"/>
+      <c r="G220" s="10"/>
+      <c r="H220" s="10"/>
+      <c r="I220" s="10"/>
+      <c r="J220" s="11"/>
     </row>
     <row r="221" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="5"/>
@@ -5543,10 +5544,10 @@
       <c r="C221" s="5"/>
       <c r="D221" s="5"/>
       <c r="E221" s="5"/>
-      <c r="G221" s="17"/>
-      <c r="H221" s="17"/>
-      <c r="I221" s="17"/>
-      <c r="J221" s="18"/>
+      <c r="G221" s="10"/>
+      <c r="H221" s="10"/>
+      <c r="I221" s="10"/>
+      <c r="J221" s="11"/>
     </row>
     <row r="222" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="5"/>
@@ -5554,10 +5555,10 @@
       <c r="C222" s="5"/>
       <c r="D222" s="5"/>
       <c r="E222" s="5"/>
-      <c r="G222" s="17"/>
-      <c r="H222" s="17"/>
-      <c r="I222" s="17"/>
-      <c r="J222" s="18"/>
+      <c r="G222" s="10"/>
+      <c r="H222" s="10"/>
+      <c r="I222" s="10"/>
+      <c r="J222" s="11"/>
     </row>
     <row r="223" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="5"/>
@@ -5565,10 +5566,10 @@
       <c r="C223" s="5"/>
       <c r="D223" s="5"/>
       <c r="E223" s="5"/>
-      <c r="G223" s="17"/>
-      <c r="H223" s="17"/>
-      <c r="I223" s="17"/>
-      <c r="J223" s="18"/>
+      <c r="G223" s="10"/>
+      <c r="H223" s="10"/>
+      <c r="I223" s="10"/>
+      <c r="J223" s="11"/>
     </row>
     <row r="224" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="5"/>
@@ -5576,10 +5577,10 @@
       <c r="C224" s="5"/>
       <c r="D224" s="5"/>
       <c r="E224" s="5"/>
-      <c r="G224" s="17"/>
-      <c r="H224" s="17"/>
-      <c r="I224" s="17"/>
-      <c r="J224" s="18"/>
+      <c r="G224" s="10"/>
+      <c r="H224" s="10"/>
+      <c r="I224" s="10"/>
+      <c r="J224" s="11"/>
     </row>
     <row r="225" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="5"/>
@@ -5587,10 +5588,10 @@
       <c r="C225" s="5"/>
       <c r="D225" s="5"/>
       <c r="E225" s="5"/>
-      <c r="G225" s="17"/>
-      <c r="H225" s="17"/>
-      <c r="I225" s="17"/>
-      <c r="J225" s="18"/>
+      <c r="G225" s="10"/>
+      <c r="H225" s="10"/>
+      <c r="I225" s="10"/>
+      <c r="J225" s="11"/>
     </row>
     <row r="226" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="5"/>
@@ -5598,10 +5599,10 @@
       <c r="C226" s="5"/>
       <c r="D226" s="5"/>
       <c r="E226" s="5"/>
-      <c r="G226" s="17"/>
-      <c r="H226" s="17"/>
-      <c r="I226" s="17"/>
-      <c r="J226" s="18"/>
+      <c r="G226" s="10"/>
+      <c r="H226" s="10"/>
+      <c r="I226" s="10"/>
+      <c r="J226" s="11"/>
     </row>
     <row r="227" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="5"/>
@@ -5609,10 +5610,10 @@
       <c r="C227" s="5"/>
       <c r="D227" s="5"/>
       <c r="E227" s="5"/>
-      <c r="G227" s="17"/>
-      <c r="H227" s="17"/>
-      <c r="I227" s="17"/>
-      <c r="J227" s="18"/>
+      <c r="G227" s="10"/>
+      <c r="H227" s="10"/>
+      <c r="I227" s="10"/>
+      <c r="J227" s="11"/>
     </row>
     <row r="228" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="5"/>
@@ -5620,10 +5621,10 @@
       <c r="C228" s="5"/>
       <c r="D228" s="5"/>
       <c r="E228" s="5"/>
-      <c r="G228" s="17"/>
-      <c r="H228" s="17"/>
-      <c r="I228" s="17"/>
-      <c r="J228" s="18"/>
+      <c r="G228" s="10"/>
+      <c r="H228" s="10"/>
+      <c r="I228" s="10"/>
+      <c r="J228" s="11"/>
     </row>
     <row r="229" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="5"/>
@@ -5631,10 +5632,10 @@
       <c r="C229" s="5"/>
       <c r="D229" s="5"/>
       <c r="E229" s="5"/>
-      <c r="G229" s="17"/>
-      <c r="H229" s="17"/>
-      <c r="I229" s="17"/>
-      <c r="J229" s="18"/>
+      <c r="G229" s="10"/>
+      <c r="H229" s="10"/>
+      <c r="I229" s="10"/>
+      <c r="J229" s="11"/>
     </row>
     <row r="230" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="5"/>
@@ -5642,10 +5643,10 @@
       <c r="C230" s="5"/>
       <c r="D230" s="5"/>
       <c r="E230" s="5"/>
-      <c r="G230" s="17"/>
-      <c r="H230" s="17"/>
-      <c r="I230" s="17"/>
-      <c r="J230" s="18"/>
+      <c r="G230" s="10"/>
+      <c r="H230" s="10"/>
+      <c r="I230" s="10"/>
+      <c r="J230" s="11"/>
     </row>
     <row r="231" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="5"/>
@@ -5653,10 +5654,10 @@
       <c r="C231" s="5"/>
       <c r="D231" s="5"/>
       <c r="E231" s="5"/>
-      <c r="G231" s="17"/>
-      <c r="H231" s="17"/>
-      <c r="I231" s="17"/>
-      <c r="J231" s="18"/>
+      <c r="G231" s="10"/>
+      <c r="H231" s="10"/>
+      <c r="I231" s="10"/>
+      <c r="J231" s="11"/>
     </row>
     <row r="232" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="5"/>
@@ -5664,10 +5665,10 @@
       <c r="C232" s="5"/>
       <c r="D232" s="5"/>
       <c r="E232" s="5"/>
-      <c r="G232" s="17"/>
-      <c r="H232" s="17"/>
-      <c r="I232" s="17"/>
-      <c r="J232" s="18"/>
+      <c r="G232" s="10"/>
+      <c r="H232" s="10"/>
+      <c r="I232" s="10"/>
+      <c r="J232" s="11"/>
     </row>
     <row r="233" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="5"/>
@@ -5675,10 +5676,10 @@
       <c r="C233" s="5"/>
       <c r="D233" s="5"/>
       <c r="E233" s="5"/>
-      <c r="G233" s="17"/>
-      <c r="H233" s="17"/>
-      <c r="I233" s="17"/>
-      <c r="J233" s="18"/>
+      <c r="G233" s="10"/>
+      <c r="H233" s="10"/>
+      <c r="I233" s="10"/>
+      <c r="J233" s="11"/>
     </row>
     <row r="234" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="5"/>
@@ -5686,10 +5687,10 @@
       <c r="C234" s="5"/>
       <c r="D234" s="5"/>
       <c r="E234" s="5"/>
-      <c r="G234" s="17"/>
-      <c r="H234" s="17"/>
-      <c r="I234" s="17"/>
-      <c r="J234" s="18"/>
+      <c r="G234" s="10"/>
+      <c r="H234" s="10"/>
+      <c r="I234" s="10"/>
+      <c r="J234" s="11"/>
     </row>
     <row r="235" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="5"/>
@@ -5697,10 +5698,10 @@
       <c r="C235" s="5"/>
       <c r="D235" s="5"/>
       <c r="E235" s="5"/>
-      <c r="G235" s="17"/>
-      <c r="H235" s="17"/>
-      <c r="I235" s="17"/>
-      <c r="J235" s="18"/>
+      <c r="G235" s="10"/>
+      <c r="H235" s="10"/>
+      <c r="I235" s="10"/>
+      <c r="J235" s="11"/>
     </row>
     <row r="236" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="5"/>
@@ -5708,10 +5709,10 @@
       <c r="C236" s="5"/>
       <c r="D236" s="5"/>
       <c r="E236" s="5"/>
-      <c r="G236" s="17"/>
-      <c r="H236" s="17"/>
-      <c r="I236" s="17"/>
-      <c r="J236" s="18"/>
+      <c r="G236" s="10"/>
+      <c r="H236" s="10"/>
+      <c r="I236" s="10"/>
+      <c r="J236" s="11"/>
     </row>
     <row r="237" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="5"/>
@@ -5719,10 +5720,10 @@
       <c r="C237" s="5"/>
       <c r="D237" s="5"/>
       <c r="E237" s="5"/>
-      <c r="G237" s="17"/>
-      <c r="H237" s="17"/>
-      <c r="I237" s="17"/>
-      <c r="J237" s="18"/>
+      <c r="G237" s="10"/>
+      <c r="H237" s="10"/>
+      <c r="I237" s="10"/>
+      <c r="J237" s="11"/>
     </row>
     <row r="238" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="5"/>
@@ -5730,10 +5731,10 @@
       <c r="C238" s="5"/>
       <c r="D238" s="5"/>
       <c r="E238" s="5"/>
-      <c r="G238" s="17"/>
-      <c r="H238" s="17"/>
-      <c r="I238" s="17"/>
-      <c r="J238" s="18"/>
+      <c r="G238" s="10"/>
+      <c r="H238" s="10"/>
+      <c r="I238" s="10"/>
+      <c r="J238" s="11"/>
     </row>
     <row r="239" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="5"/>
@@ -5741,10 +5742,10 @@
       <c r="C239" s="5"/>
       <c r="D239" s="5"/>
       <c r="E239" s="5"/>
-      <c r="G239" s="17"/>
-      <c r="H239" s="17"/>
-      <c r="I239" s="17"/>
-      <c r="J239" s="18"/>
+      <c r="G239" s="10"/>
+      <c r="H239" s="10"/>
+      <c r="I239" s="10"/>
+      <c r="J239" s="11"/>
     </row>
     <row r="240" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="5"/>
@@ -5752,10 +5753,10 @@
       <c r="C240" s="5"/>
       <c r="D240" s="5"/>
       <c r="E240" s="5"/>
-      <c r="G240" s="17"/>
-      <c r="H240" s="17"/>
-      <c r="I240" s="17"/>
-      <c r="J240" s="18"/>
+      <c r="G240" s="10"/>
+      <c r="H240" s="10"/>
+      <c r="I240" s="10"/>
+      <c r="J240" s="11"/>
     </row>
     <row r="241" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="5"/>
@@ -5763,10 +5764,10 @@
       <c r="C241" s="5"/>
       <c r="D241" s="5"/>
       <c r="E241" s="5"/>
-      <c r="G241" s="17"/>
-      <c r="H241" s="17"/>
-      <c r="I241" s="17"/>
-      <c r="J241" s="18"/>
+      <c r="G241" s="10"/>
+      <c r="H241" s="10"/>
+      <c r="I241" s="10"/>
+      <c r="J241" s="11"/>
     </row>
     <row r="242" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="5"/>
@@ -5774,10 +5775,10 @@
       <c r="C242" s="5"/>
       <c r="D242" s="5"/>
       <c r="E242" s="5"/>
-      <c r="G242" s="17"/>
-      <c r="H242" s="17"/>
-      <c r="I242" s="17"/>
-      <c r="J242" s="18"/>
+      <c r="G242" s="10"/>
+      <c r="H242" s="10"/>
+      <c r="I242" s="10"/>
+      <c r="J242" s="11"/>
     </row>
     <row r="243" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="5"/>
@@ -5785,10 +5786,10 @@
       <c r="C243" s="5"/>
       <c r="D243" s="5"/>
       <c r="E243" s="5"/>
-      <c r="G243" s="17"/>
-      <c r="H243" s="17"/>
-      <c r="I243" s="17"/>
-      <c r="J243" s="18"/>
+      <c r="G243" s="10"/>
+      <c r="H243" s="10"/>
+      <c r="I243" s="10"/>
+      <c r="J243" s="11"/>
     </row>
     <row r="244" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="5"/>
@@ -5796,10 +5797,10 @@
       <c r="C244" s="5"/>
       <c r="D244" s="5"/>
       <c r="E244" s="5"/>
-      <c r="G244" s="17"/>
-      <c r="H244" s="17"/>
-      <c r="I244" s="17"/>
-      <c r="J244" s="18"/>
+      <c r="G244" s="10"/>
+      <c r="H244" s="10"/>
+      <c r="I244" s="10"/>
+      <c r="J244" s="11"/>
     </row>
     <row r="245" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="5"/>
@@ -5807,10 +5808,10 @@
       <c r="C245" s="5"/>
       <c r="D245" s="5"/>
       <c r="E245" s="5"/>
-      <c r="G245" s="17"/>
-      <c r="H245" s="17"/>
-      <c r="I245" s="17"/>
-      <c r="J245" s="18"/>
+      <c r="G245" s="10"/>
+      <c r="H245" s="10"/>
+      <c r="I245" s="10"/>
+      <c r="J245" s="11"/>
     </row>
     <row r="246" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="5"/>
@@ -5818,10 +5819,10 @@
       <c r="C246" s="5"/>
       <c r="D246" s="5"/>
       <c r="E246" s="5"/>
-      <c r="G246" s="17"/>
-      <c r="H246" s="17"/>
-      <c r="I246" s="17"/>
-      <c r="J246" s="18"/>
+      <c r="G246" s="10"/>
+      <c r="H246" s="10"/>
+      <c r="I246" s="10"/>
+      <c r="J246" s="11"/>
     </row>
     <row r="247" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="5"/>
@@ -5829,10 +5830,10 @@
       <c r="C247" s="5"/>
       <c r="D247" s="5"/>
       <c r="E247" s="5"/>
-      <c r="G247" s="17"/>
-      <c r="H247" s="17"/>
-      <c r="I247" s="17"/>
-      <c r="J247" s="18"/>
+      <c r="G247" s="10"/>
+      <c r="H247" s="10"/>
+      <c r="I247" s="10"/>
+      <c r="J247" s="11"/>
     </row>
     <row r="248" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="5"/>
@@ -5840,10 +5841,10 @@
       <c r="C248" s="5"/>
       <c r="D248" s="5"/>
       <c r="E248" s="5"/>
-      <c r="G248" s="17"/>
-      <c r="H248" s="17"/>
-      <c r="I248" s="17"/>
-      <c r="J248" s="18"/>
+      <c r="G248" s="10"/>
+      <c r="H248" s="10"/>
+      <c r="I248" s="10"/>
+      <c r="J248" s="11"/>
     </row>
     <row r="249" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="5"/>
@@ -5851,10 +5852,10 @@
       <c r="C249" s="5"/>
       <c r="D249" s="5"/>
       <c r="E249" s="5"/>
-      <c r="G249" s="17"/>
-      <c r="H249" s="17"/>
-      <c r="I249" s="17"/>
-      <c r="J249" s="18"/>
+      <c r="G249" s="10"/>
+      <c r="H249" s="10"/>
+      <c r="I249" s="10"/>
+      <c r="J249" s="11"/>
     </row>
     <row r="250" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="5"/>
@@ -5862,10 +5863,10 @@
       <c r="C250" s="5"/>
       <c r="D250" s="5"/>
       <c r="E250" s="5"/>
-      <c r="G250" s="17"/>
-      <c r="H250" s="17"/>
-      <c r="I250" s="17"/>
-      <c r="J250" s="18"/>
+      <c r="G250" s="10"/>
+      <c r="H250" s="10"/>
+      <c r="I250" s="10"/>
+      <c r="J250" s="11"/>
     </row>
     <row r="251" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="5"/>
@@ -5873,10 +5874,10 @@
       <c r="C251" s="5"/>
       <c r="D251" s="5"/>
       <c r="E251" s="5"/>
-      <c r="G251" s="17"/>
-      <c r="H251" s="17"/>
-      <c r="I251" s="17"/>
-      <c r="J251" s="18"/>
+      <c r="G251" s="10"/>
+      <c r="H251" s="10"/>
+      <c r="I251" s="10"/>
+      <c r="J251" s="11"/>
     </row>
     <row r="252" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="5"/>
@@ -5884,10 +5885,10 @@
       <c r="C252" s="5"/>
       <c r="D252" s="5"/>
       <c r="E252" s="5"/>
-      <c r="G252" s="17"/>
-      <c r="H252" s="17"/>
-      <c r="I252" s="17"/>
-      <c r="J252" s="18"/>
+      <c r="G252" s="10"/>
+      <c r="H252" s="10"/>
+      <c r="I252" s="10"/>
+      <c r="J252" s="11"/>
     </row>
     <row r="253" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="5"/>
@@ -5895,10 +5896,10 @@
       <c r="C253" s="5"/>
       <c r="D253" s="5"/>
       <c r="E253" s="5"/>
-      <c r="G253" s="17"/>
-      <c r="H253" s="17"/>
-      <c r="I253" s="17"/>
-      <c r="J253" s="18"/>
+      <c r="G253" s="10"/>
+      <c r="H253" s="10"/>
+      <c r="I253" s="10"/>
+      <c r="J253" s="11"/>
     </row>
     <row r="254" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="5"/>
@@ -5906,10 +5907,10 @@
       <c r="C254" s="5"/>
       <c r="D254" s="5"/>
       <c r="E254" s="5"/>
-      <c r="G254" s="17"/>
-      <c r="H254" s="17"/>
-      <c r="I254" s="17"/>
-      <c r="J254" s="18"/>
+      <c r="G254" s="10"/>
+      <c r="H254" s="10"/>
+      <c r="I254" s="10"/>
+      <c r="J254" s="11"/>
     </row>
     <row r="255" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="5"/>
@@ -5917,10 +5918,10 @@
       <c r="C255" s="5"/>
       <c r="D255" s="5"/>
       <c r="E255" s="5"/>
-      <c r="G255" s="17"/>
-      <c r="H255" s="17"/>
-      <c r="I255" s="17"/>
-      <c r="J255" s="18"/>
+      <c r="G255" s="10"/>
+      <c r="H255" s="10"/>
+      <c r="I255" s="10"/>
+      <c r="J255" s="11"/>
     </row>
     <row r="256" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="5"/>
@@ -5928,10 +5929,10 @@
       <c r="C256" s="5"/>
       <c r="D256" s="5"/>
       <c r="E256" s="5"/>
-      <c r="G256" s="17"/>
-      <c r="H256" s="17"/>
-      <c r="I256" s="17"/>
-      <c r="J256" s="18"/>
+      <c r="G256" s="10"/>
+      <c r="H256" s="10"/>
+      <c r="I256" s="10"/>
+      <c r="J256" s="11"/>
     </row>
     <row r="257" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="5"/>
@@ -5939,10 +5940,10 @@
       <c r="C257" s="5"/>
       <c r="D257" s="5"/>
       <c r="E257" s="5"/>
-      <c r="G257" s="17"/>
-      <c r="H257" s="17"/>
-      <c r="I257" s="17"/>
-      <c r="J257" s="18"/>
+      <c r="G257" s="10"/>
+      <c r="H257" s="10"/>
+      <c r="I257" s="10"/>
+      <c r="J257" s="11"/>
     </row>
     <row r="258" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="5"/>
@@ -5950,10 +5951,10 @@
       <c r="C258" s="5"/>
       <c r="D258" s="5"/>
       <c r="E258" s="5"/>
-      <c r="G258" s="17"/>
-      <c r="H258" s="17"/>
-      <c r="I258" s="17"/>
-      <c r="J258" s="18"/>
+      <c r="G258" s="10"/>
+      <c r="H258" s="10"/>
+      <c r="I258" s="10"/>
+      <c r="J258" s="11"/>
     </row>
     <row r="259" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="5"/>
@@ -5961,10 +5962,10 @@
       <c r="C259" s="5"/>
       <c r="D259" s="5"/>
       <c r="E259" s="5"/>
-      <c r="G259" s="17"/>
-      <c r="H259" s="17"/>
-      <c r="I259" s="17"/>
-      <c r="J259" s="18"/>
+      <c r="G259" s="10"/>
+      <c r="H259" s="10"/>
+      <c r="I259" s="10"/>
+      <c r="J259" s="11"/>
     </row>
     <row r="260" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="5"/>
@@ -5972,10 +5973,10 @@
       <c r="C260" s="5"/>
       <c r="D260" s="5"/>
       <c r="E260" s="5"/>
-      <c r="G260" s="17"/>
-      <c r="H260" s="17"/>
-      <c r="I260" s="17"/>
-      <c r="J260" s="18"/>
+      <c r="G260" s="10"/>
+      <c r="H260" s="10"/>
+      <c r="I260" s="10"/>
+      <c r="J260" s="11"/>
     </row>
     <row r="261" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="5"/>
@@ -5983,10 +5984,10 @@
       <c r="C261" s="5"/>
       <c r="D261" s="5"/>
       <c r="E261" s="5"/>
-      <c r="G261" s="17"/>
-      <c r="H261" s="17"/>
-      <c r="I261" s="17"/>
-      <c r="J261" s="18"/>
+      <c r="G261" s="10"/>
+      <c r="H261" s="10"/>
+      <c r="I261" s="10"/>
+      <c r="J261" s="11"/>
     </row>
     <row r="262" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="5"/>
@@ -5994,10 +5995,10 @@
       <c r="C262" s="5"/>
       <c r="D262" s="5"/>
       <c r="E262" s="5"/>
-      <c r="G262" s="17"/>
-      <c r="H262" s="17"/>
-      <c r="I262" s="17"/>
-      <c r="J262" s="18"/>
+      <c r="G262" s="10"/>
+      <c r="H262" s="10"/>
+      <c r="I262" s="10"/>
+      <c r="J262" s="11"/>
     </row>
     <row r="263" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="5"/>
@@ -6005,10 +6006,10 @@
       <c r="C263" s="5"/>
       <c r="D263" s="5"/>
       <c r="E263" s="5"/>
-      <c r="G263" s="17"/>
-      <c r="H263" s="17"/>
-      <c r="I263" s="17"/>
-      <c r="J263" s="18"/>
+      <c r="G263" s="10"/>
+      <c r="H263" s="10"/>
+      <c r="I263" s="10"/>
+      <c r="J263" s="11"/>
     </row>
     <row r="264" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="5"/>
@@ -6016,10 +6017,10 @@
       <c r="C264" s="5"/>
       <c r="D264" s="5"/>
       <c r="E264" s="5"/>
-      <c r="G264" s="17"/>
-      <c r="H264" s="17"/>
-      <c r="I264" s="17"/>
-      <c r="J264" s="18"/>
+      <c r="G264" s="10"/>
+      <c r="H264" s="10"/>
+      <c r="I264" s="10"/>
+      <c r="J264" s="11"/>
     </row>
     <row r="265" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="5"/>
@@ -6027,10 +6028,10 @@
       <c r="C265" s="5"/>
       <c r="D265" s="5"/>
       <c r="E265" s="5"/>
-      <c r="G265" s="17"/>
-      <c r="H265" s="17"/>
-      <c r="I265" s="17"/>
-      <c r="J265" s="18"/>
+      <c r="G265" s="10"/>
+      <c r="H265" s="10"/>
+      <c r="I265" s="10"/>
+      <c r="J265" s="11"/>
     </row>
     <row r="266" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="5"/>
@@ -6038,10 +6039,10 @@
       <c r="C266" s="5"/>
       <c r="D266" s="5"/>
       <c r="E266" s="5"/>
-      <c r="G266" s="17"/>
-      <c r="H266" s="17"/>
-      <c r="I266" s="17"/>
-      <c r="J266" s="18"/>
+      <c r="G266" s="10"/>
+      <c r="H266" s="10"/>
+      <c r="I266" s="10"/>
+      <c r="J266" s="11"/>
     </row>
     <row r="267" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="5"/>
@@ -6049,10 +6050,10 @@
       <c r="C267" s="5"/>
       <c r="D267" s="5"/>
       <c r="E267" s="5"/>
-      <c r="G267" s="17"/>
-      <c r="H267" s="17"/>
-      <c r="I267" s="17"/>
-      <c r="J267" s="18"/>
+      <c r="G267" s="10"/>
+      <c r="H267" s="10"/>
+      <c r="I267" s="10"/>
+      <c r="J267" s="11"/>
     </row>
     <row r="268" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="5"/>
@@ -6060,10 +6061,10 @@
       <c r="C268" s="5"/>
       <c r="D268" s="5"/>
       <c r="E268" s="5"/>
-      <c r="G268" s="17"/>
-      <c r="H268" s="17"/>
-      <c r="I268" s="17"/>
-      <c r="J268" s="18"/>
+      <c r="G268" s="10"/>
+      <c r="H268" s="10"/>
+      <c r="I268" s="10"/>
+      <c r="J268" s="11"/>
     </row>
     <row r="269" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="5"/>
@@ -6071,10 +6072,10 @@
       <c r="C269" s="5"/>
       <c r="D269" s="5"/>
       <c r="E269" s="5"/>
-      <c r="G269" s="17"/>
-      <c r="H269" s="17"/>
-      <c r="I269" s="17"/>
-      <c r="J269" s="18"/>
+      <c r="G269" s="10"/>
+      <c r="H269" s="10"/>
+      <c r="I269" s="10"/>
+      <c r="J269" s="11"/>
     </row>
     <row r="270" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="5"/>
@@ -6082,10 +6083,10 @@
       <c r="C270" s="5"/>
       <c r="D270" s="5"/>
       <c r="E270" s="5"/>
-      <c r="G270" s="17"/>
-      <c r="H270" s="17"/>
-      <c r="I270" s="17"/>
-      <c r="J270" s="18"/>
+      <c r="G270" s="10"/>
+      <c r="H270" s="10"/>
+      <c r="I270" s="10"/>
+      <c r="J270" s="11"/>
     </row>
     <row r="271" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="5"/>
@@ -6093,10 +6094,10 @@
       <c r="C271" s="5"/>
       <c r="D271" s="5"/>
       <c r="E271" s="5"/>
-      <c r="G271" s="17"/>
-      <c r="H271" s="17"/>
-      <c r="I271" s="17"/>
-      <c r="J271" s="18"/>
+      <c r="G271" s="10"/>
+      <c r="H271" s="10"/>
+      <c r="I271" s="10"/>
+      <c r="J271" s="11"/>
     </row>
     <row r="272" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="5"/>
@@ -6104,10 +6105,10 @@
       <c r="C272" s="5"/>
       <c r="D272" s="5"/>
       <c r="E272" s="5"/>
-      <c r="G272" s="17"/>
-      <c r="H272" s="17"/>
-      <c r="I272" s="17"/>
-      <c r="J272" s="18"/>
+      <c r="G272" s="10"/>
+      <c r="H272" s="10"/>
+      <c r="I272" s="10"/>
+      <c r="J272" s="11"/>
     </row>
     <row r="273" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="5"/>
@@ -6115,10 +6116,10 @@
       <c r="C273" s="5"/>
       <c r="D273" s="5"/>
       <c r="E273" s="5"/>
-      <c r="G273" s="17"/>
-      <c r="H273" s="17"/>
-      <c r="I273" s="17"/>
-      <c r="J273" s="18"/>
+      <c r="G273" s="10"/>
+      <c r="H273" s="10"/>
+      <c r="I273" s="10"/>
+      <c r="J273" s="11"/>
     </row>
     <row r="274" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="5"/>
@@ -6126,10 +6127,10 @@
       <c r="C274" s="5"/>
       <c r="D274" s="5"/>
       <c r="E274" s="5"/>
-      <c r="G274" s="17"/>
-      <c r="H274" s="17"/>
-      <c r="I274" s="17"/>
-      <c r="J274" s="18"/>
+      <c r="G274" s="10"/>
+      <c r="H274" s="10"/>
+      <c r="I274" s="10"/>
+      <c r="J274" s="11"/>
     </row>
     <row r="275" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="5"/>
@@ -6137,10 +6138,10 @@
       <c r="C275" s="5"/>
       <c r="D275" s="5"/>
       <c r="E275" s="5"/>
-      <c r="G275" s="17"/>
-      <c r="H275" s="17"/>
-      <c r="I275" s="17"/>
-      <c r="J275" s="18"/>
+      <c r="G275" s="10"/>
+      <c r="H275" s="10"/>
+      <c r="I275" s="10"/>
+      <c r="J275" s="11"/>
     </row>
     <row r="276" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="5"/>
@@ -6148,10 +6149,10 @@
       <c r="C276" s="5"/>
       <c r="D276" s="5"/>
       <c r="E276" s="5"/>
-      <c r="G276" s="17"/>
-      <c r="H276" s="17"/>
-      <c r="I276" s="17"/>
-      <c r="J276" s="18"/>
+      <c r="G276" s="10"/>
+      <c r="H276" s="10"/>
+      <c r="I276" s="10"/>
+      <c r="J276" s="11"/>
     </row>
     <row r="277" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="5"/>
@@ -6159,10 +6160,10 @@
       <c r="C277" s="5"/>
       <c r="D277" s="5"/>
       <c r="E277" s="5"/>
-      <c r="G277" s="17"/>
-      <c r="H277" s="17"/>
-      <c r="I277" s="17"/>
-      <c r="J277" s="18"/>
+      <c r="G277" s="10"/>
+      <c r="H277" s="10"/>
+      <c r="I277" s="10"/>
+      <c r="J277" s="11"/>
     </row>
     <row r="278" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="5"/>
@@ -6170,10 +6171,10 @@
       <c r="C278" s="5"/>
       <c r="D278" s="5"/>
       <c r="E278" s="5"/>
-      <c r="G278" s="17"/>
-      <c r="H278" s="17"/>
-      <c r="I278" s="17"/>
-      <c r="J278" s="18"/>
+      <c r="G278" s="10"/>
+      <c r="H278" s="10"/>
+      <c r="I278" s="10"/>
+      <c r="J278" s="11"/>
     </row>
     <row r="279" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="5"/>
@@ -6181,10 +6182,10 @@
       <c r="C279" s="5"/>
       <c r="D279" s="5"/>
       <c r="E279" s="5"/>
-      <c r="G279" s="17"/>
-      <c r="H279" s="17"/>
-      <c r="I279" s="17"/>
-      <c r="J279" s="18"/>
+      <c r="G279" s="10"/>
+      <c r="H279" s="10"/>
+      <c r="I279" s="10"/>
+      <c r="J279" s="11"/>
     </row>
     <row r="280" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="5"/>
@@ -6192,10 +6193,10 @@
       <c r="C280" s="5"/>
       <c r="D280" s="5"/>
       <c r="E280" s="5"/>
-      <c r="G280" s="17"/>
-      <c r="H280" s="17"/>
-      <c r="I280" s="17"/>
-      <c r="J280" s="18"/>
+      <c r="G280" s="10"/>
+      <c r="H280" s="10"/>
+      <c r="I280" s="10"/>
+      <c r="J280" s="11"/>
     </row>
     <row r="281" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="5"/>
@@ -6203,10 +6204,10 @@
       <c r="C281" s="5"/>
       <c r="D281" s="5"/>
       <c r="E281" s="5"/>
-      <c r="G281" s="17"/>
-      <c r="H281" s="17"/>
-      <c r="I281" s="17"/>
-      <c r="J281" s="18"/>
+      <c r="G281" s="10"/>
+      <c r="H281" s="10"/>
+      <c r="I281" s="10"/>
+      <c r="J281" s="11"/>
     </row>
     <row r="282" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="5"/>
@@ -6214,10 +6215,10 @@
       <c r="C282" s="5"/>
       <c r="D282" s="5"/>
       <c r="E282" s="5"/>
-      <c r="G282" s="17"/>
-      <c r="H282" s="17"/>
-      <c r="I282" s="17"/>
-      <c r="J282" s="18"/>
+      <c r="G282" s="10"/>
+      <c r="H282" s="10"/>
+      <c r="I282" s="10"/>
+      <c r="J282" s="11"/>
     </row>
     <row r="283" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="5"/>
@@ -6225,10 +6226,10 @@
       <c r="C283" s="5"/>
       <c r="D283" s="5"/>
       <c r="E283" s="5"/>
-      <c r="G283" s="17"/>
-      <c r="H283" s="17"/>
-      <c r="I283" s="17"/>
-      <c r="J283" s="18"/>
+      <c r="G283" s="10"/>
+      <c r="H283" s="10"/>
+      <c r="I283" s="10"/>
+      <c r="J283" s="11"/>
     </row>
     <row r="284" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="5"/>
@@ -6236,10 +6237,10 @@
       <c r="C284" s="5"/>
       <c r="D284" s="5"/>
       <c r="E284" s="5"/>
-      <c r="G284" s="17"/>
-      <c r="H284" s="17"/>
-      <c r="I284" s="17"/>
-      <c r="J284" s="18"/>
+      <c r="G284" s="10"/>
+      <c r="H284" s="10"/>
+      <c r="I284" s="10"/>
+      <c r="J284" s="11"/>
     </row>
     <row r="285" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="5"/>
@@ -6247,10 +6248,10 @@
       <c r="C285" s="5"/>
       <c r="D285" s="5"/>
       <c r="E285" s="5"/>
-      <c r="G285" s="17"/>
-      <c r="H285" s="17"/>
-      <c r="I285" s="17"/>
-      <c r="J285" s="18"/>
+      <c r="G285" s="10"/>
+      <c r="H285" s="10"/>
+      <c r="I285" s="10"/>
+      <c r="J285" s="11"/>
     </row>
     <row r="286" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="5"/>
@@ -6258,10 +6259,10 @@
       <c r="C286" s="5"/>
       <c r="D286" s="5"/>
       <c r="E286" s="5"/>
-      <c r="G286" s="17"/>
-      <c r="H286" s="17"/>
-      <c r="I286" s="17"/>
-      <c r="J286" s="18"/>
+      <c r="G286" s="10"/>
+      <c r="H286" s="10"/>
+      <c r="I286" s="10"/>
+      <c r="J286" s="11"/>
     </row>
     <row r="287" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="5"/>
@@ -6269,10 +6270,10 @@
       <c r="C287" s="5"/>
       <c r="D287" s="5"/>
       <c r="E287" s="5"/>
-      <c r="G287" s="17"/>
-      <c r="H287" s="17"/>
-      <c r="I287" s="17"/>
-      <c r="J287" s="18"/>
+      <c r="G287" s="10"/>
+      <c r="H287" s="10"/>
+      <c r="I287" s="10"/>
+      <c r="J287" s="11"/>
     </row>
     <row r="288" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="5"/>
@@ -6280,10 +6281,10 @@
       <c r="C288" s="5"/>
       <c r="D288" s="5"/>
       <c r="E288" s="5"/>
-      <c r="G288" s="17"/>
-      <c r="H288" s="17"/>
-      <c r="I288" s="17"/>
-      <c r="J288" s="18"/>
+      <c r="G288" s="10"/>
+      <c r="H288" s="10"/>
+      <c r="I288" s="10"/>
+      <c r="J288" s="11"/>
     </row>
     <row r="289" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="5"/>
@@ -6291,10 +6292,10 @@
       <c r="C289" s="5"/>
       <c r="D289" s="5"/>
       <c r="E289" s="5"/>
-      <c r="G289" s="17"/>
-      <c r="H289" s="17"/>
-      <c r="I289" s="17"/>
-      <c r="J289" s="18"/>
+      <c r="G289" s="10"/>
+      <c r="H289" s="10"/>
+      <c r="I289" s="10"/>
+      <c r="J289" s="11"/>
     </row>
     <row r="290" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="5"/>
@@ -6302,10 +6303,10 @@
       <c r="C290" s="5"/>
       <c r="D290" s="5"/>
       <c r="E290" s="5"/>
-      <c r="G290" s="17"/>
-      <c r="H290" s="17"/>
-      <c r="I290" s="17"/>
-      <c r="J290" s="18"/>
+      <c r="G290" s="10"/>
+      <c r="H290" s="10"/>
+      <c r="I290" s="10"/>
+      <c r="J290" s="11"/>
     </row>
     <row r="291" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="5"/>
@@ -6313,10 +6314,10 @@
       <c r="C291" s="5"/>
       <c r="D291" s="5"/>
       <c r="E291" s="5"/>
-      <c r="G291" s="17"/>
-      <c r="H291" s="17"/>
-      <c r="I291" s="17"/>
-      <c r="J291" s="18"/>
+      <c r="G291" s="10"/>
+      <c r="H291" s="10"/>
+      <c r="I291" s="10"/>
+      <c r="J291" s="11"/>
     </row>
     <row r="292" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="5"/>
@@ -6324,10 +6325,10 @@
       <c r="C292" s="5"/>
       <c r="D292" s="5"/>
       <c r="E292" s="5"/>
-      <c r="G292" s="17"/>
-      <c r="H292" s="17"/>
-      <c r="I292" s="17"/>
-      <c r="J292" s="18"/>
+      <c r="G292" s="10"/>
+      <c r="H292" s="10"/>
+      <c r="I292" s="10"/>
+      <c r="J292" s="11"/>
     </row>
     <row r="293" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="5"/>
@@ -6335,10 +6336,10 @@
       <c r="C293" s="5"/>
       <c r="D293" s="5"/>
       <c r="E293" s="5"/>
-      <c r="G293" s="17"/>
-      <c r="H293" s="17"/>
-      <c r="I293" s="17"/>
-      <c r="J293" s="18"/>
+      <c r="G293" s="10"/>
+      <c r="H293" s="10"/>
+      <c r="I293" s="10"/>
+      <c r="J293" s="11"/>
     </row>
     <row r="294" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="5"/>
@@ -6346,10 +6347,10 @@
       <c r="C294" s="5"/>
       <c r="D294" s="5"/>
       <c r="E294" s="5"/>
-      <c r="G294" s="17"/>
-      <c r="H294" s="17"/>
-      <c r="I294" s="17"/>
-      <c r="J294" s="18"/>
+      <c r="G294" s="10"/>
+      <c r="H294" s="10"/>
+      <c r="I294" s="10"/>
+      <c r="J294" s="11"/>
     </row>
     <row r="295" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="5"/>
@@ -6357,10 +6358,10 @@
       <c r="C295" s="5"/>
       <c r="D295" s="5"/>
       <c r="E295" s="5"/>
-      <c r="G295" s="17"/>
-      <c r="H295" s="17"/>
-      <c r="I295" s="17"/>
-      <c r="J295" s="18"/>
+      <c r="G295" s="10"/>
+      <c r="H295" s="10"/>
+      <c r="I295" s="10"/>
+      <c r="J295" s="11"/>
     </row>
     <row r="296" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="5"/>
@@ -6368,10 +6369,10 @@
       <c r="C296" s="5"/>
       <c r="D296" s="5"/>
       <c r="E296" s="5"/>
-      <c r="G296" s="17"/>
-      <c r="H296" s="17"/>
-      <c r="I296" s="17"/>
-      <c r="J296" s="18"/>
+      <c r="G296" s="10"/>
+      <c r="H296" s="10"/>
+      <c r="I296" s="10"/>
+      <c r="J296" s="11"/>
     </row>
     <row r="297" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="5"/>
@@ -6379,10 +6380,10 @@
       <c r="C297" s="5"/>
       <c r="D297" s="5"/>
       <c r="E297" s="5"/>
-      <c r="G297" s="17"/>
-      <c r="H297" s="17"/>
-      <c r="I297" s="17"/>
-      <c r="J297" s="18"/>
+      <c r="G297" s="10"/>
+      <c r="H297" s="10"/>
+      <c r="I297" s="10"/>
+      <c r="J297" s="11"/>
     </row>
     <row r="298" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="5"/>
@@ -6390,10 +6391,10 @@
       <c r="C298" s="5"/>
       <c r="D298" s="5"/>
       <c r="E298" s="5"/>
-      <c r="G298" s="17"/>
-      <c r="H298" s="17"/>
-      <c r="I298" s="17"/>
-      <c r="J298" s="18"/>
+      <c r="G298" s="10"/>
+      <c r="H298" s="10"/>
+      <c r="I298" s="10"/>
+      <c r="J298" s="11"/>
     </row>
     <row r="299" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="5"/>
@@ -6401,10 +6402,10 @@
       <c r="C299" s="5"/>
       <c r="D299" s="5"/>
       <c r="E299" s="5"/>
-      <c r="G299" s="17"/>
-      <c r="H299" s="17"/>
-      <c r="I299" s="17"/>
-      <c r="J299" s="18"/>
+      <c r="G299" s="10"/>
+      <c r="H299" s="10"/>
+      <c r="I299" s="10"/>
+      <c r="J299" s="11"/>
     </row>
     <row r="300" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="5"/>
@@ -6412,10 +6413,10 @@
       <c r="C300" s="5"/>
       <c r="D300" s="5"/>
       <c r="E300" s="5"/>
-      <c r="G300" s="17"/>
-      <c r="H300" s="17"/>
-      <c r="I300" s="17"/>
-      <c r="J300" s="18"/>
+      <c r="G300" s="10"/>
+      <c r="H300" s="10"/>
+      <c r="I300" s="10"/>
+      <c r="J300" s="11"/>
     </row>
     <row r="301" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="5"/>
@@ -6423,10 +6424,10 @@
       <c r="C301" s="5"/>
       <c r="D301" s="5"/>
       <c r="E301" s="5"/>
-      <c r="G301" s="17"/>
-      <c r="H301" s="17"/>
-      <c r="I301" s="17"/>
-      <c r="J301" s="18"/>
+      <c r="G301" s="10"/>
+      <c r="H301" s="10"/>
+      <c r="I301" s="10"/>
+      <c r="J301" s="11"/>
     </row>
     <row r="302" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="5"/>
@@ -6434,10 +6435,10 @@
       <c r="C302" s="5"/>
       <c r="D302" s="5"/>
       <c r="E302" s="5"/>
-      <c r="G302" s="17"/>
-      <c r="H302" s="17"/>
-      <c r="I302" s="17"/>
-      <c r="J302" s="18"/>
+      <c r="G302" s="10"/>
+      <c r="H302" s="10"/>
+      <c r="I302" s="10"/>
+      <c r="J302" s="11"/>
     </row>
     <row r="303" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="5"/>
@@ -6445,10 +6446,10 @@
       <c r="C303" s="5"/>
       <c r="D303" s="5"/>
       <c r="E303" s="5"/>
-      <c r="G303" s="17"/>
-      <c r="H303" s="17"/>
-      <c r="I303" s="17"/>
-      <c r="J303" s="18"/>
+      <c r="G303" s="10"/>
+      <c r="H303" s="10"/>
+      <c r="I303" s="10"/>
+      <c r="J303" s="11"/>
     </row>
     <row r="304" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="5"/>
@@ -6456,10 +6457,10 @@
       <c r="C304" s="5"/>
       <c r="D304" s="5"/>
       <c r="E304" s="5"/>
-      <c r="G304" s="17"/>
-      <c r="H304" s="17"/>
-      <c r="I304" s="17"/>
-      <c r="J304" s="18"/>
+      <c r="G304" s="10"/>
+      <c r="H304" s="10"/>
+      <c r="I304" s="10"/>
+      <c r="J304" s="11"/>
     </row>
     <row r="305" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="5"/>
@@ -6467,10 +6468,10 @@
       <c r="C305" s="5"/>
       <c r="D305" s="5"/>
       <c r="E305" s="5"/>
-      <c r="G305" s="17"/>
-      <c r="H305" s="17"/>
-      <c r="I305" s="17"/>
-      <c r="J305" s="18"/>
+      <c r="G305" s="10"/>
+      <c r="H305" s="10"/>
+      <c r="I305" s="10"/>
+      <c r="J305" s="11"/>
     </row>
     <row r="306" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="5"/>
@@ -6478,10 +6479,10 @@
       <c r="C306" s="5"/>
       <c r="D306" s="5"/>
       <c r="E306" s="5"/>
-      <c r="G306" s="17"/>
-      <c r="H306" s="17"/>
-      <c r="I306" s="17"/>
-      <c r="J306" s="18"/>
+      <c r="G306" s="10"/>
+      <c r="H306" s="10"/>
+      <c r="I306" s="10"/>
+      <c r="J306" s="11"/>
     </row>
     <row r="307" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="5"/>
@@ -6489,10 +6490,10 @@
       <c r="C307" s="5"/>
       <c r="D307" s="5"/>
       <c r="E307" s="5"/>
-      <c r="G307" s="17"/>
-      <c r="H307" s="17"/>
-      <c r="I307" s="17"/>
-      <c r="J307" s="18"/>
+      <c r="G307" s="10"/>
+      <c r="H307" s="10"/>
+      <c r="I307" s="10"/>
+      <c r="J307" s="11"/>
     </row>
     <row r="308" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="5"/>
@@ -6500,10 +6501,10 @@
       <c r="C308" s="5"/>
       <c r="D308" s="5"/>
       <c r="E308" s="5"/>
-      <c r="G308" s="17"/>
-      <c r="H308" s="17"/>
-      <c r="I308" s="17"/>
-      <c r="J308" s="18"/>
+      <c r="G308" s="10"/>
+      <c r="H308" s="10"/>
+      <c r="I308" s="10"/>
+      <c r="J308" s="11"/>
     </row>
     <row r="309" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="5"/>
@@ -6511,10 +6512,10 @@
       <c r="C309" s="5"/>
       <c r="D309" s="5"/>
       <c r="E309" s="5"/>
-      <c r="G309" s="17"/>
-      <c r="H309" s="17"/>
-      <c r="I309" s="17"/>
-      <c r="J309" s="18"/>
+      <c r="G309" s="10"/>
+      <c r="H309" s="10"/>
+      <c r="I309" s="10"/>
+      <c r="J309" s="11"/>
     </row>
     <row r="310" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="5"/>
@@ -6522,10 +6523,10 @@
       <c r="C310" s="5"/>
       <c r="D310" s="5"/>
       <c r="E310" s="5"/>
-      <c r="G310" s="17"/>
-      <c r="H310" s="17"/>
-      <c r="I310" s="17"/>
-      <c r="J310" s="18"/>
+      <c r="G310" s="10"/>
+      <c r="H310" s="10"/>
+      <c r="I310" s="10"/>
+      <c r="J310" s="11"/>
     </row>
     <row r="311" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="5"/>
@@ -6533,10 +6534,10 @@
       <c r="C311" s="5"/>
       <c r="D311" s="5"/>
       <c r="E311" s="5"/>
-      <c r="G311" s="17"/>
-      <c r="H311" s="17"/>
-      <c r="I311" s="17"/>
-      <c r="J311" s="18"/>
+      <c r="G311" s="10"/>
+      <c r="H311" s="10"/>
+      <c r="I311" s="10"/>
+      <c r="J311" s="11"/>
     </row>
     <row r="312" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="5"/>
@@ -6544,10 +6545,10 @@
       <c r="C312" s="5"/>
       <c r="D312" s="5"/>
       <c r="E312" s="5"/>
-      <c r="G312" s="17"/>
-      <c r="H312" s="17"/>
-      <c r="I312" s="17"/>
-      <c r="J312" s="18"/>
+      <c r="G312" s="10"/>
+      <c r="H312" s="10"/>
+      <c r="I312" s="10"/>
+      <c r="J312" s="11"/>
     </row>
     <row r="313" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="5"/>
@@ -6555,10 +6556,10 @@
       <c r="C313" s="5"/>
       <c r="D313" s="5"/>
       <c r="E313" s="5"/>
-      <c r="G313" s="17"/>
-      <c r="H313" s="17"/>
-      <c r="I313" s="17"/>
-      <c r="J313" s="18"/>
+      <c r="G313" s="10"/>
+      <c r="H313" s="10"/>
+      <c r="I313" s="10"/>
+      <c r="J313" s="11"/>
     </row>
     <row r="314" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="5"/>
@@ -6566,10 +6567,10 @@
       <c r="C314" s="5"/>
       <c r="D314" s="5"/>
       <c r="E314" s="5"/>
-      <c r="G314" s="17"/>
-      <c r="H314" s="17"/>
-      <c r="I314" s="17"/>
-      <c r="J314" s="18"/>
+      <c r="G314" s="10"/>
+      <c r="H314" s="10"/>
+      <c r="I314" s="10"/>
+      <c r="J314" s="11"/>
     </row>
     <row r="315" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="5"/>
@@ -6577,10 +6578,10 @@
       <c r="C315" s="5"/>
       <c r="D315" s="5"/>
       <c r="E315" s="5"/>
-      <c r="G315" s="17"/>
-      <c r="H315" s="17"/>
-      <c r="I315" s="17"/>
-      <c r="J315" s="18"/>
+      <c r="G315" s="10"/>
+      <c r="H315" s="10"/>
+      <c r="I315" s="10"/>
+      <c r="J315" s="11"/>
     </row>
     <row r="316" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="5"/>
@@ -6588,10 +6589,10 @@
       <c r="C316" s="5"/>
       <c r="D316" s="5"/>
       <c r="E316" s="5"/>
-      <c r="G316" s="17"/>
-      <c r="H316" s="17"/>
-      <c r="I316" s="17"/>
-      <c r="J316" s="18"/>
+      <c r="G316" s="10"/>
+      <c r="H316" s="10"/>
+      <c r="I316" s="10"/>
+      <c r="J316" s="11"/>
     </row>
     <row r="317" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="5"/>
@@ -6599,10 +6600,10 @@
       <c r="C317" s="5"/>
       <c r="D317" s="5"/>
       <c r="E317" s="5"/>
-      <c r="G317" s="17"/>
-      <c r="H317" s="17"/>
-      <c r="I317" s="17"/>
-      <c r="J317" s="18"/>
+      <c r="G317" s="10"/>
+      <c r="H317" s="10"/>
+      <c r="I317" s="10"/>
+      <c r="J317" s="11"/>
     </row>
     <row r="318" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="5"/>
@@ -6610,10 +6611,10 @@
       <c r="C318" s="5"/>
       <c r="D318" s="5"/>
       <c r="E318" s="5"/>
-      <c r="G318" s="17"/>
-      <c r="H318" s="17"/>
-      <c r="I318" s="17"/>
-      <c r="J318" s="18"/>
+      <c r="G318" s="10"/>
+      <c r="H318" s="10"/>
+      <c r="I318" s="10"/>
+      <c r="J318" s="11"/>
     </row>
     <row r="319" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="5"/>
@@ -6621,10 +6622,10 @@
       <c r="C319" s="5"/>
       <c r="D319" s="5"/>
       <c r="E319" s="5"/>
-      <c r="G319" s="17"/>
-      <c r="H319" s="17"/>
-      <c r="I319" s="17"/>
-      <c r="J319" s="18"/>
+      <c r="G319" s="10"/>
+      <c r="H319" s="10"/>
+      <c r="I319" s="10"/>
+      <c r="J319" s="11"/>
     </row>
     <row r="320" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="5"/>
@@ -6632,10 +6633,10 @@
       <c r="C320" s="5"/>
       <c r="D320" s="5"/>
       <c r="E320" s="5"/>
-      <c r="G320" s="17"/>
-      <c r="H320" s="17"/>
-      <c r="I320" s="17"/>
-      <c r="J320" s="18"/>
+      <c r="G320" s="10"/>
+      <c r="H320" s="10"/>
+      <c r="I320" s="10"/>
+      <c r="J320" s="11"/>
     </row>
     <row r="321" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="5"/>
@@ -6643,10 +6644,10 @@
       <c r="C321" s="5"/>
       <c r="D321" s="5"/>
       <c r="E321" s="5"/>
-      <c r="G321" s="17"/>
-      <c r="H321" s="17"/>
-      <c r="I321" s="17"/>
-      <c r="J321" s="18"/>
+      <c r="G321" s="10"/>
+      <c r="H321" s="10"/>
+      <c r="I321" s="10"/>
+      <c r="J321" s="11"/>
     </row>
     <row r="322" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="5"/>
@@ -6654,10 +6655,10 @@
       <c r="C322" s="5"/>
       <c r="D322" s="5"/>
       <c r="E322" s="5"/>
-      <c r="G322" s="17"/>
-      <c r="H322" s="17"/>
-      <c r="I322" s="17"/>
-      <c r="J322" s="18"/>
+      <c r="G322" s="10"/>
+      <c r="H322" s="10"/>
+      <c r="I322" s="10"/>
+      <c r="J322" s="11"/>
     </row>
     <row r="323" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="5"/>
@@ -6665,10 +6666,10 @@
       <c r="C323" s="5"/>
       <c r="D323" s="5"/>
       <c r="E323" s="5"/>
-      <c r="G323" s="17"/>
-      <c r="H323" s="17"/>
-      <c r="I323" s="17"/>
-      <c r="J323" s="18"/>
+      <c r="G323" s="10"/>
+      <c r="H323" s="10"/>
+      <c r="I323" s="10"/>
+      <c r="J323" s="11"/>
     </row>
     <row r="324" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="5"/>
@@ -6676,10 +6677,10 @@
       <c r="C324" s="5"/>
       <c r="D324" s="5"/>
       <c r="E324" s="5"/>
-      <c r="G324" s="17"/>
-      <c r="H324" s="17"/>
-      <c r="I324" s="17"/>
-      <c r="J324" s="18"/>
+      <c r="G324" s="10"/>
+      <c r="H324" s="10"/>
+      <c r="I324" s="10"/>
+      <c r="J324" s="11"/>
     </row>
     <row r="325" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="5"/>
@@ -6687,10 +6688,10 @@
       <c r="C325" s="5"/>
       <c r="D325" s="5"/>
       <c r="E325" s="5"/>
-      <c r="G325" s="17"/>
-      <c r="H325" s="17"/>
-      <c r="I325" s="17"/>
-      <c r="J325" s="18"/>
+      <c r="G325" s="10"/>
+      <c r="H325" s="10"/>
+      <c r="I325" s="10"/>
+      <c r="J325" s="11"/>
     </row>
     <row r="326" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="5"/>
@@ -6698,10 +6699,10 @@
       <c r="C326" s="5"/>
       <c r="D326" s="5"/>
       <c r="E326" s="5"/>
-      <c r="G326" s="17"/>
-      <c r="H326" s="17"/>
-      <c r="I326" s="17"/>
-      <c r="J326" s="18"/>
+      <c r="G326" s="10"/>
+      <c r="H326" s="10"/>
+      <c r="I326" s="10"/>
+      <c r="J326" s="11"/>
     </row>
     <row r="327" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="5"/>
@@ -6709,10 +6710,10 @@
       <c r="C327" s="5"/>
       <c r="D327" s="5"/>
       <c r="E327" s="5"/>
-      <c r="G327" s="17"/>
-      <c r="H327" s="17"/>
-      <c r="I327" s="17"/>
-      <c r="J327" s="18"/>
+      <c r="G327" s="10"/>
+      <c r="H327" s="10"/>
+      <c r="I327" s="10"/>
+      <c r="J327" s="11"/>
     </row>
     <row r="328" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="5"/>
@@ -6720,10 +6721,10 @@
       <c r="C328" s="5"/>
       <c r="D328" s="5"/>
       <c r="E328" s="5"/>
-      <c r="G328" s="17"/>
-      <c r="H328" s="17"/>
-      <c r="I328" s="17"/>
-      <c r="J328" s="18"/>
+      <c r="G328" s="10"/>
+      <c r="H328" s="10"/>
+      <c r="I328" s="10"/>
+      <c r="J328" s="11"/>
     </row>
     <row r="329" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="5"/>
@@ -6731,10 +6732,10 @@
       <c r="C329" s="5"/>
       <c r="D329" s="5"/>
       <c r="E329" s="5"/>
-      <c r="G329" s="17"/>
-      <c r="H329" s="17"/>
-      <c r="I329" s="17"/>
-      <c r="J329" s="18"/>
+      <c r="G329" s="10"/>
+      <c r="H329" s="10"/>
+      <c r="I329" s="10"/>
+      <c r="J329" s="11"/>
     </row>
     <row r="330" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="5"/>
@@ -6742,10 +6743,10 @@
       <c r="C330" s="5"/>
       <c r="D330" s="5"/>
       <c r="E330" s="5"/>
-      <c r="G330" s="17"/>
-      <c r="H330" s="17"/>
-      <c r="I330" s="17"/>
-      <c r="J330" s="18"/>
+      <c r="G330" s="10"/>
+      <c r="H330" s="10"/>
+      <c r="I330" s="10"/>
+      <c r="J330" s="11"/>
     </row>
     <row r="331" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="5"/>
@@ -6753,10 +6754,10 @@
       <c r="C331" s="5"/>
       <c r="D331" s="5"/>
       <c r="E331" s="5"/>
-      <c r="G331" s="17"/>
-      <c r="H331" s="17"/>
-      <c r="I331" s="17"/>
-      <c r="J331" s="18"/>
+      <c r="G331" s="10"/>
+      <c r="H331" s="10"/>
+      <c r="I331" s="10"/>
+      <c r="J331" s="11"/>
     </row>
     <row r="332" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="5"/>
@@ -6764,10 +6765,10 @@
       <c r="C332" s="5"/>
       <c r="D332" s="5"/>
       <c r="E332" s="5"/>
-      <c r="G332" s="17"/>
-      <c r="H332" s="17"/>
-      <c r="I332" s="17"/>
-      <c r="J332" s="18"/>
+      <c r="G332" s="10"/>
+      <c r="H332" s="10"/>
+      <c r="I332" s="10"/>
+      <c r="J332" s="11"/>
     </row>
     <row r="333" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="5"/>
@@ -6775,10 +6776,10 @@
       <c r="C333" s="5"/>
       <c r="D333" s="5"/>
       <c r="E333" s="5"/>
-      <c r="G333" s="17"/>
-      <c r="H333" s="17"/>
-      <c r="I333" s="17"/>
-      <c r="J333" s="18"/>
+      <c r="G333" s="10"/>
+      <c r="H333" s="10"/>
+      <c r="I333" s="10"/>
+      <c r="J333" s="11"/>
     </row>
     <row r="334" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="5"/>
@@ -6786,10 +6787,10 @@
       <c r="C334" s="5"/>
       <c r="D334" s="5"/>
       <c r="E334" s="5"/>
-      <c r="G334" s="17"/>
-      <c r="H334" s="17"/>
-      <c r="I334" s="17"/>
-      <c r="J334" s="18"/>
+      <c r="G334" s="10"/>
+      <c r="H334" s="10"/>
+      <c r="I334" s="10"/>
+      <c r="J334" s="11"/>
     </row>
     <row r="335" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="5"/>
@@ -6797,10 +6798,10 @@
       <c r="C335" s="5"/>
       <c r="D335" s="5"/>
       <c r="E335" s="5"/>
-      <c r="G335" s="17"/>
-      <c r="H335" s="17"/>
-      <c r="I335" s="17"/>
-      <c r="J335" s="18"/>
+      <c r="G335" s="10"/>
+      <c r="H335" s="10"/>
+      <c r="I335" s="10"/>
+      <c r="J335" s="11"/>
     </row>
     <row r="336" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="5"/>
@@ -6808,10 +6809,10 @@
       <c r="C336" s="5"/>
       <c r="D336" s="5"/>
       <c r="E336" s="5"/>
-      <c r="G336" s="17"/>
-      <c r="H336" s="17"/>
-      <c r="I336" s="17"/>
-      <c r="J336" s="18"/>
+      <c r="G336" s="10"/>
+      <c r="H336" s="10"/>
+      <c r="I336" s="10"/>
+      <c r="J336" s="11"/>
     </row>
     <row r="337" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="5"/>
@@ -6819,10 +6820,10 @@
       <c r="C337" s="5"/>
       <c r="D337" s="5"/>
       <c r="E337" s="5"/>
-      <c r="G337" s="17"/>
-      <c r="H337" s="17"/>
-      <c r="I337" s="17"/>
-      <c r="J337" s="18"/>
+      <c r="G337" s="10"/>
+      <c r="H337" s="10"/>
+      <c r="I337" s="10"/>
+      <c r="J337" s="11"/>
     </row>
     <row r="338" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="5"/>
@@ -6830,10 +6831,10 @@
       <c r="C338" s="5"/>
       <c r="D338" s="5"/>
       <c r="E338" s="5"/>
-      <c r="G338" s="17"/>
-      <c r="H338" s="17"/>
-      <c r="I338" s="17"/>
-      <c r="J338" s="18"/>
+      <c r="G338" s="10"/>
+      <c r="H338" s="10"/>
+      <c r="I338" s="10"/>
+      <c r="J338" s="11"/>
     </row>
     <row r="339" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="5"/>
@@ -6841,10 +6842,10 @@
       <c r="C339" s="5"/>
       <c r="D339" s="5"/>
       <c r="E339" s="5"/>
-      <c r="G339" s="17"/>
-      <c r="H339" s="17"/>
-      <c r="I339" s="17"/>
-      <c r="J339" s="18"/>
+      <c r="G339" s="10"/>
+      <c r="H339" s="10"/>
+      <c r="I339" s="10"/>
+      <c r="J339" s="11"/>
     </row>
     <row r="340" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="5"/>
@@ -6852,10 +6853,10 @@
       <c r="C340" s="5"/>
       <c r="D340" s="5"/>
       <c r="E340" s="5"/>
-      <c r="G340" s="17"/>
-      <c r="H340" s="17"/>
-      <c r="I340" s="17"/>
-      <c r="J340" s="18"/>
+      <c r="G340" s="10"/>
+      <c r="H340" s="10"/>
+      <c r="I340" s="10"/>
+      <c r="J340" s="11"/>
     </row>
     <row r="341" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="5"/>
@@ -6863,10 +6864,10 @@
       <c r="C341" s="5"/>
       <c r="D341" s="5"/>
       <c r="E341" s="5"/>
-      <c r="G341" s="17"/>
-      <c r="H341" s="17"/>
-      <c r="I341" s="17"/>
-      <c r="J341" s="18"/>
+      <c r="G341" s="10"/>
+      <c r="H341" s="10"/>
+      <c r="I341" s="10"/>
+      <c r="J341" s="11"/>
     </row>
     <row r="342" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="5"/>
@@ -6874,10 +6875,10 @@
       <c r="C342" s="5"/>
       <c r="D342" s="5"/>
       <c r="E342" s="5"/>
-      <c r="G342" s="17"/>
-      <c r="H342" s="17"/>
-      <c r="I342" s="17"/>
-      <c r="J342" s="18"/>
+      <c r="G342" s="10"/>
+      <c r="H342" s="10"/>
+      <c r="I342" s="10"/>
+      <c r="J342" s="11"/>
     </row>
     <row r="343" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="5"/>
@@ -6885,10 +6886,10 @@
       <c r="C343" s="5"/>
       <c r="D343" s="5"/>
       <c r="E343" s="5"/>
-      <c r="G343" s="17"/>
-      <c r="H343" s="17"/>
-      <c r="I343" s="17"/>
-      <c r="J343" s="18"/>
+      <c r="G343" s="10"/>
+      <c r="H343" s="10"/>
+      <c r="I343" s="10"/>
+      <c r="J343" s="11"/>
     </row>
     <row r="344" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="5"/>
@@ -6896,10 +6897,10 @@
       <c r="C344" s="5"/>
       <c r="D344" s="5"/>
       <c r="E344" s="5"/>
-      <c r="G344" s="17"/>
-      <c r="H344" s="17"/>
-      <c r="I344" s="17"/>
-      <c r="J344" s="18"/>
+      <c r="G344" s="10"/>
+      <c r="H344" s="10"/>
+      <c r="I344" s="10"/>
+      <c r="J344" s="11"/>
     </row>
     <row r="345" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="5"/>
@@ -6907,10 +6908,10 @@
       <c r="C345" s="5"/>
       <c r="D345" s="5"/>
       <c r="E345" s="5"/>
-      <c r="G345" s="17"/>
-      <c r="H345" s="17"/>
-      <c r="I345" s="17"/>
-      <c r="J345" s="18"/>
+      <c r="G345" s="10"/>
+      <c r="H345" s="10"/>
+      <c r="I345" s="10"/>
+      <c r="J345" s="11"/>
     </row>
     <row r="346" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="5"/>
@@ -6918,10 +6919,10 @@
       <c r="C346" s="5"/>
       <c r="D346" s="5"/>
       <c r="E346" s="5"/>
-      <c r="G346" s="17"/>
-      <c r="H346" s="17"/>
-      <c r="I346" s="17"/>
-      <c r="J346" s="18"/>
+      <c r="G346" s="10"/>
+      <c r="H346" s="10"/>
+      <c r="I346" s="10"/>
+      <c r="J346" s="11"/>
     </row>
     <row r="347" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="5"/>
@@ -6929,10 +6930,10 @@
       <c r="C347" s="5"/>
       <c r="D347" s="5"/>
       <c r="E347" s="5"/>
-      <c r="G347" s="17"/>
-      <c r="H347" s="17"/>
-      <c r="I347" s="17"/>
-      <c r="J347" s="18"/>
+      <c r="G347" s="10"/>
+      <c r="H347" s="10"/>
+      <c r="I347" s="10"/>
+      <c r="J347" s="11"/>
     </row>
     <row r="348" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="5"/>
@@ -6940,10 +6941,10 @@
       <c r="C348" s="5"/>
       <c r="D348" s="5"/>
       <c r="E348" s="5"/>
-      <c r="G348" s="17"/>
-      <c r="H348" s="17"/>
-      <c r="I348" s="17"/>
-      <c r="J348" s="18"/>
+      <c r="G348" s="10"/>
+      <c r="H348" s="10"/>
+      <c r="I348" s="10"/>
+      <c r="J348" s="11"/>
     </row>
     <row r="349" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="5"/>
@@ -6951,10 +6952,10 @@
       <c r="C349" s="5"/>
       <c r="D349" s="5"/>
       <c r="E349" s="5"/>
-      <c r="G349" s="17"/>
-      <c r="H349" s="17"/>
-      <c r="I349" s="17"/>
-      <c r="J349" s="18"/>
+      <c r="G349" s="10"/>
+      <c r="H349" s="10"/>
+      <c r="I349" s="10"/>
+      <c r="J349" s="11"/>
     </row>
     <row r="350" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="5"/>
@@ -6962,10 +6963,10 @@
       <c r="C350" s="5"/>
       <c r="D350" s="5"/>
       <c r="E350" s="5"/>
-      <c r="G350" s="17"/>
-      <c r="H350" s="17"/>
-      <c r="I350" s="17"/>
-      <c r="J350" s="18"/>
+      <c r="G350" s="10"/>
+      <c r="H350" s="10"/>
+      <c r="I350" s="10"/>
+      <c r="J350" s="11"/>
     </row>
     <row r="351" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="5"/>
@@ -6973,10 +6974,10 @@
       <c r="C351" s="5"/>
       <c r="D351" s="5"/>
       <c r="E351" s="5"/>
-      <c r="G351" s="17"/>
-      <c r="H351" s="17"/>
-      <c r="I351" s="17"/>
-      <c r="J351" s="18"/>
+      <c r="G351" s="10"/>
+      <c r="H351" s="10"/>
+      <c r="I351" s="10"/>
+      <c r="J351" s="11"/>
     </row>
     <row r="352" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="5"/>
@@ -6984,10 +6985,10 @@
       <c r="C352" s="5"/>
       <c r="D352" s="5"/>
       <c r="E352" s="5"/>
-      <c r="G352" s="17"/>
-      <c r="H352" s="17"/>
-      <c r="I352" s="17"/>
-      <c r="J352" s="18"/>
+      <c r="G352" s="10"/>
+      <c r="H352" s="10"/>
+      <c r="I352" s="10"/>
+      <c r="J352" s="11"/>
     </row>
     <row r="353" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="5"/>
@@ -6995,10 +6996,10 @@
       <c r="C353" s="5"/>
       <c r="D353" s="5"/>
       <c r="E353" s="5"/>
-      <c r="G353" s="17"/>
-      <c r="H353" s="17"/>
-      <c r="I353" s="17"/>
-      <c r="J353" s="18"/>
+      <c r="G353" s="10"/>
+      <c r="H353" s="10"/>
+      <c r="I353" s="10"/>
+      <c r="J353" s="11"/>
     </row>
     <row r="354" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="5"/>
@@ -7006,10 +7007,10 @@
       <c r="C354" s="5"/>
       <c r="D354" s="5"/>
       <c r="E354" s="5"/>
-      <c r="G354" s="17"/>
-      <c r="H354" s="17"/>
-      <c r="I354" s="17"/>
-      <c r="J354" s="18"/>
+      <c r="G354" s="10"/>
+      <c r="H354" s="10"/>
+      <c r="I354" s="10"/>
+      <c r="J354" s="11"/>
     </row>
     <row r="355" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="5"/>
@@ -7017,10 +7018,10 @@
       <c r="C355" s="5"/>
       <c r="D355" s="5"/>
       <c r="E355" s="5"/>
-      <c r="G355" s="17"/>
-      <c r="H355" s="17"/>
-      <c r="I355" s="17"/>
-      <c r="J355" s="18"/>
+      <c r="G355" s="10"/>
+      <c r="H355" s="10"/>
+      <c r="I355" s="10"/>
+      <c r="J355" s="11"/>
     </row>
     <row r="356" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="5"/>
@@ -7028,10 +7029,10 @@
       <c r="C356" s="5"/>
       <c r="D356" s="5"/>
       <c r="E356" s="5"/>
-      <c r="G356" s="17"/>
-      <c r="H356" s="17"/>
-      <c r="I356" s="17"/>
-      <c r="J356" s="18"/>
+      <c r="G356" s="10"/>
+      <c r="H356" s="10"/>
+      <c r="I356" s="10"/>
+      <c r="J356" s="11"/>
     </row>
     <row r="357" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="5"/>
@@ -7039,10 +7040,10 @@
       <c r="C357" s="5"/>
       <c r="D357" s="5"/>
       <c r="E357" s="5"/>
-      <c r="G357" s="17"/>
-      <c r="H357" s="17"/>
-      <c r="I357" s="17"/>
-      <c r="J357" s="18"/>
+      <c r="G357" s="10"/>
+      <c r="H357" s="10"/>
+      <c r="I357" s="10"/>
+      <c r="J357" s="11"/>
     </row>
     <row r="358" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="5"/>
@@ -7050,10 +7051,10 @@
       <c r="C358" s="5"/>
       <c r="D358" s="5"/>
       <c r="E358" s="5"/>
-      <c r="G358" s="17"/>
-      <c r="H358" s="17"/>
-      <c r="I358" s="17"/>
-      <c r="J358" s="18"/>
+      <c r="G358" s="10"/>
+      <c r="H358" s="10"/>
+      <c r="I358" s="10"/>
+      <c r="J358" s="11"/>
     </row>
     <row r="359" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="5"/>
@@ -7061,10 +7062,10 @@
       <c r="C359" s="5"/>
       <c r="D359" s="5"/>
       <c r="E359" s="5"/>
-      <c r="G359" s="17"/>
-      <c r="H359" s="17"/>
-      <c r="I359" s="17"/>
-      <c r="J359" s="18"/>
+      <c r="G359" s="10"/>
+      <c r="H359" s="10"/>
+      <c r="I359" s="10"/>
+      <c r="J359" s="11"/>
     </row>
     <row r="360" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="5"/>
@@ -7072,10 +7073,10 @@
       <c r="C360" s="5"/>
       <c r="D360" s="5"/>
       <c r="E360" s="5"/>
-      <c r="G360" s="17"/>
-      <c r="H360" s="17"/>
-      <c r="I360" s="17"/>
-      <c r="J360" s="18"/>
+      <c r="G360" s="10"/>
+      <c r="H360" s="10"/>
+      <c r="I360" s="10"/>
+      <c r="J360" s="11"/>
     </row>
     <row r="361" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="5"/>
@@ -7083,10 +7084,10 @@
       <c r="C361" s="5"/>
       <c r="D361" s="5"/>
       <c r="E361" s="5"/>
-      <c r="G361" s="17"/>
-      <c r="H361" s="17"/>
-      <c r="I361" s="17"/>
-      <c r="J361" s="18"/>
+      <c r="G361" s="10"/>
+      <c r="H361" s="10"/>
+      <c r="I361" s="10"/>
+      <c r="J361" s="11"/>
     </row>
     <row r="362" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="5"/>
@@ -7094,10 +7095,10 @@
       <c r="C362" s="5"/>
       <c r="D362" s="5"/>
       <c r="E362" s="5"/>
-      <c r="G362" s="17"/>
-      <c r="H362" s="17"/>
-      <c r="I362" s="17"/>
-      <c r="J362" s="18"/>
+      <c r="G362" s="10"/>
+      <c r="H362" s="10"/>
+      <c r="I362" s="10"/>
+      <c r="J362" s="11"/>
     </row>
     <row r="363" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="5"/>
@@ -7105,10 +7106,10 @@
       <c r="C363" s="5"/>
       <c r="D363" s="5"/>
       <c r="E363" s="5"/>
-      <c r="G363" s="17"/>
-      <c r="H363" s="17"/>
-      <c r="I363" s="17"/>
-      <c r="J363" s="18"/>
+      <c r="G363" s="10"/>
+      <c r="H363" s="10"/>
+      <c r="I363" s="10"/>
+      <c r="J363" s="11"/>
     </row>
     <row r="364" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="5"/>
@@ -7116,10 +7117,10 @@
       <c r="C364" s="5"/>
       <c r="D364" s="5"/>
       <c r="E364" s="5"/>
-      <c r="G364" s="17"/>
-      <c r="H364" s="17"/>
-      <c r="I364" s="17"/>
-      <c r="J364" s="18"/>
+      <c r="G364" s="10"/>
+      <c r="H364" s="10"/>
+      <c r="I364" s="10"/>
+      <c r="J364" s="11"/>
     </row>
     <row r="365" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="5"/>
@@ -7127,10 +7128,10 @@
       <c r="C365" s="5"/>
       <c r="D365" s="5"/>
       <c r="E365" s="5"/>
-      <c r="G365" s="17"/>
-      <c r="H365" s="17"/>
-      <c r="I365" s="17"/>
-      <c r="J365" s="18"/>
+      <c r="G365" s="10"/>
+      <c r="H365" s="10"/>
+      <c r="I365" s="10"/>
+      <c r="J365" s="11"/>
     </row>
     <row r="366" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="5"/>
@@ -7138,10 +7139,10 @@
       <c r="C366" s="5"/>
       <c r="D366" s="5"/>
       <c r="E366" s="5"/>
-      <c r="G366" s="17"/>
-      <c r="H366" s="17"/>
-      <c r="I366" s="17"/>
-      <c r="J366" s="18"/>
+      <c r="G366" s="10"/>
+      <c r="H366" s="10"/>
+      <c r="I366" s="10"/>
+      <c r="J366" s="11"/>
     </row>
     <row r="367" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" s="5"/>
@@ -7149,10 +7150,10 @@
       <c r="C367" s="5"/>
       <c r="D367" s="5"/>
       <c r="E367" s="5"/>
-      <c r="G367" s="17"/>
-      <c r="H367" s="17"/>
-      <c r="I367" s="17"/>
-      <c r="J367" s="18"/>
+      <c r="G367" s="10"/>
+      <c r="H367" s="10"/>
+      <c r="I367" s="10"/>
+      <c r="J367" s="11"/>
     </row>
     <row r="368" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" s="5"/>
@@ -7160,10 +7161,10 @@
       <c r="C368" s="5"/>
       <c r="D368" s="5"/>
       <c r="E368" s="5"/>
-      <c r="G368" s="17"/>
-      <c r="H368" s="17"/>
-      <c r="I368" s="17"/>
-      <c r="J368" s="18"/>
+      <c r="G368" s="10"/>
+      <c r="H368" s="10"/>
+      <c r="I368" s="10"/>
+      <c r="J368" s="11"/>
     </row>
     <row r="369" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A369" s="5"/>
@@ -7171,10 +7172,10 @@
       <c r="C369" s="5"/>
       <c r="D369" s="5"/>
       <c r="E369" s="5"/>
-      <c r="G369" s="17"/>
-      <c r="H369" s="17"/>
-      <c r="I369" s="17"/>
-      <c r="J369" s="18"/>
+      <c r="G369" s="10"/>
+      <c r="H369" s="10"/>
+      <c r="I369" s="10"/>
+      <c r="J369" s="11"/>
     </row>
     <row r="370" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A370" s="5"/>
@@ -7182,10 +7183,10 @@
       <c r="C370" s="5"/>
       <c r="D370" s="5"/>
       <c r="E370" s="5"/>
-      <c r="G370" s="17"/>
-      <c r="H370" s="17"/>
-      <c r="I370" s="17"/>
-      <c r="J370" s="18"/>
+      <c r="G370" s="10"/>
+      <c r="H370" s="10"/>
+      <c r="I370" s="10"/>
+      <c r="J370" s="11"/>
     </row>
     <row r="371" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A371" s="5"/>
@@ -7193,10 +7194,10 @@
       <c r="C371" s="5"/>
       <c r="D371" s="5"/>
       <c r="E371" s="5"/>
-      <c r="G371" s="17"/>
-      <c r="H371" s="17"/>
-      <c r="I371" s="17"/>
-      <c r="J371" s="18"/>
+      <c r="G371" s="10"/>
+      <c r="H371" s="10"/>
+      <c r="I371" s="10"/>
+      <c r="J371" s="11"/>
     </row>
     <row r="372" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A372" s="5"/>
@@ -7204,10 +7205,10 @@
       <c r="C372" s="5"/>
       <c r="D372" s="5"/>
       <c r="E372" s="5"/>
-      <c r="G372" s="17"/>
-      <c r="H372" s="17"/>
-      <c r="I372" s="17"/>
-      <c r="J372" s="18"/>
+      <c r="G372" s="10"/>
+      <c r="H372" s="10"/>
+      <c r="I372" s="10"/>
+      <c r="J372" s="11"/>
     </row>
     <row r="373" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="5"/>
@@ -7215,10 +7216,10 @@
       <c r="C373" s="5"/>
       <c r="D373" s="5"/>
       <c r="E373" s="5"/>
-      <c r="G373" s="17"/>
-      <c r="H373" s="17"/>
-      <c r="I373" s="17"/>
-      <c r="J373" s="18"/>
+      <c r="G373" s="10"/>
+      <c r="H373" s="10"/>
+      <c r="I373" s="10"/>
+      <c r="J373" s="11"/>
     </row>
     <row r="374" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A374" s="5"/>
@@ -7226,10 +7227,10 @@
       <c r="C374" s="5"/>
       <c r="D374" s="5"/>
       <c r="E374" s="5"/>
-      <c r="G374" s="17"/>
-      <c r="H374" s="17"/>
-      <c r="I374" s="17"/>
-      <c r="J374" s="18"/>
+      <c r="G374" s="10"/>
+      <c r="H374" s="10"/>
+      <c r="I374" s="10"/>
+      <c r="J374" s="11"/>
     </row>
     <row r="375" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A375" s="5"/>
@@ -7237,10 +7238,10 @@
       <c r="C375" s="5"/>
       <c r="D375" s="5"/>
       <c r="E375" s="5"/>
-      <c r="G375" s="17"/>
-      <c r="H375" s="17"/>
-      <c r="I375" s="17"/>
-      <c r="J375" s="18"/>
+      <c r="G375" s="10"/>
+      <c r="H375" s="10"/>
+      <c r="I375" s="10"/>
+      <c r="J375" s="11"/>
     </row>
     <row r="376" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A376" s="5"/>
@@ -7248,10 +7249,10 @@
       <c r="C376" s="5"/>
       <c r="D376" s="5"/>
       <c r="E376" s="5"/>
-      <c r="G376" s="17"/>
-      <c r="H376" s="17"/>
-      <c r="I376" s="17"/>
-      <c r="J376" s="18"/>
+      <c r="G376" s="10"/>
+      <c r="H376" s="10"/>
+      <c r="I376" s="10"/>
+      <c r="J376" s="11"/>
     </row>
     <row r="377" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A377" s="5"/>
@@ -7259,10 +7260,10 @@
       <c r="C377" s="5"/>
       <c r="D377" s="5"/>
       <c r="E377" s="5"/>
-      <c r="G377" s="17"/>
-      <c r="H377" s="17"/>
-      <c r="I377" s="17"/>
-      <c r="J377" s="18"/>
+      <c r="G377" s="10"/>
+      <c r="H377" s="10"/>
+      <c r="I377" s="10"/>
+      <c r="J377" s="11"/>
     </row>
     <row r="378" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" s="5"/>
@@ -7270,10 +7271,10 @@
       <c r="C378" s="5"/>
       <c r="D378" s="5"/>
       <c r="E378" s="5"/>
-      <c r="G378" s="17"/>
-      <c r="H378" s="17"/>
-      <c r="I378" s="17"/>
-      <c r="J378" s="18"/>
+      <c r="G378" s="10"/>
+      <c r="H378" s="10"/>
+      <c r="I378" s="10"/>
+      <c r="J378" s="11"/>
     </row>
     <row r="379" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A379" s="5"/>
@@ -7281,10 +7282,10 @@
       <c r="C379" s="5"/>
       <c r="D379" s="5"/>
       <c r="E379" s="5"/>
-      <c r="G379" s="17"/>
-      <c r="H379" s="17"/>
-      <c r="I379" s="17"/>
-      <c r="J379" s="18"/>
+      <c r="G379" s="10"/>
+      <c r="H379" s="10"/>
+      <c r="I379" s="10"/>
+      <c r="J379" s="11"/>
     </row>
     <row r="380" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="5"/>
@@ -7292,10 +7293,10 @@
       <c r="C380" s="5"/>
       <c r="D380" s="5"/>
       <c r="E380" s="5"/>
-      <c r="G380" s="17"/>
-      <c r="H380" s="17"/>
-      <c r="I380" s="17"/>
-      <c r="J380" s="18"/>
+      <c r="G380" s="10"/>
+      <c r="H380" s="10"/>
+      <c r="I380" s="10"/>
+      <c r="J380" s="11"/>
     </row>
     <row r="381" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="5"/>
@@ -7303,10 +7304,10 @@
       <c r="C381" s="5"/>
       <c r="D381" s="5"/>
       <c r="E381" s="5"/>
-      <c r="G381" s="17"/>
-      <c r="H381" s="17"/>
-      <c r="I381" s="17"/>
-      <c r="J381" s="18"/>
+      <c r="G381" s="10"/>
+      <c r="H381" s="10"/>
+      <c r="I381" s="10"/>
+      <c r="J381" s="11"/>
     </row>
     <row r="382" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="5"/>
@@ -7314,10 +7315,10 @@
       <c r="C382" s="5"/>
       <c r="D382" s="5"/>
       <c r="E382" s="5"/>
-      <c r="G382" s="17"/>
-      <c r="H382" s="17"/>
-      <c r="I382" s="17"/>
-      <c r="J382" s="18"/>
+      <c r="G382" s="10"/>
+      <c r="H382" s="10"/>
+      <c r="I382" s="10"/>
+      <c r="J382" s="11"/>
     </row>
     <row r="383" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" s="5"/>
@@ -7325,10 +7326,10 @@
       <c r="C383" s="5"/>
       <c r="D383" s="5"/>
       <c r="E383" s="5"/>
-      <c r="G383" s="17"/>
-      <c r="H383" s="17"/>
-      <c r="I383" s="17"/>
-      <c r="J383" s="18"/>
+      <c r="G383" s="10"/>
+      <c r="H383" s="10"/>
+      <c r="I383" s="10"/>
+      <c r="J383" s="11"/>
     </row>
     <row r="384" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="5"/>
@@ -7336,10 +7337,10 @@
       <c r="C384" s="5"/>
       <c r="D384" s="5"/>
       <c r="E384" s="5"/>
-      <c r="G384" s="17"/>
-      <c r="H384" s="17"/>
-      <c r="I384" s="17"/>
-      <c r="J384" s="18"/>
+      <c r="G384" s="10"/>
+      <c r="H384" s="10"/>
+      <c r="I384" s="10"/>
+      <c r="J384" s="11"/>
     </row>
     <row r="385" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385" s="5"/>
@@ -7347,10 +7348,10 @@
       <c r="C385" s="5"/>
       <c r="D385" s="5"/>
       <c r="E385" s="5"/>
-      <c r="G385" s="17"/>
-      <c r="H385" s="17"/>
-      <c r="I385" s="17"/>
-      <c r="J385" s="18"/>
+      <c r="G385" s="10"/>
+      <c r="H385" s="10"/>
+      <c r="I385" s="10"/>
+      <c r="J385" s="11"/>
     </row>
     <row r="386" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A386" s="5"/>
@@ -7358,10 +7359,10 @@
       <c r="C386" s="5"/>
       <c r="D386" s="5"/>
       <c r="E386" s="5"/>
-      <c r="G386" s="17"/>
-      <c r="H386" s="17"/>
-      <c r="I386" s="17"/>
-      <c r="J386" s="18"/>
+      <c r="G386" s="10"/>
+      <c r="H386" s="10"/>
+      <c r="I386" s="10"/>
+      <c r="J386" s="11"/>
     </row>
     <row r="387" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A387" s="5"/>
@@ -7369,10 +7370,10 @@
       <c r="C387" s="5"/>
       <c r="D387" s="5"/>
       <c r="E387" s="5"/>
-      <c r="G387" s="17"/>
-      <c r="H387" s="17"/>
-      <c r="I387" s="17"/>
-      <c r="J387" s="18"/>
+      <c r="G387" s="10"/>
+      <c r="H387" s="10"/>
+      <c r="I387" s="10"/>
+      <c r="J387" s="11"/>
     </row>
     <row r="388" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A388" s="5"/>
@@ -7380,10 +7381,10 @@
       <c r="C388" s="5"/>
       <c r="D388" s="5"/>
       <c r="E388" s="5"/>
-      <c r="G388" s="17"/>
-      <c r="H388" s="17"/>
-      <c r="I388" s="17"/>
-      <c r="J388" s="18"/>
+      <c r="G388" s="10"/>
+      <c r="H388" s="10"/>
+      <c r="I388" s="10"/>
+      <c r="J388" s="11"/>
     </row>
     <row r="389" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A389" s="5"/>
@@ -7391,10 +7392,10 @@
       <c r="C389" s="5"/>
       <c r="D389" s="5"/>
       <c r="E389" s="5"/>
-      <c r="G389" s="17"/>
-      <c r="H389" s="17"/>
-      <c r="I389" s="17"/>
-      <c r="J389" s="18"/>
+      <c r="G389" s="10"/>
+      <c r="H389" s="10"/>
+      <c r="I389" s="10"/>
+      <c r="J389" s="11"/>
     </row>
     <row r="390" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A390" s="5"/>
@@ -7402,10 +7403,10 @@
       <c r="C390" s="5"/>
       <c r="D390" s="5"/>
       <c r="E390" s="5"/>
-      <c r="G390" s="17"/>
-      <c r="H390" s="17"/>
-      <c r="I390" s="17"/>
-      <c r="J390" s="18"/>
+      <c r="G390" s="10"/>
+      <c r="H390" s="10"/>
+      <c r="I390" s="10"/>
+      <c r="J390" s="11"/>
     </row>
     <row r="391" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" s="5"/>
@@ -7413,10 +7414,10 @@
       <c r="C391" s="5"/>
       <c r="D391" s="5"/>
       <c r="E391" s="5"/>
-      <c r="G391" s="17"/>
-      <c r="H391" s="17"/>
-      <c r="I391" s="17"/>
-      <c r="J391" s="18"/>
+      <c r="G391" s="10"/>
+      <c r="H391" s="10"/>
+      <c r="I391" s="10"/>
+      <c r="J391" s="11"/>
     </row>
     <row r="392" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A392" s="5"/>
@@ -7424,10 +7425,10 @@
       <c r="C392" s="5"/>
       <c r="D392" s="5"/>
       <c r="E392" s="5"/>
-      <c r="G392" s="17"/>
-      <c r="H392" s="17"/>
-      <c r="I392" s="17"/>
-      <c r="J392" s="18"/>
+      <c r="G392" s="10"/>
+      <c r="H392" s="10"/>
+      <c r="I392" s="10"/>
+      <c r="J392" s="11"/>
     </row>
     <row r="393" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A393" s="5"/>
@@ -7435,10 +7436,10 @@
       <c r="C393" s="5"/>
       <c r="D393" s="5"/>
       <c r="E393" s="5"/>
-      <c r="G393" s="17"/>
-      <c r="H393" s="17"/>
-      <c r="I393" s="17"/>
-      <c r="J393" s="18"/>
+      <c r="G393" s="10"/>
+      <c r="H393" s="10"/>
+      <c r="I393" s="10"/>
+      <c r="J393" s="11"/>
     </row>
     <row r="394" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A394" s="5"/>
@@ -7446,10 +7447,10 @@
       <c r="C394" s="5"/>
       <c r="D394" s="5"/>
       <c r="E394" s="5"/>
-      <c r="G394" s="17"/>
-      <c r="H394" s="17"/>
-      <c r="I394" s="17"/>
-      <c r="J394" s="18"/>
+      <c r="G394" s="10"/>
+      <c r="H394" s="10"/>
+      <c r="I394" s="10"/>
+      <c r="J394" s="11"/>
     </row>
     <row r="395" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" s="5"/>
@@ -7457,10 +7458,10 @@
       <c r="C395" s="5"/>
       <c r="D395" s="5"/>
       <c r="E395" s="5"/>
-      <c r="G395" s="17"/>
-      <c r="H395" s="17"/>
-      <c r="I395" s="17"/>
-      <c r="J395" s="18"/>
+      <c r="G395" s="10"/>
+      <c r="H395" s="10"/>
+      <c r="I395" s="10"/>
+      <c r="J395" s="11"/>
     </row>
     <row r="396" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" s="5"/>
@@ -7468,10 +7469,10 @@
       <c r="C396" s="5"/>
       <c r="D396" s="5"/>
       <c r="E396" s="5"/>
-      <c r="G396" s="17"/>
-      <c r="H396" s="17"/>
-      <c r="I396" s="17"/>
-      <c r="J396" s="18"/>
+      <c r="G396" s="10"/>
+      <c r="H396" s="10"/>
+      <c r="I396" s="10"/>
+      <c r="J396" s="11"/>
     </row>
     <row r="397" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397" s="5"/>
@@ -7479,10 +7480,10 @@
       <c r="C397" s="5"/>
       <c r="D397" s="5"/>
       <c r="E397" s="5"/>
-      <c r="G397" s="17"/>
-      <c r="H397" s="17"/>
-      <c r="I397" s="17"/>
-      <c r="J397" s="18"/>
+      <c r="G397" s="10"/>
+      <c r="H397" s="10"/>
+      <c r="I397" s="10"/>
+      <c r="J397" s="11"/>
     </row>
     <row r="398" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A398" s="5"/>
@@ -7490,10 +7491,10 @@
       <c r="C398" s="5"/>
       <c r="D398" s="5"/>
       <c r="E398" s="5"/>
-      <c r="G398" s="17"/>
-      <c r="H398" s="17"/>
-      <c r="I398" s="17"/>
-      <c r="J398" s="18"/>
+      <c r="G398" s="10"/>
+      <c r="H398" s="10"/>
+      <c r="I398" s="10"/>
+      <c r="J398" s="11"/>
     </row>
     <row r="399" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" s="5"/>
@@ -7501,10 +7502,10 @@
       <c r="C399" s="5"/>
       <c r="D399" s="5"/>
       <c r="E399" s="5"/>
-      <c r="G399" s="17"/>
-      <c r="H399" s="17"/>
-      <c r="I399" s="17"/>
-      <c r="J399" s="18"/>
+      <c r="G399" s="10"/>
+      <c r="H399" s="10"/>
+      <c r="I399" s="10"/>
+      <c r="J399" s="11"/>
     </row>
     <row r="400" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A400" s="5"/>
@@ -7512,10 +7513,10 @@
       <c r="C400" s="5"/>
       <c r="D400" s="5"/>
       <c r="E400" s="5"/>
-      <c r="G400" s="17"/>
-      <c r="H400" s="17"/>
-      <c r="I400" s="17"/>
-      <c r="J400" s="18"/>
+      <c r="G400" s="10"/>
+      <c r="H400" s="10"/>
+      <c r="I400" s="10"/>
+      <c r="J400" s="11"/>
     </row>
     <row r="401" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A401" s="5"/>
@@ -7523,10 +7524,10 @@
       <c r="C401" s="5"/>
       <c r="D401" s="5"/>
       <c r="E401" s="5"/>
-      <c r="G401" s="17"/>
-      <c r="H401" s="17"/>
-      <c r="I401" s="17"/>
-      <c r="J401" s="18"/>
+      <c r="G401" s="10"/>
+      <c r="H401" s="10"/>
+      <c r="I401" s="10"/>
+      <c r="J401" s="11"/>
     </row>
     <row r="402" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A402" s="5"/>
@@ -7534,10 +7535,10 @@
       <c r="C402" s="5"/>
       <c r="D402" s="5"/>
       <c r="E402" s="5"/>
-      <c r="G402" s="17"/>
-      <c r="H402" s="17"/>
-      <c r="I402" s="17"/>
-      <c r="J402" s="18"/>
+      <c r="G402" s="10"/>
+      <c r="H402" s="10"/>
+      <c r="I402" s="10"/>
+      <c r="J402" s="11"/>
     </row>
     <row r="403" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A403" s="5"/>
@@ -7545,10 +7546,10 @@
       <c r="C403" s="5"/>
       <c r="D403" s="5"/>
       <c r="E403" s="5"/>
-      <c r="G403" s="17"/>
-      <c r="H403" s="17"/>
-      <c r="I403" s="17"/>
-      <c r="J403" s="18"/>
+      <c r="G403" s="10"/>
+      <c r="H403" s="10"/>
+      <c r="I403" s="10"/>
+      <c r="J403" s="11"/>
     </row>
     <row r="404" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A404" s="5"/>
@@ -7556,10 +7557,10 @@
       <c r="C404" s="5"/>
       <c r="D404" s="5"/>
       <c r="E404" s="5"/>
-      <c r="G404" s="17"/>
-      <c r="H404" s="17"/>
-      <c r="I404" s="17"/>
-      <c r="J404" s="18"/>
+      <c r="G404" s="10"/>
+      <c r="H404" s="10"/>
+      <c r="I404" s="10"/>
+      <c r="J404" s="11"/>
     </row>
     <row r="405" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A405" s="5"/>
@@ -7567,10 +7568,10 @@
       <c r="C405" s="5"/>
       <c r="D405" s="5"/>
       <c r="E405" s="5"/>
-      <c r="G405" s="17"/>
-      <c r="H405" s="17"/>
-      <c r="I405" s="17"/>
-      <c r="J405" s="18"/>
+      <c r="G405" s="10"/>
+      <c r="H405" s="10"/>
+      <c r="I405" s="10"/>
+      <c r="J405" s="11"/>
     </row>
     <row r="406" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A406" s="5"/>
@@ -7578,10 +7579,10 @@
       <c r="C406" s="5"/>
       <c r="D406" s="5"/>
       <c r="E406" s="5"/>
-      <c r="G406" s="17"/>
-      <c r="H406" s="17"/>
-      <c r="I406" s="17"/>
-      <c r="J406" s="18"/>
+      <c r="G406" s="10"/>
+      <c r="H406" s="10"/>
+      <c r="I406" s="10"/>
+      <c r="J406" s="11"/>
     </row>
     <row r="407" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A407" s="5"/>
@@ -7589,10 +7590,10 @@
       <c r="C407" s="5"/>
       <c r="D407" s="5"/>
       <c r="E407" s="5"/>
-      <c r="G407" s="17"/>
-      <c r="H407" s="17"/>
-      <c r="I407" s="17"/>
-      <c r="J407" s="18"/>
+      <c r="G407" s="10"/>
+      <c r="H407" s="10"/>
+      <c r="I407" s="10"/>
+      <c r="J407" s="11"/>
     </row>
     <row r="408" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A408" s="5"/>
@@ -7600,10 +7601,10 @@
       <c r="C408" s="5"/>
       <c r="D408" s="5"/>
       <c r="E408" s="5"/>
-      <c r="G408" s="17"/>
-      <c r="H408" s="17"/>
-      <c r="I408" s="17"/>
-      <c r="J408" s="18"/>
+      <c r="G408" s="10"/>
+      <c r="H408" s="10"/>
+      <c r="I408" s="10"/>
+      <c r="J408" s="11"/>
     </row>
     <row r="409" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A409" s="5"/>
@@ -7611,10 +7612,10 @@
       <c r="C409" s="5"/>
       <c r="D409" s="5"/>
       <c r="E409" s="5"/>
-      <c r="G409" s="17"/>
-      <c r="H409" s="17"/>
-      <c r="I409" s="17"/>
-      <c r="J409" s="18"/>
+      <c r="G409" s="10"/>
+      <c r="H409" s="10"/>
+      <c r="I409" s="10"/>
+      <c r="J409" s="11"/>
     </row>
     <row r="410" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A410" s="5"/>
@@ -7622,10 +7623,10 @@
       <c r="C410" s="5"/>
       <c r="D410" s="5"/>
       <c r="E410" s="5"/>
-      <c r="G410" s="17"/>
-      <c r="H410" s="17"/>
-      <c r="I410" s="17"/>
-      <c r="J410" s="18"/>
+      <c r="G410" s="10"/>
+      <c r="H410" s="10"/>
+      <c r="I410" s="10"/>
+      <c r="J410" s="11"/>
     </row>
     <row r="411" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A411" s="5"/>
@@ -7633,10 +7634,10 @@
       <c r="C411" s="5"/>
       <c r="D411" s="5"/>
       <c r="E411" s="5"/>
-      <c r="G411" s="17"/>
-      <c r="H411" s="17"/>
-      <c r="I411" s="17"/>
-      <c r="J411" s="18"/>
+      <c r="G411" s="10"/>
+      <c r="H411" s="10"/>
+      <c r="I411" s="10"/>
+      <c r="J411" s="11"/>
     </row>
     <row r="412" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A412" s="5"/>
@@ -7644,10 +7645,10 @@
       <c r="C412" s="5"/>
       <c r="D412" s="5"/>
       <c r="E412" s="5"/>
-      <c r="G412" s="17"/>
-      <c r="H412" s="17"/>
-      <c r="I412" s="17"/>
-      <c r="J412" s="18"/>
+      <c r="G412" s="10"/>
+      <c r="H412" s="10"/>
+      <c r="I412" s="10"/>
+      <c r="J412" s="11"/>
     </row>
     <row r="413" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A413" s="5"/>
@@ -7655,10 +7656,10 @@
       <c r="C413" s="5"/>
       <c r="D413" s="5"/>
       <c r="E413" s="5"/>
-      <c r="G413" s="17"/>
-      <c r="H413" s="17"/>
-      <c r="I413" s="17"/>
-      <c r="J413" s="18"/>
+      <c r="G413" s="10"/>
+      <c r="H413" s="10"/>
+      <c r="I413" s="10"/>
+      <c r="J413" s="11"/>
     </row>
     <row r="414" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A414" s="5"/>
@@ -7666,10 +7667,10 @@
       <c r="C414" s="5"/>
       <c r="D414" s="5"/>
       <c r="E414" s="5"/>
-      <c r="G414" s="17"/>
-      <c r="H414" s="17"/>
-      <c r="I414" s="17"/>
-      <c r="J414" s="18"/>
+      <c r="G414" s="10"/>
+      <c r="H414" s="10"/>
+      <c r="I414" s="10"/>
+      <c r="J414" s="11"/>
     </row>
     <row r="415" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A415" s="5"/>
@@ -7677,10 +7678,10 @@
       <c r="C415" s="5"/>
       <c r="D415" s="5"/>
       <c r="E415" s="5"/>
-      <c r="G415" s="17"/>
-      <c r="H415" s="17"/>
-      <c r="I415" s="17"/>
-      <c r="J415" s="18"/>
+      <c r="G415" s="10"/>
+      <c r="H415" s="10"/>
+      <c r="I415" s="10"/>
+      <c r="J415" s="11"/>
     </row>
     <row r="416" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A416" s="5"/>
@@ -7688,10 +7689,10 @@
       <c r="C416" s="5"/>
       <c r="D416" s="5"/>
       <c r="E416" s="5"/>
-      <c r="G416" s="17"/>
-      <c r="H416" s="17"/>
-      <c r="I416" s="17"/>
-      <c r="J416" s="18"/>
+      <c r="G416" s="10"/>
+      <c r="H416" s="10"/>
+      <c r="I416" s="10"/>
+      <c r="J416" s="11"/>
     </row>
     <row r="417" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A417" s="5"/>
@@ -7699,10 +7700,10 @@
       <c r="C417" s="5"/>
       <c r="D417" s="5"/>
       <c r="E417" s="5"/>
-      <c r="G417" s="17"/>
-      <c r="H417" s="17"/>
-      <c r="I417" s="17"/>
-      <c r="J417" s="18"/>
+      <c r="G417" s="10"/>
+      <c r="H417" s="10"/>
+      <c r="I417" s="10"/>
+      <c r="J417" s="11"/>
     </row>
     <row r="418" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A418" s="5"/>
@@ -7710,10 +7711,10 @@
       <c r="C418" s="5"/>
       <c r="D418" s="5"/>
       <c r="E418" s="5"/>
-      <c r="G418" s="17"/>
-      <c r="H418" s="17"/>
-      <c r="I418" s="17"/>
-      <c r="J418" s="18"/>
+      <c r="G418" s="10"/>
+      <c r="H418" s="10"/>
+      <c r="I418" s="10"/>
+      <c r="J418" s="11"/>
     </row>
     <row r="419" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A419" s="5"/>
@@ -7721,10 +7722,10 @@
       <c r="C419" s="5"/>
       <c r="D419" s="5"/>
       <c r="E419" s="5"/>
-      <c r="G419" s="17"/>
-      <c r="H419" s="17"/>
-      <c r="I419" s="17"/>
-      <c r="J419" s="18"/>
+      <c r="G419" s="10"/>
+      <c r="H419" s="10"/>
+      <c r="I419" s="10"/>
+      <c r="J419" s="11"/>
     </row>
     <row r="420" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A420" s="5"/>
@@ -7732,7 +7733,7 @@
       <c r="C420" s="5"/>
       <c r="D420" s="5"/>
       <c r="E420" s="5"/>
-      <c r="J420" s="18"/>
+      <c r="J420" s="11"/>
     </row>
     <row r="421" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A421" s="5"/>
@@ -7740,7 +7741,7 @@
       <c r="C421" s="5"/>
       <c r="D421" s="5"/>
       <c r="E421" s="5"/>
-      <c r="J421" s="18"/>
+      <c r="J421" s="11"/>
     </row>
     <row r="422" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A422" s="5"/>
@@ -7748,7 +7749,7 @@
       <c r="C422" s="5"/>
       <c r="D422" s="5"/>
       <c r="E422" s="5"/>
-      <c r="J422" s="18"/>
+      <c r="J422" s="11"/>
     </row>
     <row r="423" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A423" s="5"/>
@@ -7756,7 +7757,7 @@
       <c r="C423" s="5"/>
       <c r="D423" s="5"/>
       <c r="E423" s="5"/>
-      <c r="J423" s="18"/>
+      <c r="J423" s="11"/>
     </row>
     <row r="424" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A424" s="5"/>
@@ -7764,7 +7765,7 @@
       <c r="C424" s="5"/>
       <c r="D424" s="5"/>
       <c r="E424" s="5"/>
-      <c r="J424" s="18"/>
+      <c r="J424" s="11"/>
     </row>
     <row r="425" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A425" s="5"/>
@@ -7772,7 +7773,7 @@
       <c r="C425" s="5"/>
       <c r="D425" s="5"/>
       <c r="E425" s="5"/>
-      <c r="J425" s="18"/>
+      <c r="J425" s="11"/>
     </row>
     <row r="426" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A426" s="5"/>
@@ -7780,7 +7781,7 @@
       <c r="C426" s="5"/>
       <c r="D426" s="5"/>
       <c r="E426" s="5"/>
-      <c r="J426" s="18"/>
+      <c r="J426" s="11"/>
     </row>
     <row r="427" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A427" s="5"/>
@@ -7788,7 +7789,7 @@
       <c r="C427" s="5"/>
       <c r="D427" s="5"/>
       <c r="E427" s="5"/>
-      <c r="J427" s="18"/>
+      <c r="J427" s="11"/>
     </row>
     <row r="428" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A428" s="5"/>
@@ -7796,7 +7797,7 @@
       <c r="C428" s="5"/>
       <c r="D428" s="5"/>
       <c r="E428" s="5"/>
-      <c r="J428" s="18"/>
+      <c r="J428" s="11"/>
     </row>
     <row r="429" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A429" s="5"/>
@@ -7804,7 +7805,7 @@
       <c r="C429" s="5"/>
       <c r="D429" s="5"/>
       <c r="E429" s="5"/>
-      <c r="J429" s="18"/>
+      <c r="J429" s="11"/>
     </row>
     <row r="430" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A430" s="5"/>
@@ -7812,7 +7813,7 @@
       <c r="C430" s="5"/>
       <c r="D430" s="5"/>
       <c r="E430" s="5"/>
-      <c r="J430" s="18"/>
+      <c r="J430" s="11"/>
     </row>
     <row r="431" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A431" s="5"/>
@@ -7820,7 +7821,7 @@
       <c r="C431" s="5"/>
       <c r="D431" s="5"/>
       <c r="E431" s="5"/>
-      <c r="J431" s="18"/>
+      <c r="J431" s="11"/>
     </row>
     <row r="432" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A432" s="5"/>
@@ -7828,7 +7829,7 @@
       <c r="C432" s="5"/>
       <c r="D432" s="5"/>
       <c r="E432" s="5"/>
-      <c r="J432" s="18"/>
+      <c r="J432" s="11"/>
     </row>
     <row r="433" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A433" s="5"/>
@@ -7836,7 +7837,7 @@
       <c r="C433" s="5"/>
       <c r="D433" s="5"/>
       <c r="E433" s="5"/>
-      <c r="J433" s="18"/>
+      <c r="J433" s="11"/>
     </row>
     <row r="434" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A434" s="5"/>
@@ -7844,7 +7845,7 @@
       <c r="C434" s="5"/>
       <c r="D434" s="5"/>
       <c r="E434" s="5"/>
-      <c r="J434" s="18"/>
+      <c r="J434" s="11"/>
     </row>
     <row r="435" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A435" s="5"/>
@@ -7852,7 +7853,7 @@
       <c r="C435" s="5"/>
       <c r="D435" s="5"/>
       <c r="E435" s="5"/>
-      <c r="J435" s="18"/>
+      <c r="J435" s="11"/>
     </row>
     <row r="436" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A436" s="5"/>

--- a/Docs/Mag_compability.xlsx
+++ b/Docs/Mag_compability.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Onfleet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="358">
   <si>
     <t>ID</t>
   </si>
@@ -998,9 +999,6 @@
     <t>Get single destination - HTTP method - GET</t>
   </si>
   <si>
-    <t>Find recipient - HTTP method - GET</t>
-  </si>
-  <si>
     <t>Update recipient</t>
   </si>
   <si>
@@ -1092,6 +1090,16 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>http://docs.onfleet.com/docs/destinations#create-destination</t>
+  </si>
+  <si>
+    <t>http://docs.onfleet.com/docs/destinations#get-single-destination</t>
+  </si>
+  <si>
+    <t>Find recipient - HTTP method - GET
+Recipient doesn't have GIS coordinates</t>
   </si>
 </sst>
 </file>
@@ -1279,7 +1287,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1334,6 +1342,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1647,10 +1661,10 @@
   <dimension ref="A1:J1123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F96" sqref="F96"/>
+      <selection pane="bottomRight" activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3728,15 +3742,17 @@
       <c r="E96" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="F96" s="9" t="s">
-        <v>322</v>
+      <c r="F96" s="19" t="s">
+        <v>355</v>
       </c>
       <c r="G96" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H96" s="10"/>
       <c r="I96" s="10"/>
-      <c r="J96" s="11"/>
+      <c r="J96" s="11" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="97" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
@@ -3776,13 +3792,17 @@
       <c r="E98" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="F98" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="G98" s="10"/>
+      <c r="F98" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="G98" s="10" t="s">
+        <v>354</v>
+      </c>
       <c r="H98" s="10"/>
       <c r="I98" s="10"/>
-      <c r="J98" s="11"/>
+      <c r="J98" s="11" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="99" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
@@ -3822,13 +3842,13 @@
       <c r="E100" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="F100" s="9" t="s">
-        <v>324</v>
-      </c>
+      <c r="F100" s="9"/>
       <c r="G100" s="10"/>
       <c r="H100" s="10"/>
       <c r="I100" s="10"/>
-      <c r="J100" s="11"/>
+      <c r="J100" s="11" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="101" spans="1:10" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
@@ -3890,13 +3910,12 @@
       <c r="E103" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="F103" s="9" t="s">
-        <v>325</v>
-      </c>
       <c r="G103" s="10"/>
       <c r="H103" s="10"/>
       <c r="I103" s="10"/>
-      <c r="J103" s="11"/>
+      <c r="J103" s="20" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="104" spans="1:10" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
@@ -4328,13 +4347,12 @@
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
-      <c r="F124" s="9" t="s">
-        <v>326</v>
-      </c>
       <c r="G124" s="10"/>
       <c r="H124" s="10"/>
       <c r="I124" s="10"/>
-      <c r="J124" s="11"/>
+      <c r="J124" s="9" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="125" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="5"/>
@@ -4342,27 +4360,25 @@
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
-      <c r="F125" s="9" t="s">
-        <v>327</v>
-      </c>
       <c r="G125" s="10"/>
       <c r="H125" s="10"/>
       <c r="I125" s="10"/>
-      <c r="J125" s="11"/>
-    </row>
-    <row r="126" spans="1:10" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J125" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="5"/>
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
-      <c r="F126" s="9" t="s">
-        <v>328</v>
-      </c>
       <c r="G126" s="10"/>
       <c r="H126" s="10"/>
       <c r="I126" s="10"/>
-      <c r="J126" s="11"/>
+      <c r="J126" s="9" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="127" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="5"/>
@@ -4370,13 +4386,12 @@
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
-      <c r="F127" s="9" t="s">
-        <v>329</v>
-      </c>
       <c r="G127" s="10"/>
       <c r="H127" s="10"/>
       <c r="I127" s="10"/>
-      <c r="J127" s="11"/>
+      <c r="J127" s="9" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="128" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="5"/>
@@ -4384,13 +4399,12 @@
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
-      <c r="F128" s="9" t="s">
-        <v>330</v>
-      </c>
       <c r="G128" s="10"/>
       <c r="H128" s="10"/>
       <c r="I128" s="10"/>
-      <c r="J128" s="11"/>
+      <c r="J128" s="9" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="129" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="5"/>
@@ -4398,13 +4412,12 @@
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
-      <c r="F129" s="9" t="s">
-        <v>331</v>
-      </c>
       <c r="G129" s="10"/>
       <c r="H129" s="10"/>
       <c r="I129" s="10"/>
-      <c r="J129" s="11"/>
+      <c r="J129" s="9" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="130" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="5"/>
@@ -4412,27 +4425,25 @@
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
-      <c r="F130" s="9" t="s">
-        <v>332</v>
-      </c>
       <c r="G130" s="10"/>
       <c r="H130" s="10"/>
       <c r="I130" s="10"/>
-      <c r="J130" s="11"/>
-    </row>
-    <row r="131" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J130" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="5"/>
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
-      <c r="F131" s="9" t="s">
-        <v>333</v>
-      </c>
       <c r="G131" s="10"/>
       <c r="H131" s="10"/>
       <c r="I131" s="10"/>
-      <c r="J131" s="11"/>
+      <c r="J131" s="9" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="132" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="5"/>
@@ -4440,13 +4451,12 @@
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
-      <c r="F132" s="9" t="s">
-        <v>334</v>
-      </c>
       <c r="G132" s="10"/>
       <c r="H132" s="10"/>
       <c r="I132" s="10"/>
-      <c r="J132" s="11"/>
+      <c r="J132" s="9" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="133" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="5"/>
@@ -4454,13 +4464,12 @@
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
-      <c r="F133" s="9" t="s">
-        <v>335</v>
-      </c>
       <c r="G133" s="10"/>
       <c r="H133" s="10"/>
       <c r="I133" s="10"/>
-      <c r="J133" s="11"/>
+      <c r="J133" s="9" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="134" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="5"/>
@@ -4468,69 +4477,64 @@
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
-      <c r="F134" s="9" t="s">
-        <v>336</v>
-      </c>
       <c r="G134" s="10"/>
       <c r="H134" s="10"/>
       <c r="I134" s="10"/>
-      <c r="J134" s="11"/>
-    </row>
-    <row r="135" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J134" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="5"/>
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
-      <c r="F135" s="9" t="s">
-        <v>337</v>
-      </c>
       <c r="G135" s="10"/>
       <c r="H135" s="10"/>
       <c r="I135" s="10"/>
-      <c r="J135" s="11"/>
-    </row>
-    <row r="136" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J135" s="9" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="5"/>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
-      <c r="F136" s="9" t="s">
-        <v>338</v>
-      </c>
       <c r="G136" s="10"/>
       <c r="H136" s="10"/>
       <c r="I136" s="10"/>
-      <c r="J136" s="11"/>
-    </row>
-    <row r="137" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J136" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="5"/>
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
-      <c r="F137" s="9" t="s">
-        <v>339</v>
-      </c>
       <c r="G137" s="10"/>
       <c r="H137" s="10"/>
       <c r="I137" s="10"/>
-      <c r="J137" s="11"/>
-    </row>
-    <row r="138" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J137" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="5"/>
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
-      <c r="F138" s="9" t="s">
-        <v>340</v>
-      </c>
       <c r="G138" s="10"/>
       <c r="H138" s="10"/>
       <c r="I138" s="10"/>
-      <c r="J138" s="11"/>
+      <c r="J138" s="9" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="139" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="5"/>
@@ -4538,13 +4542,12 @@
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
-      <c r="F139" s="9" t="s">
-        <v>341</v>
-      </c>
       <c r="G139" s="10"/>
       <c r="H139" s="10"/>
       <c r="I139" s="10"/>
-      <c r="J139" s="11"/>
+      <c r="J139" s="9" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="140" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="5"/>
@@ -4552,41 +4555,38 @@
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
-      <c r="F140" s="9" t="s">
-        <v>342</v>
-      </c>
       <c r="G140" s="10"/>
       <c r="H140" s="10"/>
       <c r="I140" s="10"/>
-      <c r="J140" s="11"/>
-    </row>
-    <row r="141" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J140" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="5"/>
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
-      <c r="F141" s="9" t="s">
-        <v>343</v>
-      </c>
       <c r="G141" s="10"/>
       <c r="H141" s="10"/>
       <c r="I141" s="10"/>
-      <c r="J141" s="11"/>
-    </row>
-    <row r="142" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J141" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="5"/>
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
-      <c r="F142" s="9" t="s">
-        <v>344</v>
-      </c>
       <c r="G142" s="10"/>
       <c r="H142" s="10"/>
       <c r="I142" s="10"/>
-      <c r="J142" s="11"/>
+      <c r="J142" s="9" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="143" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="5"/>
@@ -4594,13 +4594,12 @@
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
-      <c r="F143" s="9" t="s">
-        <v>345</v>
-      </c>
       <c r="G143" s="10"/>
       <c r="H143" s="10"/>
       <c r="I143" s="10"/>
-      <c r="J143" s="11"/>
+      <c r="J143" s="9" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="144" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="5"/>
@@ -4608,27 +4607,25 @@
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
-      <c r="F144" s="9" t="s">
-        <v>346</v>
-      </c>
       <c r="G144" s="10"/>
       <c r="H144" s="10"/>
       <c r="I144" s="10"/>
-      <c r="J144" s="11"/>
-    </row>
-    <row r="145" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J144" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="5"/>
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
-      <c r="F145" s="9" t="s">
-        <v>347</v>
-      </c>
       <c r="G145" s="10"/>
       <c r="H145" s="10"/>
       <c r="I145" s="10"/>
-      <c r="J145" s="11"/>
+      <c r="J145" s="9" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="146" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="5"/>
@@ -4636,13 +4633,12 @@
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
-      <c r="F146" s="9" t="s">
-        <v>348</v>
-      </c>
       <c r="G146" s="10"/>
       <c r="H146" s="10"/>
       <c r="I146" s="10"/>
-      <c r="J146" s="11"/>
+      <c r="J146" s="9" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="147" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="5"/>
@@ -4650,41 +4646,38 @@
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
-      <c r="F147" s="9" t="s">
-        <v>349</v>
-      </c>
       <c r="G147" s="10"/>
       <c r="H147" s="10"/>
       <c r="I147" s="10"/>
-      <c r="J147" s="11"/>
-    </row>
-    <row r="148" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J147" s="9" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="5"/>
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
-      <c r="F148" s="9" t="s">
-        <v>350</v>
-      </c>
       <c r="G148" s="10"/>
       <c r="H148" s="10"/>
       <c r="I148" s="10"/>
-      <c r="J148" s="11"/>
-    </row>
-    <row r="149" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J148" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="5"/>
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
-      <c r="F149" s="9" t="s">
-        <v>351</v>
-      </c>
       <c r="G149" s="10"/>
       <c r="H149" s="10"/>
       <c r="I149" s="10"/>
-      <c r="J149" s="11"/>
+      <c r="J149" s="9" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="150" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="5"/>
@@ -4692,13 +4685,12 @@
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
-      <c r="F150" s="9" t="s">
-        <v>352</v>
-      </c>
       <c r="G150" s="10"/>
       <c r="H150" s="10"/>
       <c r="I150" s="10"/>
-      <c r="J150" s="11"/>
+      <c r="J150" s="9" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="151" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="5"/>
@@ -4706,13 +4698,12 @@
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
-      <c r="F151" s="9" t="s">
-        <v>353</v>
-      </c>
       <c r="G151" s="10"/>
       <c r="H151" s="10"/>
       <c r="I151" s="10"/>
-      <c r="J151" s="11"/>
+      <c r="J151" s="9" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="152" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="5"/>
@@ -4720,13 +4711,12 @@
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
-      <c r="F152" s="9" t="s">
-        <v>354</v>
-      </c>
       <c r="G152" s="10"/>
       <c r="H152" s="10"/>
       <c r="I152" s="10"/>
-      <c r="J152" s="11"/>
+      <c r="J152" s="9" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="153" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="5"/>
@@ -4734,13 +4724,12 @@
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
-      <c r="F153" s="9" t="s">
-        <v>352</v>
-      </c>
       <c r="G153" s="10"/>
       <c r="H153" s="10"/>
       <c r="I153" s="10"/>
-      <c r="J153" s="11"/>
+      <c r="J153" s="9" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="154" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="5"/>
@@ -4748,13 +4737,12 @@
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
-      <c r="F154" s="9" t="s">
-        <v>353</v>
-      </c>
       <c r="G154" s="10"/>
       <c r="H154" s="10"/>
       <c r="I154" s="10"/>
-      <c r="J154" s="11"/>
+      <c r="J154" s="9" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="155" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="5"/>
@@ -4762,13 +4750,12 @@
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
-      <c r="F155" s="9" t="s">
-        <v>354</v>
-      </c>
       <c r="G155" s="10"/>
       <c r="H155" s="10"/>
       <c r="I155" s="10"/>
-      <c r="J155" s="11"/>
+      <c r="J155" s="9" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="156" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="5"/>
@@ -12890,8 +12877,22 @@
     <hyperlink ref="E122" r:id="rId211" location="log-a-specific-message" display="http://route4me.io/docs/ - log-a-specific-message"/>
     <hyperlink ref="D123" r:id="rId212" display="https://github.com/route4me/route4me-vbnet-sdk/blob/master/Route4Me Route Optimization Examples/Examples/Activities/GetActivities.vb"/>
     <hyperlink ref="E123" r:id="rId213" location="get-all-activities" display="http://route4me.io/docs/ - get-all-activities"/>
+    <hyperlink ref="F96" r:id="rId214" location="create-destination"/>
+    <hyperlink ref="F98" r:id="rId215" location="get-single-destination"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId214"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId216"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>